--- a/Models/case2_df_val.xlsx
+++ b/Models/case2_df_val.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>DATA</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>pred_RNN_ENDO_1_NEW_val</t>
+  </si>
+  <si>
+    <t>pred_RNN_EXO_1_NEW_val</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ185"/>
+  <dimension ref="A1:AR185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +509,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +639,11 @@
       <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:44">
       <c r="A2" s="2" t="n">
         <v>43157</v>
       </c>
@@ -741,34 +747,37 @@
         <v>53</v>
       </c>
       <c r="AI2" t="n">
-        <v>60.564208984375</v>
+        <v>69.08199310302734</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60.0384521484375</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK2" t="n">
-        <v>45.93643569946289</v>
+        <v>77.85440063476562</v>
       </c>
       <c r="AL2" t="n">
-        <v>67.44272613525391</v>
+        <v>58.06929779052734</v>
       </c>
       <c r="AM2" t="n">
-        <v>77.36495208740234</v>
+        <v>31.69626998901367</v>
       </c>
       <c r="AN2" t="n">
-        <v>719.4863891601562</v>
+        <v>575.7376708984375</v>
       </c>
       <c r="AO2" t="n">
-        <v>209.4018707275391</v>
+        <v>476.8216247558594</v>
       </c>
       <c r="AP2" t="n">
-        <v>209.4018707275391</v>
+        <v>476.8216247558594</v>
       </c>
       <c r="AQ2" t="n">
-        <v>45.93643569946289</v>
+        <v>77.85440063476562</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>423.401611328125</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:44">
       <c r="A3" s="2" t="n">
         <v>43158</v>
       </c>
@@ -872,34 +881,37 @@
         <v>52</v>
       </c>
       <c r="AI3" t="n">
-        <v>338.2976379394531</v>
+        <v>339.6626586914062</v>
       </c>
       <c r="AJ3" t="n">
-        <v>470.8838500976562</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK3" t="n">
-        <v>467.8260192871094</v>
+        <v>321.8190612792969</v>
       </c>
       <c r="AL3" t="n">
-        <v>447.5722961425781</v>
+        <v>439.1351318359375</v>
       </c>
       <c r="AM3" t="n">
-        <v>476.5531005859375</v>
+        <v>450.1946716308594</v>
       </c>
       <c r="AN3" t="n">
-        <v>343.6404418945312</v>
+        <v>417.6436462402344</v>
       </c>
       <c r="AO3" t="n">
-        <v>188.3738708496094</v>
+        <v>298.3194885253906</v>
       </c>
       <c r="AP3" t="n">
-        <v>188.3738708496094</v>
+        <v>298.3194885253906</v>
       </c>
       <c r="AQ3" t="n">
-        <v>467.8260192871094</v>
+        <v>321.8190612792969</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>181.1490936279297</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:44">
       <c r="A4" s="2" t="n">
         <v>43159</v>
       </c>
@@ -1003,36 +1015,39 @@
         <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>338.1232299804688</v>
+        <v>347.5968933105469</v>
       </c>
       <c r="AJ4" t="n">
-        <v>373.4031372070312</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK4" t="n">
-        <v>379.6907043457031</v>
+        <v>350.7846069335938</v>
       </c>
       <c r="AL4" t="n">
-        <v>428.6295471191406</v>
+        <v>399.7379150390625</v>
       </c>
       <c r="AM4" t="n">
-        <v>386.3619384765625</v>
+        <v>324.1530456542969</v>
       </c>
       <c r="AN4" t="n">
-        <v>370.1102294921875</v>
+        <v>382.1328430175781</v>
       </c>
       <c r="AO4" t="n">
-        <v>153.64404296875</v>
+        <v>300.3494262695312</v>
       </c>
       <c r="AP4" t="n">
-        <v>153.64404296875</v>
+        <v>300.3494262695312</v>
       </c>
       <c r="AQ4" t="n">
-        <v>379.6907043457031</v>
+        <v>350.7846069335938</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>210.1589508056641</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:44">
       <c r="A5" s="2" t="n">
-        <v>43103</v>
+        <v>43160</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1134,36 +1149,39 @@
         <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>430.3144836425781</v>
+        <v>428.8839721679688</v>
       </c>
       <c r="AJ5" t="n">
-        <v>407.7883911132812</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK5" t="n">
-        <v>418.7371826171875</v>
+        <v>343.9444580078125</v>
       </c>
       <c r="AL5" t="n">
-        <v>408.1850280761719</v>
+        <v>387.5903625488281</v>
       </c>
       <c r="AM5" t="n">
-        <v>444.8056335449219</v>
+        <v>426.9263000488281</v>
       </c>
       <c r="AN5" t="n">
-        <v>396.4835205078125</v>
+        <v>390.0627136230469</v>
       </c>
       <c r="AO5" t="n">
-        <v>298.1123046875</v>
+        <v>367.5359497070312</v>
       </c>
       <c r="AP5" t="n">
-        <v>298.1123046875</v>
+        <v>367.5359497070312</v>
       </c>
       <c r="AQ5" t="n">
-        <v>418.7371826171875</v>
+        <v>343.9444580078125</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>321.7275390625</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:44">
       <c r="A6" s="2" t="n">
-        <v>43134</v>
+        <v>43161</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1265,36 +1283,39 @@
         <v>3</v>
       </c>
       <c r="AI6" t="n">
-        <v>336.5876770019531</v>
+        <v>315.2710571289062</v>
       </c>
       <c r="AJ6" t="n">
-        <v>286.8221740722656</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK6" t="n">
-        <v>289.2976684570312</v>
+        <v>315.5741271972656</v>
       </c>
       <c r="AL6" t="n">
-        <v>340.1144409179688</v>
+        <v>330.5167236328125</v>
       </c>
       <c r="AM6" t="n">
-        <v>344.6848754882812</v>
+        <v>310.3102111816406</v>
       </c>
       <c r="AN6" t="n">
-        <v>330.56884765625</v>
+        <v>329.4839172363281</v>
       </c>
       <c r="AO6" t="n">
-        <v>264.4443969726562</v>
+        <v>354.7288208007812</v>
       </c>
       <c r="AP6" t="n">
-        <v>264.4443969726562</v>
+        <v>354.7288208007812</v>
       </c>
       <c r="AQ6" t="n">
-        <v>289.2976684570312</v>
+        <v>315.5741271972656</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>294.7388916015625</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:44">
       <c r="A7" s="2" t="n">
-        <v>43223</v>
+        <v>43164</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1396,36 +1417,39 @@
         <v>190</v>
       </c>
       <c r="AI7" t="n">
-        <v>306.4103698730469</v>
+        <v>322.1754760742188</v>
       </c>
       <c r="AJ7" t="n">
-        <v>367.3261413574219</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK7" t="n">
-        <v>388.2562866210938</v>
+        <v>343.1741638183594</v>
       </c>
       <c r="AL7" t="n">
-        <v>377.7850646972656</v>
+        <v>374.2400817871094</v>
       </c>
       <c r="AM7" t="n">
-        <v>374.6769409179688</v>
+        <v>374.2089233398438</v>
       </c>
       <c r="AN7" t="n">
-        <v>438.9972534179688</v>
+        <v>383.5912170410156</v>
       </c>
       <c r="AO7" t="n">
-        <v>280.9578552246094</v>
+        <v>335.4417114257812</v>
       </c>
       <c r="AP7" t="n">
-        <v>280.9578552246094</v>
+        <v>335.4417114257812</v>
       </c>
       <c r="AQ7" t="n">
-        <v>388.2562866210938</v>
+        <v>343.1741638183594</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>299.4850158691406</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:44">
       <c r="A8" s="2" t="n">
-        <v>43254</v>
+        <v>43165</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -1527,36 +1551,39 @@
         <v>237</v>
       </c>
       <c r="AI8" t="n">
-        <v>365.763427734375</v>
+        <v>359.4430541992188</v>
       </c>
       <c r="AJ8" t="n">
-        <v>375.4073791503906</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK8" t="n">
-        <v>363.4954223632812</v>
+        <v>365.4654541015625</v>
       </c>
       <c r="AL8" t="n">
-        <v>363.6054992675781</v>
+        <v>359.1136474609375</v>
       </c>
       <c r="AM8" t="n">
-        <v>397.4125366210938</v>
+        <v>392.2074279785156</v>
       </c>
       <c r="AN8" t="n">
-        <v>434.2334594726562</v>
+        <v>401.1954956054688</v>
       </c>
       <c r="AO8" t="n">
-        <v>294.4286193847656</v>
+        <v>347.7550048828125</v>
       </c>
       <c r="AP8" t="n">
-        <v>294.4286193847656</v>
+        <v>347.7550048828125</v>
       </c>
       <c r="AQ8" t="n">
-        <v>363.4954223632812</v>
+        <v>365.4654541015625</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>285.8484191894531</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:44">
       <c r="A9" s="2" t="n">
-        <v>43284</v>
+        <v>43166</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1658,36 +1685,39 @@
         <v>233</v>
       </c>
       <c r="AI9" t="n">
-        <v>489.3043518066406</v>
+        <v>502.929443359375</v>
       </c>
       <c r="AJ9" t="n">
-        <v>507.3260498046875</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK9" t="n">
-        <v>410.1849365234375</v>
+        <v>434.0077209472656</v>
       </c>
       <c r="AL9" t="n">
-        <v>430.3663940429688</v>
+        <v>408.6928405761719</v>
       </c>
       <c r="AM9" t="n">
-        <v>510.8265686035156</v>
+        <v>469.1061096191406</v>
       </c>
       <c r="AN9" t="n">
-        <v>503.0202026367188</v>
+        <v>493.6098327636719</v>
       </c>
       <c r="AO9" t="n">
-        <v>379.4674682617188</v>
+        <v>427.6592407226562</v>
       </c>
       <c r="AP9" t="n">
-        <v>379.4674682617188</v>
+        <v>427.6592407226562</v>
       </c>
       <c r="AQ9" t="n">
-        <v>410.1849365234375</v>
+        <v>434.0077209472656</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>343.25439453125</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:44">
       <c r="A10" s="2" t="n">
-        <v>43315</v>
+        <v>43167</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -1789,36 +1819,39 @@
         <v>231</v>
       </c>
       <c r="AI10" t="n">
-        <v>466.8882141113281</v>
+        <v>469.1802673339844</v>
       </c>
       <c r="AJ10" t="n">
-        <v>427.4996337890625</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK10" t="n">
-        <v>417.2189025878906</v>
+        <v>433.8925170898438</v>
       </c>
       <c r="AL10" t="n">
-        <v>412.9056091308594</v>
+        <v>388.4984436035156</v>
       </c>
       <c r="AM10" t="n">
-        <v>459.1676330566406</v>
+        <v>449.8131103515625</v>
       </c>
       <c r="AN10" t="n">
-        <v>493.6036071777344</v>
+        <v>474.1922912597656</v>
       </c>
       <c r="AO10" t="n">
-        <v>364.337890625</v>
+        <v>416.5728759765625</v>
       </c>
       <c r="AP10" t="n">
-        <v>364.337890625</v>
+        <v>416.5728759765625</v>
       </c>
       <c r="AQ10" t="n">
-        <v>417.2189025878906</v>
+        <v>433.8925170898438</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>345.0352783203125</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:44">
       <c r="A11" s="2" t="n">
-        <v>43346</v>
+        <v>43168</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1920,36 +1953,39 @@
         <v>92</v>
       </c>
       <c r="AI11" t="n">
-        <v>432.9764099121094</v>
+        <v>415.5934143066406</v>
       </c>
       <c r="AJ11" t="n">
-        <v>448.4631958007812</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK11" t="n">
-        <v>364.4166870117188</v>
+        <v>384.9248657226562</v>
       </c>
       <c r="AL11" t="n">
-        <v>380.9529724121094</v>
+        <v>366.6240539550781</v>
       </c>
       <c r="AM11" t="n">
-        <v>465.8486938476562</v>
+        <v>354.9309997558594</v>
       </c>
       <c r="AN11" t="n">
-        <v>411.583251953125</v>
+        <v>395.5912780761719</v>
       </c>
       <c r="AO11" t="n">
-        <v>295.9033813476562</v>
+        <v>388.7143249511719</v>
       </c>
       <c r="AP11" t="n">
-        <v>295.9033813476562</v>
+        <v>388.7143249511719</v>
       </c>
       <c r="AQ11" t="n">
-        <v>364.4166870117188</v>
+        <v>384.9248657226562</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>314.1147155761719</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:44">
       <c r="A12" s="2" t="n">
-        <v>43437</v>
+        <v>43171</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2051,34 +2087,37 @@
         <v>156</v>
       </c>
       <c r="AI12" t="n">
-        <v>275.3364868164062</v>
+        <v>302.3844299316406</v>
       </c>
       <c r="AJ12" t="n">
-        <v>363.7965698242188</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK12" t="n">
-        <v>338.2823791503906</v>
+        <v>360.7132568359375</v>
       </c>
       <c r="AL12" t="n">
-        <v>379.2095031738281</v>
+        <v>342.6961364746094</v>
       </c>
       <c r="AM12" t="n">
-        <v>358.3853759765625</v>
+        <v>363.2084655761719</v>
       </c>
       <c r="AN12" t="n">
-        <v>410.3239135742188</v>
+        <v>370.9372253417969</v>
       </c>
       <c r="AO12" t="n">
-        <v>282.1382751464844</v>
+        <v>339.8979187011719</v>
       </c>
       <c r="AP12" t="n">
-        <v>282.1382751464844</v>
+        <v>339.8979187011719</v>
       </c>
       <c r="AQ12" t="n">
-        <v>338.2823791503906</v>
+        <v>360.7132568359375</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>309.5522766113281</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:44">
       <c r="A13" s="2" t="n">
         <v>43172</v>
       </c>
@@ -2182,34 +2221,37 @@
         <v>289</v>
       </c>
       <c r="AI13" t="n">
-        <v>492.1093444824219</v>
+        <v>469.6278686523438</v>
       </c>
       <c r="AJ13" t="n">
-        <v>483.8603210449219</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK13" t="n">
-        <v>438.5231323242188</v>
+        <v>411.3116455078125</v>
       </c>
       <c r="AL13" t="n">
-        <v>430.3229370117188</v>
+        <v>416.4364624023438</v>
       </c>
       <c r="AM13" t="n">
-        <v>534.3331909179688</v>
+        <v>458.3973083496094</v>
       </c>
       <c r="AN13" t="n">
-        <v>467.0102844238281</v>
+        <v>458.3265380859375</v>
       </c>
       <c r="AO13" t="n">
-        <v>357.2182922363281</v>
+        <v>405.6504211425781</v>
       </c>
       <c r="AP13" t="n">
-        <v>357.2182922363281</v>
+        <v>405.6504211425781</v>
       </c>
       <c r="AQ13" t="n">
-        <v>438.5231323242188</v>
+        <v>411.3116455078125</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>327.9375</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:44">
       <c r="A14" s="2" t="n">
         <v>43173</v>
       </c>
@@ -2313,34 +2355,37 @@
         <v>264</v>
       </c>
       <c r="AI14" t="n">
-        <v>471.5769348144531</v>
+        <v>494.9648132324219</v>
       </c>
       <c r="AJ14" t="n">
-        <v>464.2993469238281</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK14" t="n">
-        <v>403.0499572753906</v>
+        <v>454.7845764160156</v>
       </c>
       <c r="AL14" t="n">
-        <v>412.6796569824219</v>
+        <v>387.7663269042969</v>
       </c>
       <c r="AM14" t="n">
-        <v>482.3232116699219</v>
+        <v>499.6613159179688</v>
       </c>
       <c r="AN14" t="n">
-        <v>506.5963134765625</v>
+        <v>490.7627563476562</v>
       </c>
       <c r="AO14" t="n">
-        <v>371.6354370117188</v>
+        <v>432.9346008300781</v>
       </c>
       <c r="AP14" t="n">
-        <v>371.6354370117188</v>
+        <v>432.9346008300781</v>
       </c>
       <c r="AQ14" t="n">
-        <v>403.0499572753906</v>
+        <v>454.7845764160156</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>335.9542236328125</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:44">
       <c r="A15" s="2" t="n">
         <v>43174</v>
       </c>
@@ -2444,34 +2489,37 @@
         <v>261</v>
       </c>
       <c r="AI15" t="n">
-        <v>485.7656860351562</v>
+        <v>467.1805419921875</v>
       </c>
       <c r="AJ15" t="n">
-        <v>486.9042053222656</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK15" t="n">
-        <v>424.6966857910156</v>
+        <v>435.7108764648438</v>
       </c>
       <c r="AL15" t="n">
-        <v>394.9264831542969</v>
+        <v>379.1786804199219</v>
       </c>
       <c r="AM15" t="n">
-        <v>451.3064575195312</v>
+        <v>455.24951171875</v>
       </c>
       <c r="AN15" t="n">
-        <v>484.9270324707031</v>
+        <v>450.3854064941406</v>
       </c>
       <c r="AO15" t="n">
-        <v>319.8734130859375</v>
+        <v>394.0521240234375</v>
       </c>
       <c r="AP15" t="n">
-        <v>319.8734130859375</v>
+        <v>394.0521240234375</v>
       </c>
       <c r="AQ15" t="n">
-        <v>424.6966857910156</v>
+        <v>435.7108764648438</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>292.3772277832031</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:44">
       <c r="A16" s="2" t="n">
         <v>43175</v>
       </c>
@@ -2575,34 +2623,37 @@
         <v>102</v>
       </c>
       <c r="AI16" t="n">
-        <v>426.98291015625</v>
+        <v>429.9323425292969</v>
       </c>
       <c r="AJ16" t="n">
-        <v>448.3211364746094</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK16" t="n">
-        <v>353.2197570800781</v>
+        <v>391.4447021484375</v>
       </c>
       <c r="AL16" t="n">
-        <v>354.6037292480469</v>
+        <v>341.3991394042969</v>
       </c>
       <c r="AM16" t="n">
-        <v>418.0104370117188</v>
+        <v>382.3235473632812</v>
       </c>
       <c r="AN16" t="n">
-        <v>419.8230285644531</v>
+        <v>375.3809814453125</v>
       </c>
       <c r="AO16" t="n">
-        <v>261.3617858886719</v>
+        <v>365.5030517578125</v>
       </c>
       <c r="AP16" t="n">
-        <v>261.3617858886719</v>
+        <v>365.5030517578125</v>
       </c>
       <c r="AQ16" t="n">
-        <v>353.2197570800781</v>
+        <v>391.4447021484375</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>252.8582763671875</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:44">
       <c r="A17" s="2" t="n">
         <v>43179</v>
       </c>
@@ -2706,34 +2757,37 @@
         <v>252</v>
       </c>
       <c r="AI17" t="n">
-        <v>287.1398010253906</v>
+        <v>308.5100708007812</v>
       </c>
       <c r="AJ17" t="n">
-        <v>353.1304321289062</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK17" t="n">
-        <v>342.246337890625</v>
+        <v>356.2767028808594</v>
       </c>
       <c r="AL17" t="n">
-        <v>379.4492797851562</v>
+        <v>355.4895935058594</v>
       </c>
       <c r="AM17" t="n">
-        <v>383.7877807617188</v>
+        <v>402.2333068847656</v>
       </c>
       <c r="AN17" t="n">
-        <v>407.1537475585938</v>
+        <v>378.5877075195312</v>
       </c>
       <c r="AO17" t="n">
-        <v>246.2605285644531</v>
+        <v>333.1237487792969</v>
       </c>
       <c r="AP17" t="n">
-        <v>246.2605285644531</v>
+        <v>333.1237487792969</v>
       </c>
       <c r="AQ17" t="n">
-        <v>342.246337890625</v>
+        <v>356.2767028808594</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>300.6409301757812</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:44">
       <c r="A18" s="2" t="n">
         <v>43180</v>
       </c>
@@ -2837,34 +2891,37 @@
         <v>309</v>
       </c>
       <c r="AI18" t="n">
-        <v>567.267578125</v>
+        <v>547.924560546875</v>
       </c>
       <c r="AJ18" t="n">
-        <v>558.7598266601562</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK18" t="n">
-        <v>442.8569946289062</v>
+        <v>466.5159912109375</v>
       </c>
       <c r="AL18" t="n">
-        <v>427.1148376464844</v>
+        <v>413.8115844726562</v>
       </c>
       <c r="AM18" t="n">
-        <v>602.3682861328125</v>
+        <v>582.1578369140625</v>
       </c>
       <c r="AN18" t="n">
-        <v>504.6741638183594</v>
+        <v>492.9925537109375</v>
       </c>
       <c r="AO18" t="n">
-        <v>373.4739074707031</v>
+        <v>430.1113586425781</v>
       </c>
       <c r="AP18" t="n">
-        <v>373.4739074707031</v>
+        <v>430.1113586425781</v>
       </c>
       <c r="AQ18" t="n">
-        <v>442.8569946289062</v>
+        <v>466.5159912109375</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>326.3914794921875</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:44">
       <c r="A19" s="2" t="n">
         <v>43181</v>
       </c>
@@ -2968,34 +3025,37 @@
         <v>265</v>
       </c>
       <c r="AI19" t="n">
-        <v>415.1158142089844</v>
+        <v>449.9892883300781</v>
       </c>
       <c r="AJ19" t="n">
-        <v>381.6331787109375</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK19" t="n">
-        <v>403.8970336914062</v>
+        <v>443.7111206054688</v>
       </c>
       <c r="AL19" t="n">
-        <v>419.2990417480469</v>
+        <v>395.9377746582031</v>
       </c>
       <c r="AM19" t="n">
-        <v>453.8164672851562</v>
+        <v>467.2904968261719</v>
       </c>
       <c r="AN19" t="n">
-        <v>462.1363830566406</v>
+        <v>450.168701171875</v>
       </c>
       <c r="AO19" t="n">
-        <v>333.517578125</v>
+        <v>409.94140625</v>
       </c>
       <c r="AP19" t="n">
-        <v>333.517578125</v>
+        <v>409.94140625</v>
       </c>
       <c r="AQ19" t="n">
-        <v>403.8970336914062</v>
+        <v>443.7111206054688</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>318.1998901367188</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:44">
       <c r="A20" s="2" t="n">
         <v>43182</v>
       </c>
@@ -3099,34 +3159,37 @@
         <v>274</v>
       </c>
       <c r="AI20" t="n">
-        <v>548.7183227539062</v>
+        <v>520.7144775390625</v>
       </c>
       <c r="AJ20" t="n">
-        <v>553.1279296875</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK20" t="n">
-        <v>456.5259094238281</v>
+        <v>445.6365051269531</v>
       </c>
       <c r="AL20" t="n">
-        <v>408.7386474609375</v>
+        <v>390.8081359863281</v>
       </c>
       <c r="AM20" t="n">
-        <v>531.5755615234375</v>
+        <v>523.3773193359375</v>
       </c>
       <c r="AN20" t="n">
-        <v>492.9300842285156</v>
+        <v>470.1739807128906</v>
       </c>
       <c r="AO20" t="n">
-        <v>321.2989196777344</v>
+        <v>401.5078735351562</v>
       </c>
       <c r="AP20" t="n">
-        <v>321.2989196777344</v>
+        <v>401.5078735351562</v>
       </c>
       <c r="AQ20" t="n">
-        <v>456.5259094238281</v>
+        <v>445.6365051269531</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>300.2005310058594</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:44">
       <c r="A21" s="2" t="n">
         <v>43185</v>
       </c>
@@ -3230,34 +3293,37 @@
         <v>81</v>
       </c>
       <c r="AI21" t="n">
-        <v>235.6920776367188</v>
+        <v>262.1289672851562</v>
       </c>
       <c r="AJ21" t="n">
-        <v>305.3831787109375</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK21" t="n">
-        <v>299.5220642089844</v>
+        <v>346.5837097167969</v>
       </c>
       <c r="AL21" t="n">
-        <v>377.8990478515625</v>
+        <v>332.6797180175781</v>
       </c>
       <c r="AM21" t="n">
-        <v>341.732177734375</v>
+        <v>331.6868896484375</v>
       </c>
       <c r="AN21" t="n">
-        <v>338.2626953125</v>
+        <v>326.0032958984375</v>
       </c>
       <c r="AO21" t="n">
-        <v>203.3784790039062</v>
+        <v>322.1274719238281</v>
       </c>
       <c r="AP21" t="n">
-        <v>203.3784790039062</v>
+        <v>322.1274719238281</v>
       </c>
       <c r="AQ21" t="n">
-        <v>299.5220642089844</v>
+        <v>346.5837097167969</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>277.6023559570312</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:44">
       <c r="A22" s="2" t="n">
         <v>43186</v>
       </c>
@@ -3361,34 +3427,37 @@
         <v>286</v>
       </c>
       <c r="AI22" t="n">
-        <v>528.6175537109375</v>
+        <v>508.2380065917969</v>
       </c>
       <c r="AJ22" t="n">
-        <v>525.3719482421875</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK22" t="n">
-        <v>468.4935607910156</v>
+        <v>438.8373413085938</v>
       </c>
       <c r="AL22" t="n">
-        <v>429.1642456054688</v>
+        <v>415.4549560546875</v>
       </c>
       <c r="AM22" t="n">
-        <v>569.2059326171875</v>
+        <v>508.1275024414062</v>
       </c>
       <c r="AN22" t="n">
-        <v>463.6494750976562</v>
+        <v>457.7788696289062</v>
       </c>
       <c r="AO22" t="n">
-        <v>318.2991027832031</v>
+        <v>402.8239440917969</v>
       </c>
       <c r="AP22" t="n">
-        <v>318.2991027832031</v>
+        <v>402.8239440917969</v>
       </c>
       <c r="AQ22" t="n">
-        <v>468.4935607910156</v>
+        <v>438.8373413085938</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>311.2234191894531</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:44">
       <c r="A23" s="2" t="n">
         <v>43187</v>
       </c>
@@ -3492,34 +3561,37 @@
         <v>254</v>
       </c>
       <c r="AI23" t="n">
-        <v>419.2254028320312</v>
+        <v>449.4922180175781</v>
       </c>
       <c r="AJ23" t="n">
-        <v>421.9446411132812</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK23" t="n">
-        <v>384.8638305664062</v>
+        <v>435.1447143554688</v>
       </c>
       <c r="AL23" t="n">
-        <v>412.2909545898438</v>
+        <v>383.5743103027344</v>
       </c>
       <c r="AM23" t="n">
-        <v>451.8062744140625</v>
+        <v>467.6827697753906</v>
       </c>
       <c r="AN23" t="n">
-        <v>457.2144165039062</v>
+        <v>452.4366760253906</v>
       </c>
       <c r="AO23" t="n">
-        <v>302.2723083496094</v>
+        <v>386.9512023925781</v>
       </c>
       <c r="AP23" t="n">
-        <v>302.2723083496094</v>
+        <v>386.9512023925781</v>
       </c>
       <c r="AQ23" t="n">
-        <v>384.8638305664062</v>
+        <v>435.1447143554688</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>298.0074462890625</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:44">
       <c r="A24" s="2" t="n">
         <v>43188</v>
       </c>
@@ -3623,36 +3695,39 @@
         <v>294</v>
       </c>
       <c r="AI24" t="n">
-        <v>477.6382751464844</v>
+        <v>463.0977783203125</v>
       </c>
       <c r="AJ24" t="n">
-        <v>479.3801879882812</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK24" t="n">
-        <v>457.7602233886719</v>
+        <v>430.243408203125</v>
       </c>
       <c r="AL24" t="n">
-        <v>415.2091369628906</v>
+        <v>402.2852783203125</v>
       </c>
       <c r="AM24" t="n">
-        <v>482.0265808105469</v>
+        <v>455.1821594238281</v>
       </c>
       <c r="AN24" t="n">
-        <v>487.0417175292969</v>
+        <v>454.9509887695312</v>
       </c>
       <c r="AO24" t="n">
-        <v>295.669189453125</v>
+        <v>380.5688781738281</v>
       </c>
       <c r="AP24" t="n">
-        <v>295.669189453125</v>
+        <v>380.5688781738281</v>
       </c>
       <c r="AQ24" t="n">
-        <v>457.7602233886719</v>
+        <v>430.243408203125</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>278.70703125</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:44">
       <c r="A25" s="2" t="n">
-        <v>43135</v>
+        <v>43192</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -3754,36 +3829,39 @@
         <v>104</v>
       </c>
       <c r="AI25" t="n">
-        <v>264.0402221679688</v>
+        <v>269.8467407226562</v>
       </c>
       <c r="AJ25" t="n">
-        <v>321.4678649902344</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK25" t="n">
-        <v>292.2030944824219</v>
+        <v>347.4997253417969</v>
       </c>
       <c r="AL25" t="n">
-        <v>320.0744934082031</v>
+        <v>279.2042846679688</v>
       </c>
       <c r="AM25" t="n">
-        <v>304.8608093261719</v>
+        <v>310.7721252441406</v>
       </c>
       <c r="AN25" t="n">
-        <v>434.9613647460938</v>
+        <v>372.6099243164062</v>
       </c>
       <c r="AO25" t="n">
-        <v>341.0718994140625</v>
+        <v>363.059326171875</v>
       </c>
       <c r="AP25" t="n">
-        <v>341.0718994140625</v>
+        <v>363.059326171875</v>
       </c>
       <c r="AQ25" t="n">
-        <v>292.2030944824219</v>
+        <v>347.4997253417969</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>358.2392883300781</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:44">
       <c r="A26" s="2" t="n">
-        <v>43163</v>
+        <v>43193</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -3885,34 +3963,37 @@
         <v>245</v>
       </c>
       <c r="AI26" t="n">
-        <v>493.376953125</v>
+        <v>501.1221923828125</v>
       </c>
       <c r="AJ26" t="n">
-        <v>473.9226379394531</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK26" t="n">
-        <v>420.4956359863281</v>
+        <v>427.7640075683594</v>
       </c>
       <c r="AL26" t="n">
-        <v>424.5443115234375</v>
+        <v>406.0176696777344</v>
       </c>
       <c r="AM26" t="n">
-        <v>508.6994323730469</v>
+        <v>464.2940979003906</v>
       </c>
       <c r="AN26" t="n">
-        <v>504.5613098144531</v>
+        <v>467.2717590332031</v>
       </c>
       <c r="AO26" t="n">
-        <v>432.7437744140625</v>
+        <v>431.6125793457031</v>
       </c>
       <c r="AP26" t="n">
-        <v>432.7437744140625</v>
+        <v>431.6125793457031</v>
       </c>
       <c r="AQ26" t="n">
-        <v>420.4956359863281</v>
+        <v>427.7640075683594</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>389.7830200195312</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:44">
       <c r="A27" s="2" t="n">
         <v>43194</v>
       </c>
@@ -4016,36 +4097,39 @@
         <v>266</v>
       </c>
       <c r="AI27" t="n">
-        <v>465.662841796875</v>
+        <v>477.5130004882812</v>
       </c>
       <c r="AJ27" t="n">
-        <v>462.2552185058594</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK27" t="n">
-        <v>401.0119934082031</v>
+        <v>442.1019287109375</v>
       </c>
       <c r="AL27" t="n">
-        <v>412.7729187011719</v>
+        <v>386.5000610351562</v>
       </c>
       <c r="AM27" t="n">
-        <v>474.8330993652344</v>
+        <v>475.1802368164062</v>
       </c>
       <c r="AN27" t="n">
-        <v>520.7173461914062</v>
+        <v>471.6412658691406</v>
       </c>
       <c r="AO27" t="n">
-        <v>389.6892700195312</v>
+        <v>430.79931640625</v>
       </c>
       <c r="AP27" t="n">
-        <v>389.6892700195312</v>
+        <v>430.79931640625</v>
       </c>
       <c r="AQ27" t="n">
-        <v>401.0119934082031</v>
+        <v>442.1019287109375</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>345.2583923339844</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:44">
       <c r="A28" s="2" t="n">
-        <v>43224</v>
+        <v>43195</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -4147,36 +4231,39 @@
         <v>217</v>
       </c>
       <c r="AI28" t="n">
-        <v>519.7485961914062</v>
+        <v>517.0647583007812</v>
       </c>
       <c r="AJ28" t="n">
-        <v>506.984619140625</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK28" t="n">
-        <v>439.9773864746094</v>
+        <v>423.1098937988281</v>
       </c>
       <c r="AL28" t="n">
-        <v>419.5317993164062</v>
+        <v>399.8103637695312</v>
       </c>
       <c r="AM28" t="n">
-        <v>499.101318359375</v>
+        <v>456.70751953125</v>
       </c>
       <c r="AN28" t="n">
-        <v>486.8033447265625</v>
+        <v>447.5484008789062</v>
       </c>
       <c r="AO28" t="n">
-        <v>384.6249084472656</v>
+        <v>438.25341796875</v>
       </c>
       <c r="AP28" t="n">
-        <v>384.6249084472656</v>
+        <v>438.25341796875</v>
       </c>
       <c r="AQ28" t="n">
-        <v>439.9773864746094</v>
+        <v>423.1098937988281</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>343.8493347167969</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:44">
       <c r="A29" s="2" t="n">
-        <v>43255</v>
+        <v>43196</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -4278,36 +4365,39 @@
         <v>134</v>
       </c>
       <c r="AI29" t="n">
-        <v>400.2908630371094</v>
+        <v>390.519775390625</v>
       </c>
       <c r="AJ29" t="n">
-        <v>420.6907348632812</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK29" t="n">
-        <v>346.9385375976562</v>
+        <v>398.2154235839844</v>
       </c>
       <c r="AL29" t="n">
-        <v>365.5556030273438</v>
+        <v>343.3606567382812</v>
       </c>
       <c r="AM29" t="n">
-        <v>407.8160095214844</v>
+        <v>373.3640747070312</v>
       </c>
       <c r="AN29" t="n">
-        <v>438.1325378417969</v>
+        <v>390.5030212402344</v>
       </c>
       <c r="AO29" t="n">
-        <v>348.2780151367188</v>
+        <v>399.2947998046875</v>
       </c>
       <c r="AP29" t="n">
-        <v>348.2780151367188</v>
+        <v>399.2947998046875</v>
       </c>
       <c r="AQ29" t="n">
-        <v>346.9385375976562</v>
+        <v>398.2154235839844</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>336.1807250976562</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:44">
       <c r="A30" s="2" t="n">
-        <v>43347</v>
+        <v>43199</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -4409,36 +4499,39 @@
         <v>233</v>
       </c>
       <c r="AI30" t="n">
-        <v>328.4324951171875</v>
+        <v>357.629638671875</v>
       </c>
       <c r="AJ30" t="n">
-        <v>385.7606201171875</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK30" t="n">
-        <v>375.7109375</v>
+        <v>364.4197387695312</v>
       </c>
       <c r="AL30" t="n">
-        <v>382.3750305175781</v>
+        <v>365.113037109375</v>
       </c>
       <c r="AM30" t="n">
-        <v>416.6883544921875</v>
+        <v>406.2312622070312</v>
       </c>
       <c r="AN30" t="n">
-        <v>422.3641357421875</v>
+        <v>381.4103393554688</v>
       </c>
       <c r="AO30" t="n">
-        <v>279.6946105957031</v>
+        <v>339.7434692382812</v>
       </c>
       <c r="AP30" t="n">
-        <v>279.6946105957031</v>
+        <v>339.7434692382812</v>
       </c>
       <c r="AQ30" t="n">
-        <v>375.7109375</v>
+        <v>364.4197387695312</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>315.0752258300781</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:44">
       <c r="A31" s="2" t="n">
-        <v>43377</v>
+        <v>43200</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -4540,36 +4633,39 @@
         <v>280</v>
       </c>
       <c r="AI31" t="n">
-        <v>529.254150390625</v>
+        <v>515.7789916992188</v>
       </c>
       <c r="AJ31" t="n">
-        <v>561.4290771484375</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK31" t="n">
-        <v>459.9990539550781</v>
+        <v>442.90234375</v>
       </c>
       <c r="AL31" t="n">
-        <v>439.8480529785156</v>
+        <v>429.6129760742188</v>
       </c>
       <c r="AM31" t="n">
-        <v>567.0416259765625</v>
+        <v>517.5740356445312</v>
       </c>
       <c r="AN31" t="n">
-        <v>489.142333984375</v>
+        <v>474.3350219726562</v>
       </c>
       <c r="AO31" t="n">
-        <v>376.0917053222656</v>
+        <v>444.1852111816406</v>
       </c>
       <c r="AP31" t="n">
-        <v>376.0917053222656</v>
+        <v>444.1852111816406</v>
       </c>
       <c r="AQ31" t="n">
-        <v>459.9990539550781</v>
+        <v>442.90234375</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>341.2759399414062</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:44">
       <c r="A32" s="2" t="n">
-        <v>43408</v>
+        <v>43201</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -4671,36 +4767,39 @@
         <v>251</v>
       </c>
       <c r="AI32" t="n">
-        <v>448.0247192382812</v>
+        <v>463.7748413085938</v>
       </c>
       <c r="AJ32" t="n">
-        <v>465.6919555664062</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK32" t="n">
-        <v>397.4818420410156</v>
+        <v>437.8553771972656</v>
       </c>
       <c r="AL32" t="n">
-        <v>408.6643676757812</v>
+        <v>382.4068603515625</v>
       </c>
       <c r="AM32" t="n">
-        <v>486.7748718261719</v>
+        <v>494.9582214355469</v>
       </c>
       <c r="AN32" t="n">
-        <v>466.7690124511719</v>
+        <v>456.8771057128906</v>
       </c>
       <c r="AO32" t="n">
-        <v>359.1556091308594</v>
+        <v>423.3590698242188</v>
       </c>
       <c r="AP32" t="n">
-        <v>359.1556091308594</v>
+        <v>423.3590698242188</v>
       </c>
       <c r="AQ32" t="n">
-        <v>397.4818420410156</v>
+        <v>437.8553771972656</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>346.7541198730469</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:44">
       <c r="A33" s="2" t="n">
-        <v>43438</v>
+        <v>43202</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -4802,34 +4901,37 @@
         <v>262</v>
       </c>
       <c r="AI33" t="n">
-        <v>506.4658508300781</v>
+        <v>500.6260070800781</v>
       </c>
       <c r="AJ33" t="n">
-        <v>525.8114624023438</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK33" t="n">
-        <v>449.4855346679688</v>
+        <v>444.3716125488281</v>
       </c>
       <c r="AL33" t="n">
-        <v>407.6114501953125</v>
+        <v>391.4541931152344</v>
       </c>
       <c r="AM33" t="n">
-        <v>498.6626281738281</v>
+        <v>479.7245788574219</v>
       </c>
       <c r="AN33" t="n">
-        <v>472.073974609375</v>
+        <v>441.6133117675781</v>
       </c>
       <c r="AO33" t="n">
-        <v>343.9371643066406</v>
+        <v>412.3786315917969</v>
       </c>
       <c r="AP33" t="n">
-        <v>343.9371643066406</v>
+        <v>412.3786315917969</v>
       </c>
       <c r="AQ33" t="n">
-        <v>449.4855346679688</v>
+        <v>444.3716125488281</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>315.7635192871094</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:44">
       <c r="A34" s="2" t="n">
         <v>43203</v>
       </c>
@@ -4933,34 +5035,37 @@
         <v>93</v>
       </c>
       <c r="AI34" t="n">
-        <v>396.3453979492188</v>
+        <v>398.4481506347656</v>
       </c>
       <c r="AJ34" t="n">
-        <v>415.6576232910156</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK34" t="n">
-        <v>351.318115234375</v>
+        <v>388.7779541015625</v>
       </c>
       <c r="AL34" t="n">
-        <v>375.9886474609375</v>
+        <v>347.6907653808594</v>
       </c>
       <c r="AM34" t="n">
-        <v>390.0513610839844</v>
+        <v>362.039794921875</v>
       </c>
       <c r="AN34" t="n">
-        <v>393.4789123535156</v>
+        <v>374.5033569335938</v>
       </c>
       <c r="AO34" t="n">
-        <v>303.1067504882812</v>
+        <v>390.1320495605469</v>
       </c>
       <c r="AP34" t="n">
-        <v>303.1067504882812</v>
+        <v>390.1320495605469</v>
       </c>
       <c r="AQ34" t="n">
-        <v>351.318115234375</v>
+        <v>388.7779541015625</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>313.0266418457031</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:44">
       <c r="A35" s="2" t="n">
         <v>43206</v>
       </c>
@@ -5064,34 +5169,37 @@
         <v>254</v>
       </c>
       <c r="AI35" t="n">
-        <v>333.9972534179688</v>
+        <v>350.975341796875</v>
       </c>
       <c r="AJ35" t="n">
-        <v>374.6739501953125</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK35" t="n">
-        <v>393.855224609375</v>
+        <v>364.7674255371094</v>
       </c>
       <c r="AL35" t="n">
-        <v>394.5268249511719</v>
+        <v>380.0645141601562</v>
       </c>
       <c r="AM35" t="n">
-        <v>430.6563415527344</v>
+        <v>408.0911560058594</v>
       </c>
       <c r="AN35" t="n">
-        <v>376.0617980957031</v>
+        <v>365.5689697265625</v>
       </c>
       <c r="AO35" t="n">
-        <v>285.1398620605469</v>
+        <v>343.4218444824219</v>
       </c>
       <c r="AP35" t="n">
-        <v>285.1398620605469</v>
+        <v>343.4218444824219</v>
       </c>
       <c r="AQ35" t="n">
-        <v>393.855224609375</v>
+        <v>364.7674255371094</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>314.4385986328125</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:44">
       <c r="A36" s="2" t="n">
         <v>43207</v>
       </c>
@@ -5195,34 +5303,37 @@
         <v>277</v>
       </c>
       <c r="AI36" t="n">
-        <v>480.2601013183594</v>
+        <v>468.4304809570312</v>
       </c>
       <c r="AJ36" t="n">
-        <v>505.9667663574219</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK36" t="n">
-        <v>454.4624633789062</v>
+        <v>440.4679260253906</v>
       </c>
       <c r="AL36" t="n">
-        <v>435.354736328125</v>
+        <v>419.9257507324219</v>
       </c>
       <c r="AM36" t="n">
-        <v>532.7738647460938</v>
+        <v>481.7901611328125</v>
       </c>
       <c r="AN36" t="n">
-        <v>448.3731384277344</v>
+        <v>450.1579284667969</v>
       </c>
       <c r="AO36" t="n">
-        <v>355.6105651855469</v>
+        <v>421.9889221191406</v>
       </c>
       <c r="AP36" t="n">
-        <v>355.6105651855469</v>
+        <v>421.9889221191406</v>
       </c>
       <c r="AQ36" t="n">
-        <v>454.4624633789062</v>
+        <v>440.4679260253906</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>328.6553955078125</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:44">
       <c r="A37" s="2" t="n">
         <v>43208</v>
       </c>
@@ -5326,34 +5437,37 @@
         <v>246</v>
       </c>
       <c r="AI37" t="n">
-        <v>453.1176147460938</v>
+        <v>474.515869140625</v>
       </c>
       <c r="AJ37" t="n">
-        <v>474.322998046875</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK37" t="n">
-        <v>403.6039428710938</v>
+        <v>447.572265625</v>
       </c>
       <c r="AL37" t="n">
-        <v>418.5596923828125</v>
+        <v>392.777099609375</v>
       </c>
       <c r="AM37" t="n">
-        <v>492.9727478027344</v>
+        <v>482.46533203125</v>
       </c>
       <c r="AN37" t="n">
-        <v>444.8229370117188</v>
+        <v>450.105712890625</v>
       </c>
       <c r="AO37" t="n">
-        <v>349.7582702636719</v>
+        <v>417.8782653808594</v>
       </c>
       <c r="AP37" t="n">
-        <v>349.7582702636719</v>
+        <v>417.8782653808594</v>
       </c>
       <c r="AQ37" t="n">
-        <v>403.6039428710938</v>
+        <v>447.572265625</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>330.853515625</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:44">
       <c r="A38" s="2" t="n">
         <v>43209</v>
       </c>
@@ -5457,34 +5571,37 @@
         <v>260</v>
       </c>
       <c r="AI38" t="n">
-        <v>481.1718444824219</v>
+        <v>479.96484375</v>
       </c>
       <c r="AJ38" t="n">
-        <v>480.23486328125</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK38" t="n">
-        <v>444.2415771484375</v>
+        <v>435.4912109375</v>
       </c>
       <c r="AL38" t="n">
-        <v>405.6167602539062</v>
+        <v>389.7713317871094</v>
       </c>
       <c r="AM38" t="n">
-        <v>471.5119934082031</v>
+        <v>471.0880737304688</v>
       </c>
       <c r="AN38" t="n">
-        <v>440.4148254394531</v>
+        <v>438.2808532714844</v>
       </c>
       <c r="AO38" t="n">
-        <v>335.6907653808594</v>
+        <v>402.3401489257812</v>
       </c>
       <c r="AP38" t="n">
-        <v>335.6907653808594</v>
+        <v>402.3401489257812</v>
       </c>
       <c r="AQ38" t="n">
-        <v>444.2415771484375</v>
+        <v>435.4912109375</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>330.3183898925781</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:44">
       <c r="A39" s="2" t="n">
         <v>43210</v>
       </c>
@@ -5588,34 +5705,37 @@
         <v>91</v>
       </c>
       <c r="AI39" t="n">
-        <v>405.2462158203125</v>
+        <v>401.517822265625</v>
       </c>
       <c r="AJ39" t="n">
-        <v>412.1160278320312</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK39" t="n">
-        <v>350.5758361816406</v>
+        <v>379.85107421875</v>
       </c>
       <c r="AL39" t="n">
-        <v>365.3777160644531</v>
+        <v>345.5580139160156</v>
       </c>
       <c r="AM39" t="n">
-        <v>415.166259765625</v>
+        <v>356.4167785644531</v>
       </c>
       <c r="AN39" t="n">
-        <v>355.2467041015625</v>
+        <v>342.5070190429688</v>
       </c>
       <c r="AO39" t="n">
-        <v>284.8953247070312</v>
+        <v>361.8306579589844</v>
       </c>
       <c r="AP39" t="n">
-        <v>284.8953247070312</v>
+        <v>361.8306579589844</v>
       </c>
       <c r="AQ39" t="n">
-        <v>350.5758361816406</v>
+        <v>379.85107421875</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>297.0903930664062</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:44">
       <c r="A40" s="2" t="n">
         <v>43213</v>
       </c>
@@ -5719,34 +5839,37 @@
         <v>224</v>
       </c>
       <c r="AI40" t="n">
-        <v>305.2491760253906</v>
+        <v>325.7090148925781</v>
       </c>
       <c r="AJ40" t="n">
-        <v>363.0342712402344</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK40" t="n">
-        <v>392.3862915039062</v>
+        <v>355.7608642578125</v>
       </c>
       <c r="AL40" t="n">
-        <v>400.7718505859375</v>
+        <v>381.3185119628906</v>
       </c>
       <c r="AM40" t="n">
-        <v>402.1566772460938</v>
+        <v>382.1574401855469</v>
       </c>
       <c r="AN40" t="n">
-        <v>378.3872375488281</v>
+        <v>366.7381591796875</v>
       </c>
       <c r="AO40" t="n">
-        <v>284.6385803222656</v>
+        <v>322.7692565917969</v>
       </c>
       <c r="AP40" t="n">
-        <v>284.6385803222656</v>
+        <v>322.7692565917969</v>
       </c>
       <c r="AQ40" t="n">
-        <v>392.3862915039062</v>
+        <v>355.7608642578125</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>308.3199462890625</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:44">
       <c r="A41" s="2" t="n">
         <v>43214</v>
       </c>
@@ -5850,34 +5973,37 @@
         <v>284</v>
       </c>
       <c r="AI41" t="n">
-        <v>488.8003234863281</v>
+        <v>477.9429626464844</v>
       </c>
       <c r="AJ41" t="n">
-        <v>495.1539001464844</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK41" t="n">
-        <v>459.2562255859375</v>
+        <v>437.1932983398438</v>
       </c>
       <c r="AL41" t="n">
-        <v>435.595458984375</v>
+        <v>421.8571166992188</v>
       </c>
       <c r="AM41" t="n">
-        <v>536.6215209960938</v>
+        <v>506.4831848144531</v>
       </c>
       <c r="AN41" t="n">
-        <v>435.8309020996094</v>
+        <v>437.1402893066406</v>
       </c>
       <c r="AO41" t="n">
-        <v>336.281005859375</v>
+        <v>397.8186645507812</v>
       </c>
       <c r="AP41" t="n">
-        <v>336.281005859375</v>
+        <v>397.8186645507812</v>
       </c>
       <c r="AQ41" t="n">
-        <v>459.2562255859375</v>
+        <v>437.1932983398438</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>306.2554626464844</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:44">
       <c r="A42" s="2" t="n">
         <v>43215</v>
       </c>
@@ -5981,34 +6107,37 @@
         <v>232</v>
       </c>
       <c r="AI42" t="n">
-        <v>402.6659240722656</v>
+        <v>424.8689575195312</v>
       </c>
       <c r="AJ42" t="n">
-        <v>441.8034362792969</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK42" t="n">
-        <v>394.7527770996094</v>
+        <v>426.7023315429688</v>
       </c>
       <c r="AL42" t="n">
-        <v>412.9902954101562</v>
+        <v>388.0961608886719</v>
       </c>
       <c r="AM42" t="n">
-        <v>462.3935241699219</v>
+        <v>442.7623291015625</v>
       </c>
       <c r="AN42" t="n">
-        <v>411.2669372558594</v>
+        <v>415.3115539550781</v>
       </c>
       <c r="AO42" t="n">
-        <v>296.8995361328125</v>
+        <v>373.7967834472656</v>
       </c>
       <c r="AP42" t="n">
-        <v>296.8995361328125</v>
+        <v>373.7967834472656</v>
       </c>
       <c r="AQ42" t="n">
-        <v>394.7527770996094</v>
+        <v>426.7023315429688</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>304.0914001464844</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:44">
       <c r="A43" s="2" t="n">
         <v>43216</v>
       </c>
@@ -6112,34 +6241,37 @@
         <v>236</v>
       </c>
       <c r="AI43" t="n">
-        <v>524.9841918945312</v>
+        <v>519.009521484375</v>
       </c>
       <c r="AJ43" t="n">
-        <v>522.986572265625</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK43" t="n">
-        <v>465.1870422363281</v>
+        <v>437.7075500488281</v>
       </c>
       <c r="AL43" t="n">
-        <v>420.7795715332031</v>
+        <v>401.7605285644531</v>
       </c>
       <c r="AM43" t="n">
-        <v>499.1544799804688</v>
+        <v>472.7078247070312</v>
       </c>
       <c r="AN43" t="n">
-        <v>452.7312316894531</v>
+        <v>441.4253234863281</v>
       </c>
       <c r="AO43" t="n">
-        <v>341.4837951660156</v>
+        <v>410.4754028320312</v>
       </c>
       <c r="AP43" t="n">
-        <v>341.4837951660156</v>
+        <v>410.4754028320312</v>
       </c>
       <c r="AQ43" t="n">
-        <v>465.1870422363281</v>
+        <v>437.7075500488281</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>339.8487243652344</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:44">
       <c r="A44" s="2" t="n">
         <v>43217</v>
       </c>
@@ -6243,36 +6375,39 @@
         <v>83</v>
       </c>
       <c r="AI44" t="n">
-        <v>388.2219543457031</v>
+        <v>388.3784484863281</v>
       </c>
       <c r="AJ44" t="n">
-        <v>391.4438171386719</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK44" t="n">
-        <v>347.7137756347656</v>
+        <v>379.9884338378906</v>
       </c>
       <c r="AL44" t="n">
-        <v>376.7551879882812</v>
+        <v>355.1635131835938</v>
       </c>
       <c r="AM44" t="n">
-        <v>389.7294006347656</v>
+        <v>359.2138366699219</v>
       </c>
       <c r="AN44" t="n">
-        <v>347.506103515625</v>
+        <v>333.7925720214844</v>
       </c>
       <c r="AO44" t="n">
-        <v>242.9798583984375</v>
+        <v>351.2292785644531</v>
       </c>
       <c r="AP44" t="n">
-        <v>242.9798583984375</v>
+        <v>351.2292785644531</v>
       </c>
       <c r="AQ44" t="n">
-        <v>347.7137756347656</v>
+        <v>379.9884338378906</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>273.5689697265625</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:44">
       <c r="A45" s="2" t="n">
-        <v>43136</v>
+        <v>43222</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -6374,36 +6509,39 @@
         <v>222</v>
       </c>
       <c r="AI45" t="n">
-        <v>323.6845703125</v>
+        <v>333.29345703125</v>
       </c>
       <c r="AJ45" t="n">
-        <v>394.3082275390625</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK45" t="n">
-        <v>399.2276916503906</v>
+        <v>365.9812622070312</v>
       </c>
       <c r="AL45" t="n">
-        <v>397.5889892578125</v>
+        <v>384.5591430664062</v>
       </c>
       <c r="AM45" t="n">
-        <v>423.5325012207031</v>
+        <v>391.9945373535156</v>
       </c>
       <c r="AN45" t="n">
-        <v>445.7528076171875</v>
+        <v>396.6851806640625</v>
       </c>
       <c r="AO45" t="n">
-        <v>351.0267333984375</v>
+        <v>378.9866027832031</v>
       </c>
       <c r="AP45" t="n">
-        <v>351.0267333984375</v>
+        <v>378.9866027832031</v>
       </c>
       <c r="AQ45" t="n">
-        <v>399.2276916503906</v>
+        <v>365.9812622070312</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>347.0945434570312</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:44">
       <c r="A46" s="2" t="n">
-        <v>43164</v>
+        <v>43223</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -6505,36 +6643,39 @@
         <v>238</v>
       </c>
       <c r="AI46" t="n">
-        <v>428.5738220214844</v>
+        <v>430.3019409179688</v>
       </c>
       <c r="AJ46" t="n">
-        <v>453.2711486816406</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK46" t="n">
-        <v>428.0051879882812</v>
+        <v>421.6689453125</v>
       </c>
       <c r="AL46" t="n">
-        <v>425.5631408691406</v>
+        <v>405.9172668457031</v>
       </c>
       <c r="AM46" t="n">
-        <v>479.4541015625</v>
+        <v>440.1402893066406</v>
       </c>
       <c r="AN46" t="n">
-        <v>470.5820617675781</v>
+        <v>434.5184326171875</v>
       </c>
       <c r="AO46" t="n">
-        <v>402.5266418457031</v>
+        <v>427.8069458007812</v>
       </c>
       <c r="AP46" t="n">
-        <v>402.5266418457031</v>
+        <v>427.8069458007812</v>
       </c>
       <c r="AQ46" t="n">
-        <v>428.0051879882812</v>
+        <v>421.6689453125</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>362.1007385253906</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:44">
       <c r="A47" s="2" t="n">
-        <v>43195</v>
+        <v>43224</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -6636,36 +6777,39 @@
         <v>262</v>
       </c>
       <c r="AI47" t="n">
-        <v>435.17431640625</v>
+        <v>452.1471557617188</v>
       </c>
       <c r="AJ47" t="n">
-        <v>456.7411193847656</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK47" t="n">
-        <v>397.9006042480469</v>
+        <v>424.5810852050781</v>
       </c>
       <c r="AL47" t="n">
-        <v>417.7246398925781</v>
+        <v>391.7546691894531</v>
       </c>
       <c r="AM47" t="n">
-        <v>482.7550048828125</v>
+        <v>462.4971313476562</v>
       </c>
       <c r="AN47" t="n">
-        <v>475.4385070800781</v>
+        <v>450.0281677246094</v>
       </c>
       <c r="AO47" t="n">
-        <v>399.2932739257812</v>
+        <v>430.2125244140625</v>
       </c>
       <c r="AP47" t="n">
-        <v>399.2932739257812</v>
+        <v>430.2125244140625</v>
       </c>
       <c r="AQ47" t="n">
-        <v>397.9006042480469</v>
+        <v>424.5810852050781</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>378.0859985351562</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:44">
       <c r="A48" s="2" t="n">
-        <v>43286</v>
+        <v>43227</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -6767,36 +6911,39 @@
         <v>250</v>
       </c>
       <c r="AI48" t="n">
-        <v>346.0832214355469</v>
+        <v>360.0243530273438</v>
       </c>
       <c r="AJ48" t="n">
-        <v>287.2180480957031</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK48" t="n">
-        <v>419.4073181152344</v>
+        <v>369.8006286621094</v>
       </c>
       <c r="AL48" t="n">
-        <v>406.16748046875</v>
+        <v>399.0224304199219</v>
       </c>
       <c r="AM48" t="n">
-        <v>417.3930053710938</v>
+        <v>407.5424499511719</v>
       </c>
       <c r="AN48" t="n">
-        <v>421.32373046875</v>
+        <v>375.5174865722656</v>
       </c>
       <c r="AO48" t="n">
-        <v>322.0846862792969</v>
+        <v>352.8615112304688</v>
       </c>
       <c r="AP48" t="n">
-        <v>322.0846862792969</v>
+        <v>352.8615112304688</v>
       </c>
       <c r="AQ48" t="n">
-        <v>419.4073181152344</v>
+        <v>369.8006286621094</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>316.722412109375</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:44">
       <c r="A49" s="2" t="n">
-        <v>43317</v>
+        <v>43228</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -6898,36 +7045,39 @@
         <v>90</v>
       </c>
       <c r="AI49" t="n">
-        <v>407.0910034179688</v>
+        <v>388.8406982421875</v>
       </c>
       <c r="AJ49" t="n">
-        <v>418.3867492675781</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK49" t="n">
-        <v>395.082763671875</v>
+        <v>372.0425720214844</v>
       </c>
       <c r="AL49" t="n">
-        <v>431.2684631347656</v>
+        <v>408.9794311523438</v>
       </c>
       <c r="AM49" t="n">
-        <v>448.9009399414062</v>
+        <v>422.3454895019531</v>
       </c>
       <c r="AN49" t="n">
-        <v>385.3562622070312</v>
+        <v>369.5189208984375</v>
       </c>
       <c r="AO49" t="n">
-        <v>338.863525390625</v>
+        <v>399.4301452636719</v>
       </c>
       <c r="AP49" t="n">
-        <v>338.863525390625</v>
+        <v>399.4301452636719</v>
       </c>
       <c r="AQ49" t="n">
-        <v>395.082763671875</v>
+        <v>372.0425720214844</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>319.9823303222656</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:44">
       <c r="A50" s="2" t="n">
-        <v>43348</v>
+        <v>43229</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -7029,36 +7179,39 @@
         <v>186</v>
       </c>
       <c r="AI50" t="n">
-        <v>433.1110229492188</v>
+        <v>451.6101989746094</v>
       </c>
       <c r="AJ50" t="n">
-        <v>455.4703674316406</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK50" t="n">
-        <v>419.8307189941406</v>
+        <v>425.887939453125</v>
       </c>
       <c r="AL50" t="n">
-        <v>424.8013000488281</v>
+        <v>399.5448913574219</v>
       </c>
       <c r="AM50" t="n">
-        <v>481.8164672851562</v>
+        <v>450.0883178710938</v>
       </c>
       <c r="AN50" t="n">
-        <v>445.5971069335938</v>
+        <v>436.4613952636719</v>
       </c>
       <c r="AO50" t="n">
-        <v>359.1900939941406</v>
+        <v>421.3818969726562</v>
       </c>
       <c r="AP50" t="n">
-        <v>359.1900939941406</v>
+        <v>421.3818969726562</v>
       </c>
       <c r="AQ50" t="n">
-        <v>419.8307189941406</v>
+        <v>425.887939453125</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>337.9862670898438</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:44">
       <c r="A51" s="2" t="n">
-        <v>43378</v>
+        <v>43230</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -7160,36 +7313,39 @@
         <v>249</v>
       </c>
       <c r="AI51" t="n">
-        <v>465.1910095214844</v>
+        <v>461.860107421875</v>
       </c>
       <c r="AJ51" t="n">
-        <v>460.6163940429688</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK51" t="n">
-        <v>444.4075317382812</v>
+        <v>428.4569396972656</v>
       </c>
       <c r="AL51" t="n">
-        <v>412.5913391113281</v>
+        <v>395.992919921875</v>
       </c>
       <c r="AM51" t="n">
-        <v>462.3014221191406</v>
+        <v>457.38427734375</v>
       </c>
       <c r="AN51" t="n">
-        <v>449.1437683105469</v>
+        <v>442.3584594726562</v>
       </c>
       <c r="AO51" t="n">
-        <v>353.5050659179688</v>
+        <v>415.858154296875</v>
       </c>
       <c r="AP51" t="n">
-        <v>353.5050659179688</v>
+        <v>415.858154296875</v>
       </c>
       <c r="AQ51" t="n">
-        <v>444.4075317382812</v>
+        <v>428.4569396972656</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>352.5358276367188</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:44">
       <c r="A52" s="2" t="n">
-        <v>43409</v>
+        <v>43231</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -7291,34 +7447,37 @@
         <v>94</v>
       </c>
       <c r="AI52" t="n">
-        <v>381.4517211914062</v>
+        <v>378.4798889160156</v>
       </c>
       <c r="AJ52" t="n">
-        <v>381.7147827148438</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK52" t="n">
-        <v>329.9801025390625</v>
+        <v>374.2667846679688</v>
       </c>
       <c r="AL52" t="n">
-        <v>315.840576171875</v>
+        <v>310.0891418457031</v>
       </c>
       <c r="AM52" t="n">
-        <v>380.0350341796875</v>
+        <v>341.0447692871094</v>
       </c>
       <c r="AN52" t="n">
-        <v>368.6253662109375</v>
+        <v>358.3714904785156</v>
       </c>
       <c r="AO52" t="n">
-        <v>305.8611450195312</v>
+        <v>376.4247741699219</v>
       </c>
       <c r="AP52" t="n">
-        <v>305.8611450195312</v>
+        <v>376.4247741699219</v>
       </c>
       <c r="AQ52" t="n">
-        <v>329.9801025390625</v>
+        <v>374.2667846679688</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>333.820068359375</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:44">
       <c r="A53" s="2" t="n">
         <v>43234</v>
       </c>
@@ -7422,34 +7581,37 @@
         <v>198</v>
       </c>
       <c r="AI53" t="n">
-        <v>299.4505920410156</v>
+        <v>316.2313842773438</v>
       </c>
       <c r="AJ53" t="n">
-        <v>369.7243041992188</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK53" t="n">
-        <v>367.0061340332031</v>
+        <v>347.2174377441406</v>
       </c>
       <c r="AL53" t="n">
-        <v>379.369140625</v>
+        <v>363.3285217285156</v>
       </c>
       <c r="AM53" t="n">
-        <v>384.7925720214844</v>
+        <v>368.5703735351562</v>
       </c>
       <c r="AN53" t="n">
-        <v>376.2340698242188</v>
+        <v>347.1116943359375</v>
       </c>
       <c r="AO53" t="n">
-        <v>310.493408203125</v>
+        <v>344.0220947265625</v>
       </c>
       <c r="AP53" t="n">
-        <v>310.493408203125</v>
+        <v>344.0220947265625</v>
       </c>
       <c r="AQ53" t="n">
-        <v>367.0061340332031</v>
+        <v>347.2174377441406</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>345.6824951171875</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:44">
       <c r="A54" s="2" t="n">
         <v>43235</v>
       </c>
@@ -7553,34 +7715,37 @@
         <v>260</v>
       </c>
       <c r="AI54" t="n">
-        <v>440.1893310546875</v>
+        <v>430.8349609375</v>
       </c>
       <c r="AJ54" t="n">
-        <v>442.2296447753906</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK54" t="n">
-        <v>436.1546630859375</v>
+        <v>400.7474365234375</v>
       </c>
       <c r="AL54" t="n">
-        <v>428.5341186523438</v>
+        <v>414.2619323730469</v>
       </c>
       <c r="AM54" t="n">
-        <v>475.9203186035156</v>
+        <v>442.9813842773438</v>
       </c>
       <c r="AN54" t="n">
-        <v>426.3211669921875</v>
+        <v>419.9743347167969</v>
       </c>
       <c r="AO54" t="n">
-        <v>354.3450317382812</v>
+        <v>398.377197265625</v>
       </c>
       <c r="AP54" t="n">
-        <v>354.3450317382812</v>
+        <v>398.377197265625</v>
       </c>
       <c r="AQ54" t="n">
-        <v>436.1546630859375</v>
+        <v>400.7474365234375</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>334.6430969238281</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:44">
       <c r="A55" s="2" t="n">
         <v>43236</v>
       </c>
@@ -7684,34 +7849,37 @@
         <v>244</v>
       </c>
       <c r="AI55" t="n">
-        <v>436.8732299804688</v>
+        <v>449.9068603515625</v>
       </c>
       <c r="AJ55" t="n">
-        <v>451.9448547363281</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK55" t="n">
-        <v>397.1138305664062</v>
+        <v>430.4850463867188</v>
       </c>
       <c r="AL55" t="n">
-        <v>424.440185546875</v>
+        <v>399.8992919921875</v>
       </c>
       <c r="AM55" t="n">
-        <v>475.7605285644531</v>
+        <v>439.6565856933594</v>
       </c>
       <c r="AN55" t="n">
-        <v>452.1793823242188</v>
+        <v>444.6585693359375</v>
       </c>
       <c r="AO55" t="n">
-        <v>390.0115661621094</v>
+        <v>426.0912170410156</v>
       </c>
       <c r="AP55" t="n">
-        <v>390.0115661621094</v>
+        <v>426.0912170410156</v>
       </c>
       <c r="AQ55" t="n">
-        <v>397.1138305664062</v>
+        <v>430.4850463867188</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>352.5487060546875</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:44">
       <c r="A56" s="2" t="n">
         <v>43237</v>
       </c>
@@ -7815,34 +7983,37 @@
         <v>230</v>
       </c>
       <c r="AI56" t="n">
-        <v>422.0751037597656</v>
+        <v>425.1024475097656</v>
       </c>
       <c r="AJ56" t="n">
-        <v>407.7149963378906</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK56" t="n">
-        <v>444.0031433105469</v>
+        <v>426.6645202636719</v>
       </c>
       <c r="AL56" t="n">
-        <v>397.1414489746094</v>
+        <v>393.9954223632812</v>
       </c>
       <c r="AM56" t="n">
-        <v>418.9560546875</v>
+        <v>440.9130859375</v>
       </c>
       <c r="AN56" t="n">
-        <v>465.7978515625</v>
+        <v>438.5888366699219</v>
       </c>
       <c r="AO56" t="n">
-        <v>381.7101745605469</v>
+        <v>417.6972351074219</v>
       </c>
       <c r="AP56" t="n">
-        <v>381.7101745605469</v>
+        <v>417.6972351074219</v>
       </c>
       <c r="AQ56" t="n">
-        <v>444.0031433105469</v>
+        <v>426.6645202636719</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>379.4315795898438</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:44">
       <c r="A57" s="2" t="n">
         <v>43238</v>
       </c>
@@ -7946,34 +8117,37 @@
         <v>83</v>
       </c>
       <c r="AI57" t="n">
-        <v>419.5628356933594</v>
+        <v>402.7367553710938</v>
       </c>
       <c r="AJ57" t="n">
-        <v>441.0140991210938</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK57" t="n">
-        <v>373.8258056640625</v>
+        <v>381.4766540527344</v>
       </c>
       <c r="AL57" t="n">
-        <v>409.8287048339844</v>
+        <v>383.1726379394531</v>
       </c>
       <c r="AM57" t="n">
-        <v>441.3009643554688</v>
+        <v>347.6185913085938</v>
       </c>
       <c r="AN57" t="n">
-        <v>392.017333984375</v>
+        <v>379.9257507324219</v>
       </c>
       <c r="AO57" t="n">
-        <v>345.0506286621094</v>
+        <v>402.4590148925781</v>
       </c>
       <c r="AP57" t="n">
-        <v>345.0506286621094</v>
+        <v>402.4590148925781</v>
       </c>
       <c r="AQ57" t="n">
-        <v>373.8258056640625</v>
+        <v>381.4766540527344</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>363.5382080078125</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:44">
       <c r="A58" s="2" t="n">
         <v>43241</v>
       </c>
@@ -8077,34 +8251,37 @@
         <v>204</v>
       </c>
       <c r="AI58" t="n">
-        <v>277.6099853515625</v>
+        <v>309.755126953125</v>
       </c>
       <c r="AJ58" t="n">
-        <v>327.3161315917969</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK58" t="n">
-        <v>356.1032409667969</v>
+        <v>360.2984619140625</v>
       </c>
       <c r="AL58" t="n">
-        <v>382.6339111328125</v>
+        <v>367.6914978027344</v>
       </c>
       <c r="AM58" t="n">
-        <v>357.2225341796875</v>
+        <v>378.7611389160156</v>
       </c>
       <c r="AN58" t="n">
-        <v>331.0296936035156</v>
+        <v>315.3624877929688</v>
       </c>
       <c r="AO58" t="n">
-        <v>318.1641235351562</v>
+        <v>313.5530090332031</v>
       </c>
       <c r="AP58" t="n">
-        <v>318.1641235351562</v>
+        <v>313.5530090332031</v>
       </c>
       <c r="AQ58" t="n">
-        <v>356.1032409667969</v>
+        <v>360.2984619140625</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>298.7798461914062</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:44">
       <c r="A59" s="2" t="n">
         <v>43242</v>
       </c>
@@ -8208,34 +8385,37 @@
         <v>274</v>
       </c>
       <c r="AI59" t="n">
-        <v>489.9755249023438</v>
+        <v>465.9080810546875</v>
       </c>
       <c r="AJ59" t="n">
-        <v>509.5595703125</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK59" t="n">
-        <v>458.2066650390625</v>
+        <v>427.2488098144531</v>
       </c>
       <c r="AL59" t="n">
-        <v>440.1983642578125</v>
+        <v>428.9251403808594</v>
       </c>
       <c r="AM59" t="n">
-        <v>529.9234619140625</v>
+        <v>473.1044311523438</v>
       </c>
       <c r="AN59" t="n">
-        <v>398.3442993164062</v>
+        <v>402.8885803222656</v>
       </c>
       <c r="AO59" t="n">
-        <v>389.2364807128906</v>
+        <v>393.8202514648438</v>
       </c>
       <c r="AP59" t="n">
-        <v>389.2364807128906</v>
+        <v>393.8202514648438</v>
       </c>
       <c r="AQ59" t="n">
-        <v>458.2066650390625</v>
+        <v>427.2488098144531</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>321.5083312988281</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:44">
       <c r="A60" s="2" t="n">
         <v>43243</v>
       </c>
@@ -8339,34 +8519,37 @@
         <v>197</v>
       </c>
       <c r="AI60" t="n">
-        <v>396.804931640625</v>
+        <v>417.8485107421875</v>
       </c>
       <c r="AJ60" t="n">
-        <v>413.5376586914062</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK60" t="n">
-        <v>386.9601745605469</v>
+        <v>419.6776428222656</v>
       </c>
       <c r="AL60" t="n">
-        <v>415.5884094238281</v>
+        <v>387.7535400390625</v>
       </c>
       <c r="AM60" t="n">
-        <v>427.5206604003906</v>
+        <v>425.4894409179688</v>
       </c>
       <c r="AN60" t="n">
-        <v>382.7230529785156</v>
+        <v>387.2032470703125</v>
       </c>
       <c r="AO60" t="n">
-        <v>360.3954162597656</v>
+        <v>382.789794921875</v>
       </c>
       <c r="AP60" t="n">
-        <v>360.3954162597656</v>
+        <v>382.789794921875</v>
       </c>
       <c r="AQ60" t="n">
-        <v>386.9601745605469</v>
+        <v>419.6776428222656</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>325.3906555175781</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:44">
       <c r="A61" s="2" t="n">
         <v>43244</v>
       </c>
@@ -8470,36 +8653,39 @@
         <v>269</v>
       </c>
       <c r="AI61" t="n">
-        <v>377.6641235351562</v>
+        <v>385.8970642089844</v>
       </c>
       <c r="AJ61" t="n">
-        <v>345.4150390625</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK61" t="n">
-        <v>366.0386047363281</v>
+        <v>382.8114013671875</v>
       </c>
       <c r="AL61" t="n">
-        <v>324.194580078125</v>
+        <v>336.4070739746094</v>
       </c>
       <c r="AM61" t="n">
-        <v>386.6513061523438</v>
+        <v>406.9874267578125</v>
       </c>
       <c r="AN61" t="n">
-        <v>365.3735656738281</v>
+        <v>313.0841064453125</v>
       </c>
       <c r="AO61" t="n">
-        <v>256.7204895019531</v>
+        <v>304.4608764648438</v>
       </c>
       <c r="AP61" t="n">
-        <v>256.7204895019531</v>
+        <v>304.4608764648438</v>
       </c>
       <c r="AQ61" t="n">
-        <v>366.0386047363281</v>
+        <v>382.8114013671875</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>269.9315185546875</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:44">
       <c r="A62" s="2" t="n">
-        <v>43196</v>
+        <v>43255</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -8601,36 +8787,39 @@
         <v>104</v>
       </c>
       <c r="AI62" t="n">
-        <v>177.6645965576172</v>
+        <v>174.7929382324219</v>
       </c>
       <c r="AJ62" t="n">
-        <v>271.2740173339844</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK62" t="n">
-        <v>276.4216613769531</v>
+        <v>264.307861328125</v>
       </c>
       <c r="AL62" t="n">
-        <v>378.7471923828125</v>
+        <v>351.9961853027344</v>
       </c>
       <c r="AM62" t="n">
-        <v>257.3232421875</v>
+        <v>228.3080902099609</v>
       </c>
       <c r="AN62" t="n">
-        <v>301.798583984375</v>
+        <v>260.2160949707031</v>
       </c>
       <c r="AO62" t="n">
-        <v>261.1256408691406</v>
+        <v>257.7657470703125</v>
       </c>
       <c r="AP62" t="n">
-        <v>261.1256408691406</v>
+        <v>257.7657470703125</v>
       </c>
       <c r="AQ62" t="n">
-        <v>276.4216613769531</v>
+        <v>264.307861328125</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>267.1000671386719</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:44">
       <c r="A63" s="2" t="n">
-        <v>43226</v>
+        <v>43256</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -8732,34 +8921,37 @@
         <v>221</v>
       </c>
       <c r="AI63" t="n">
-        <v>393.516845703125</v>
+        <v>392.1622619628906</v>
       </c>
       <c r="AJ63" t="n">
-        <v>434.8775939941406</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK63" t="n">
-        <v>461.5756225585938</v>
+        <v>377.1030883789062</v>
       </c>
       <c r="AL63" t="n">
-        <v>439.5488891601562</v>
+        <v>434.177734375</v>
       </c>
       <c r="AM63" t="n">
-        <v>461.2498779296875</v>
+        <v>509.9250183105469</v>
       </c>
       <c r="AN63" t="n">
-        <v>418.1367797851562</v>
+        <v>424.4892883300781</v>
       </c>
       <c r="AO63" t="n">
-        <v>411.172607421875</v>
+        <v>405.3714599609375</v>
       </c>
       <c r="AP63" t="n">
-        <v>411.172607421875</v>
+        <v>405.3714599609375</v>
       </c>
       <c r="AQ63" t="n">
-        <v>461.5756225585938</v>
+        <v>377.1030883789062</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>367.7169799804688</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:44">
       <c r="A64" s="2" t="n">
         <v>43257</v>
       </c>
@@ -8863,36 +9055,39 @@
         <v>273</v>
       </c>
       <c r="AI64" t="n">
-        <v>390.4459228515625</v>
+        <v>400.1314697265625</v>
       </c>
       <c r="AJ64" t="n">
-        <v>452.7425537109375</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK64" t="n">
-        <v>410.71337890625</v>
+        <v>414.9806213378906</v>
       </c>
       <c r="AL64" t="n">
-        <v>412.3708801269531</v>
+        <v>399.2396240234375</v>
       </c>
       <c r="AM64" t="n">
-        <v>366.2962951660156</v>
+        <v>355.0807800292969</v>
       </c>
       <c r="AN64" t="n">
-        <v>504.1382446289062</v>
+        <v>451.91748046875</v>
       </c>
       <c r="AO64" t="n">
-        <v>445.3666687011719</v>
+        <v>411.5434875488281</v>
       </c>
       <c r="AP64" t="n">
-        <v>445.3666687011719</v>
+        <v>411.5434875488281</v>
       </c>
       <c r="AQ64" t="n">
-        <v>410.71337890625</v>
+        <v>414.9806213378906</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>407.5012512207031</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:44">
       <c r="A65" s="2" t="n">
-        <v>43287</v>
+        <v>43258</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -8994,36 +9189,39 @@
         <v>131</v>
       </c>
       <c r="AI65" t="n">
-        <v>437.2602844238281</v>
+        <v>449.9147644042969</v>
       </c>
       <c r="AJ65" t="n">
-        <v>268.8362426757812</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK65" t="n">
-        <v>456.5911560058594</v>
+        <v>390.9270629882812</v>
       </c>
       <c r="AL65" t="n">
-        <v>375.465576171875</v>
+        <v>377.4447326660156</v>
       </c>
       <c r="AM65" t="n">
-        <v>406.6069641113281</v>
+        <v>448.8666381835938</v>
       </c>
       <c r="AN65" t="n">
-        <v>497.3208618164062</v>
+        <v>428.3480529785156</v>
       </c>
       <c r="AO65" t="n">
-        <v>447.3167114257812</v>
+        <v>422.6874389648438</v>
       </c>
       <c r="AP65" t="n">
-        <v>447.3167114257812</v>
+        <v>422.6874389648438</v>
       </c>
       <c r="AQ65" t="n">
-        <v>456.5911560058594</v>
+        <v>390.9270629882812</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>436.0586853027344</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:44">
       <c r="A66" s="2" t="n">
-        <v>43318</v>
+        <v>43259</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -9125,36 +9323,39 @@
         <v>0</v>
       </c>
       <c r="AI66" t="n">
-        <v>337.4451293945312</v>
+        <v>310.5844116210938</v>
       </c>
       <c r="AJ66" t="n">
-        <v>285.5902099609375</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK66" t="n">
-        <v>248.2166595458984</v>
+        <v>307.2500610351562</v>
       </c>
       <c r="AL66" t="n">
-        <v>263.796630859375</v>
+        <v>248.3979187011719</v>
       </c>
       <c r="AM66" t="n">
-        <v>336.0190734863281</v>
+        <v>323.6270141601562</v>
       </c>
       <c r="AN66" t="n">
-        <v>291.2475280761719</v>
+        <v>293.3632507324219</v>
       </c>
       <c r="AO66" t="n">
-        <v>311.9041748046875</v>
+        <v>356.8634033203125</v>
       </c>
       <c r="AP66" t="n">
-        <v>311.9041748046875</v>
+        <v>356.8634033203125</v>
       </c>
       <c r="AQ66" t="n">
-        <v>248.2166595458984</v>
+        <v>307.2500610351562</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>367.5625610351562</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:44">
       <c r="A67" s="2" t="n">
-        <v>43410</v>
+        <v>43262</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -9256,36 +9457,39 @@
         <v>192</v>
       </c>
       <c r="AI67" t="n">
-        <v>283.0783996582031</v>
+        <v>304.1672668457031</v>
       </c>
       <c r="AJ67" t="n">
-        <v>324.72607421875</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK67" t="n">
-        <v>316.0757751464844</v>
+        <v>319.8291320800781</v>
       </c>
       <c r="AL67" t="n">
-        <v>337.8273010253906</v>
+        <v>328.796142578125</v>
       </c>
       <c r="AM67" t="n">
-        <v>349.5654296875</v>
+        <v>355.9935607910156</v>
       </c>
       <c r="AN67" t="n">
-        <v>393.1099853515625</v>
+        <v>338.0686645507812</v>
       </c>
       <c r="AO67" t="n">
-        <v>376.7345275878906</v>
+        <v>352.9979858398438</v>
       </c>
       <c r="AP67" t="n">
-        <v>376.7345275878906</v>
+        <v>352.9979858398438</v>
       </c>
       <c r="AQ67" t="n">
-        <v>316.0757751464844</v>
+        <v>319.8291320800781</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>409.550048828125</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:44">
       <c r="A68" s="2" t="n">
-        <v>43440</v>
+        <v>43263</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -9387,34 +9591,37 @@
         <v>259</v>
       </c>
       <c r="AI68" t="n">
-        <v>253.5450897216797</v>
+        <v>251.5632629394531</v>
       </c>
       <c r="AJ68" t="n">
-        <v>316.7212219238281</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK68" t="n">
-        <v>293.8282165527344</v>
+        <v>305.5418395996094</v>
       </c>
       <c r="AL68" t="n">
-        <v>328.5826110839844</v>
+        <v>320.5745239257812</v>
       </c>
       <c r="AM68" t="n">
-        <v>266.4377136230469</v>
+        <v>242.6105651855469</v>
       </c>
       <c r="AN68" t="n">
-        <v>320.0008239746094</v>
+        <v>270.4019775390625</v>
       </c>
       <c r="AO68" t="n">
-        <v>294.3396911621094</v>
+        <v>282.6935729980469</v>
       </c>
       <c r="AP68" t="n">
-        <v>294.3396911621094</v>
+        <v>282.6935729980469</v>
       </c>
       <c r="AQ68" t="n">
-        <v>293.8282165527344</v>
+        <v>305.5418395996094</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>289.3262939453125</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:44">
       <c r="A69" s="2" t="n">
         <v>43264</v>
       </c>
@@ -9518,34 +9725,37 @@
         <v>214</v>
       </c>
       <c r="AI69" t="n">
-        <v>220.9734649658203</v>
+        <v>233.4801025390625</v>
       </c>
       <c r="AJ69" t="n">
-        <v>244.4148406982422</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK69" t="n">
-        <v>264.8778076171875</v>
+        <v>262.1824035644531</v>
       </c>
       <c r="AL69" t="n">
-        <v>303.7081604003906</v>
+        <v>298.7878112792969</v>
       </c>
       <c r="AM69" t="n">
-        <v>223.0114135742188</v>
+        <v>249.8996429443359</v>
       </c>
       <c r="AN69" t="n">
-        <v>304.717529296875</v>
+        <v>250.0585021972656</v>
       </c>
       <c r="AO69" t="n">
-        <v>287.886962890625</v>
+        <v>258.5497741699219</v>
       </c>
       <c r="AP69" t="n">
-        <v>287.886962890625</v>
+        <v>258.5497741699219</v>
       </c>
       <c r="AQ69" t="n">
-        <v>264.8778076171875</v>
+        <v>262.1824035644531</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>274.5427551269531</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:44">
       <c r="A70" s="2" t="n">
         <v>43265</v>
       </c>
@@ -9649,34 +9859,37 @@
         <v>224</v>
       </c>
       <c r="AI70" t="n">
-        <v>376.195068359375</v>
+        <v>382.7982177734375</v>
       </c>
       <c r="AJ70" t="n">
-        <v>445.6139221191406</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK70" t="n">
-        <v>426.2627563476562</v>
+        <v>358.1147155761719</v>
       </c>
       <c r="AL70" t="n">
-        <v>417.3538818359375</v>
+        <v>418.3562622070312</v>
       </c>
       <c r="AM70" t="n">
-        <v>306.6671142578125</v>
+        <v>438.3155822753906</v>
       </c>
       <c r="AN70" t="n">
-        <v>393.3966674804688</v>
+        <v>410.4767456054688</v>
       </c>
       <c r="AO70" t="n">
-        <v>355.6674194335938</v>
+        <v>363.8241882324219</v>
       </c>
       <c r="AP70" t="n">
-        <v>355.6674194335938</v>
+        <v>363.8241882324219</v>
       </c>
       <c r="AQ70" t="n">
-        <v>426.2627563476562</v>
+        <v>358.1147155761719</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>331.3491821289062</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:44">
       <c r="A71" s="2" t="n">
         <v>43266</v>
       </c>
@@ -9780,34 +9993,37 @@
         <v>85</v>
       </c>
       <c r="AI71" t="n">
-        <v>382.007080078125</v>
+        <v>387.254150390625</v>
       </c>
       <c r="AJ71" t="n">
-        <v>414.9153442382812</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK71" t="n">
-        <v>389.50341796875</v>
+        <v>367.89990234375</v>
       </c>
       <c r="AL71" t="n">
-        <v>433.2077026367188</v>
+        <v>414.2957458496094</v>
       </c>
       <c r="AM71" t="n">
-        <v>402.242919921875</v>
+        <v>355.1846313476562</v>
       </c>
       <c r="AN71" t="n">
-        <v>365.0913391113281</v>
+        <v>375.7756958007812</v>
       </c>
       <c r="AO71" t="n">
-        <v>367.7403869628906</v>
+        <v>391.5195922851562</v>
       </c>
       <c r="AP71" t="n">
-        <v>367.7403869628906</v>
+        <v>391.5195922851562</v>
       </c>
       <c r="AQ71" t="n">
-        <v>389.50341796875</v>
+        <v>367.89990234375</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>345.1549987792969</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:44">
       <c r="A72" s="2" t="n">
         <v>43269</v>
       </c>
@@ -9911,34 +10127,37 @@
         <v>46</v>
       </c>
       <c r="AI72" t="n">
-        <v>264.8870544433594</v>
+        <v>265.5443420410156</v>
       </c>
       <c r="AJ72" t="n">
-        <v>291.7427673339844</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK72" t="n">
-        <v>311.8270263671875</v>
+        <v>316.2745971679688</v>
       </c>
       <c r="AL72" t="n">
-        <v>330.0951843261719</v>
+        <v>302.966064453125</v>
       </c>
       <c r="AM72" t="n">
-        <v>340.8993225097656</v>
+        <v>323.407958984375</v>
       </c>
       <c r="AN72" t="n">
-        <v>280.9900512695312</v>
+        <v>298.6632385253906</v>
       </c>
       <c r="AO72" t="n">
-        <v>291.6922912597656</v>
+        <v>327.2970886230469</v>
       </c>
       <c r="AP72" t="n">
-        <v>291.6922912597656</v>
+        <v>327.2970886230469</v>
       </c>
       <c r="AQ72" t="n">
-        <v>311.8270263671875</v>
+        <v>316.2745971679688</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>317.1017761230469</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:44">
       <c r="A73" s="2" t="n">
         <v>43270</v>
       </c>
@@ -10042,34 +10261,37 @@
         <v>50</v>
       </c>
       <c r="AI73" t="n">
-        <v>295.1861267089844</v>
+        <v>284.2274169921875</v>
       </c>
       <c r="AJ73" t="n">
-        <v>295.5332336425781</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK73" t="n">
-        <v>275.7390747070312</v>
+        <v>311.7964172363281</v>
       </c>
       <c r="AL73" t="n">
-        <v>335.0560607910156</v>
+        <v>298.3182983398438</v>
       </c>
       <c r="AM73" t="n">
-        <v>350.9287109375</v>
+        <v>287.9833984375</v>
       </c>
       <c r="AN73" t="n">
-        <v>261.5911254882812</v>
+        <v>281.6009216308594</v>
       </c>
       <c r="AO73" t="n">
-        <v>280.2188415527344</v>
+        <v>313.3158874511719</v>
       </c>
       <c r="AP73" t="n">
-        <v>280.2188415527344</v>
+        <v>313.3158874511719</v>
       </c>
       <c r="AQ73" t="n">
-        <v>275.7390747070312</v>
+        <v>311.7964172363281</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>318.6341247558594</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:44">
       <c r="A74" s="2" t="n">
         <v>43271</v>
       </c>
@@ -10173,34 +10395,37 @@
         <v>190</v>
       </c>
       <c r="AI74" t="n">
-        <v>388.722412109375</v>
+        <v>411.3728332519531</v>
       </c>
       <c r="AJ74" t="n">
-        <v>426.4532165527344</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK74" t="n">
-        <v>386.6820068359375</v>
+        <v>387.5586242675781</v>
       </c>
       <c r="AL74" t="n">
-        <v>420.8629150390625</v>
+        <v>399.3761901855469</v>
       </c>
       <c r="AM74" t="n">
-        <v>435.4366149902344</v>
+        <v>401.140869140625</v>
       </c>
       <c r="AN74" t="n">
-        <v>377.5736389160156</v>
+        <v>396.3017578125</v>
       </c>
       <c r="AO74" t="n">
-        <v>403.559814453125</v>
+        <v>401.5733947753906</v>
       </c>
       <c r="AP74" t="n">
-        <v>403.559814453125</v>
+        <v>401.5733947753906</v>
       </c>
       <c r="AQ74" t="n">
-        <v>386.6820068359375</v>
+        <v>387.5586242675781</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>387.0401306152344</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:44">
       <c r="A75" s="2" t="n">
         <v>43272</v>
       </c>
@@ -10304,34 +10529,37 @@
         <v>242</v>
       </c>
       <c r="AI75" t="n">
-        <v>402.665283203125</v>
+        <v>407.5187072753906</v>
       </c>
       <c r="AJ75" t="n">
-        <v>357.0160217285156</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK75" t="n">
-        <v>395.3432006835938</v>
+        <v>382.1106872558594</v>
       </c>
       <c r="AL75" t="n">
-        <v>365.7879638671875</v>
+        <v>382.2900695800781</v>
       </c>
       <c r="AM75" t="n">
-        <v>390.4302368164062</v>
+        <v>404.9178161621094</v>
       </c>
       <c r="AN75" t="n">
-        <v>371.4840087890625</v>
+        <v>377.5674133300781</v>
       </c>
       <c r="AO75" t="n">
-        <v>367.4843444824219</v>
+        <v>370.0960693359375</v>
       </c>
       <c r="AP75" t="n">
-        <v>367.4843444824219</v>
+        <v>370.0960693359375</v>
       </c>
       <c r="AQ75" t="n">
-        <v>395.3432006835938</v>
+        <v>382.1106872558594</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>358.9146728515625</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:44">
       <c r="A76" s="2" t="n">
         <v>43273</v>
       </c>
@@ -10435,34 +10663,37 @@
         <v>98</v>
       </c>
       <c r="AI76" t="n">
-        <v>394.8170776367188</v>
+        <v>379.0117492675781</v>
       </c>
       <c r="AJ76" t="n">
-        <v>419.7279357910156</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK76" t="n">
-        <v>371.7085266113281</v>
+        <v>363.1554870605469</v>
       </c>
       <c r="AL76" t="n">
-        <v>377.8656616210938</v>
+        <v>375.8609924316406</v>
       </c>
       <c r="AM76" t="n">
-        <v>420.3193969726562</v>
+        <v>335.9936218261719</v>
       </c>
       <c r="AN76" t="n">
-        <v>335.1207275390625</v>
+        <v>331.9403686523438</v>
       </c>
       <c r="AO76" t="n">
-        <v>342.7693176269531</v>
+        <v>369.94287109375</v>
       </c>
       <c r="AP76" t="n">
-        <v>342.7693176269531</v>
+        <v>369.94287109375</v>
       </c>
       <c r="AQ76" t="n">
-        <v>371.7085266113281</v>
+        <v>363.1554870605469</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>335.3050537109375</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:44">
       <c r="A77" s="2" t="n">
         <v>43276</v>
       </c>
@@ -10566,34 +10797,37 @@
         <v>127</v>
       </c>
       <c r="AI77" t="n">
-        <v>175.8562164306641</v>
+        <v>189.5609741210938</v>
       </c>
       <c r="AJ77" t="n">
-        <v>275.4419250488281</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK77" t="n">
-        <v>295.212890625</v>
+        <v>294.3426208496094</v>
       </c>
       <c r="AL77" t="n">
-        <v>374.2146606445312</v>
+        <v>352.7265625</v>
       </c>
       <c r="AM77" t="n">
-        <v>238.7626953125</v>
+        <v>314.9904479980469</v>
       </c>
       <c r="AN77" t="n">
-        <v>263.2291259765625</v>
+        <v>255.5021209716797</v>
       </c>
       <c r="AO77" t="n">
-        <v>289.2251892089844</v>
+        <v>302.4776611328125</v>
       </c>
       <c r="AP77" t="n">
-        <v>289.2251892089844</v>
+        <v>302.4776611328125</v>
       </c>
       <c r="AQ77" t="n">
-        <v>295.212890625</v>
+        <v>294.3426208496094</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>283.5933227539062</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:44">
       <c r="A78" s="2" t="n">
         <v>43277</v>
       </c>
@@ -10697,34 +10931,37 @@
         <v>224</v>
       </c>
       <c r="AI78" t="n">
-        <v>363.3200378417969</v>
+        <v>332.8802185058594</v>
       </c>
       <c r="AJ78" t="n">
-        <v>407.9192504882812</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK78" t="n">
-        <v>449.6630249023438</v>
+        <v>392.8194580078125</v>
       </c>
       <c r="AL78" t="n">
-        <v>430.5997009277344</v>
+        <v>428.6192626953125</v>
       </c>
       <c r="AM78" t="n">
-        <v>447.2229309082031</v>
+        <v>474.9234924316406</v>
       </c>
       <c r="AN78" t="n">
-        <v>387.057861328125</v>
+        <v>388.8490905761719</v>
       </c>
       <c r="AO78" t="n">
-        <v>390.74951171875</v>
+        <v>376.6973571777344</v>
       </c>
       <c r="AP78" t="n">
-        <v>390.74951171875</v>
+        <v>376.6973571777344</v>
       </c>
       <c r="AQ78" t="n">
-        <v>449.6630249023438</v>
+        <v>392.8194580078125</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>325.0357055664062</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:44">
       <c r="A79" s="2" t="n">
         <v>43278</v>
       </c>
@@ -10828,34 +11065,37 @@
         <v>177</v>
       </c>
       <c r="AI79" t="n">
-        <v>331.0303649902344</v>
+        <v>360.2217712402344</v>
       </c>
       <c r="AJ79" t="n">
-        <v>393.5720520019531</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK79" t="n">
-        <v>398.4998474121094</v>
+        <v>410.8399353027344</v>
       </c>
       <c r="AL79" t="n">
-        <v>411.9619445800781</v>
+        <v>392.8929138183594</v>
       </c>
       <c r="AM79" t="n">
-        <v>361.0663146972656</v>
+        <v>300.6295471191406</v>
       </c>
       <c r="AN79" t="n">
-        <v>384.3914794921875</v>
+        <v>385.7423706054688</v>
       </c>
       <c r="AO79" t="n">
-        <v>365.1985473632812</v>
+        <v>355.4173889160156</v>
       </c>
       <c r="AP79" t="n">
-        <v>365.1985473632812</v>
+        <v>355.4173889160156</v>
       </c>
       <c r="AQ79" t="n">
-        <v>398.4998474121094</v>
+        <v>410.8399353027344</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>337.3914184570312</v>
       </c>
     </row>
-    <row r="80" spans="1:43">
+    <row r="80" spans="1:44">
       <c r="A80" s="2" t="n">
         <v>43279</v>
       </c>
@@ -10959,34 +11199,37 @@
         <v>212</v>
       </c>
       <c r="AI80" t="n">
-        <v>208.55419921875</v>
+        <v>226.8944854736328</v>
       </c>
       <c r="AJ80" t="n">
-        <v>40.98503112792969</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK80" t="n">
-        <v>417.7106323242188</v>
+        <v>304.5364990234375</v>
       </c>
       <c r="AL80" t="n">
-        <v>408.569091796875</v>
+        <v>399.3648681640625</v>
       </c>
       <c r="AM80" t="n">
-        <v>283.947998046875</v>
+        <v>153.7937316894531</v>
       </c>
       <c r="AN80" t="n">
-        <v>314.1401977539062</v>
+        <v>296.984619140625</v>
       </c>
       <c r="AO80" t="n">
-        <v>307.79345703125</v>
+        <v>280.7379760742188</v>
       </c>
       <c r="AP80" t="n">
-        <v>307.79345703125</v>
+        <v>280.7379760742188</v>
       </c>
       <c r="AQ80" t="n">
-        <v>417.7106323242188</v>
+        <v>304.5364990234375</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>321.6379089355469</v>
       </c>
     </row>
-    <row r="81" spans="1:43">
+    <row r="81" spans="1:44">
       <c r="A81" s="2" t="n">
         <v>43280</v>
       </c>
@@ -11090,36 +11333,39 @@
         <v>44</v>
       </c>
       <c r="AI81" t="n">
-        <v>338.264404296875</v>
+        <v>290.9844055175781</v>
       </c>
       <c r="AJ81" t="n">
-        <v>240.0523834228516</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK81" t="n">
-        <v>339.7582397460938</v>
+        <v>294.8272705078125</v>
       </c>
       <c r="AL81" t="n">
-        <v>432.2240600585938</v>
+        <v>420.5935668945312</v>
       </c>
       <c r="AM81" t="n">
-        <v>469.3761596679688</v>
+        <v>463.3052673339844</v>
       </c>
       <c r="AN81" t="n">
-        <v>223.2289123535156</v>
+        <v>262.8895874023438</v>
       </c>
       <c r="AO81" t="n">
-        <v>267.9132080078125</v>
+        <v>292.7620544433594</v>
       </c>
       <c r="AP81" t="n">
-        <v>267.9132080078125</v>
+        <v>292.7620544433594</v>
       </c>
       <c r="AQ81" t="n">
-        <v>339.7582397460938</v>
+        <v>294.8272705078125</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>272.0747985839844</v>
       </c>
     </row>
-    <row r="82" spans="1:43">
+    <row r="82" spans="1:44">
       <c r="A82" s="2" t="n">
-        <v>43138</v>
+        <v>43283</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -11221,36 +11467,39 @@
         <v>207</v>
       </c>
       <c r="AI82" t="n">
-        <v>200.0998229980469</v>
+        <v>251.7847442626953</v>
       </c>
       <c r="AJ82" t="n">
-        <v>168.4336090087891</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK82" t="n">
-        <v>368.9397888183594</v>
+        <v>321.0969848632812</v>
       </c>
       <c r="AL82" t="n">
-        <v>406.9000854492188</v>
+        <v>412.3407287597656</v>
       </c>
       <c r="AM82" t="n">
-        <v>252.3672637939453</v>
+        <v>293.8430786132812</v>
       </c>
       <c r="AN82" t="n">
-        <v>406.324951171875</v>
+        <v>352.843505859375</v>
       </c>
       <c r="AO82" t="n">
-        <v>397.4930419921875</v>
+        <v>338.1283569335938</v>
       </c>
       <c r="AP82" t="n">
-        <v>397.4930419921875</v>
+        <v>338.1283569335938</v>
       </c>
       <c r="AQ82" t="n">
-        <v>368.9397888183594</v>
+        <v>321.0969848632812</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>356.779052734375</v>
       </c>
     </row>
-    <row r="83" spans="1:43">
+    <row r="83" spans="1:44">
       <c r="A83" s="2" t="n">
-        <v>43166</v>
+        <v>43284</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -11352,36 +11601,39 @@
         <v>243</v>
       </c>
       <c r="AI83" t="n">
-        <v>337.3038330078125</v>
+        <v>291.8739624023438</v>
       </c>
       <c r="AJ83" t="n">
-        <v>183.3880920410156</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK83" t="n">
-        <v>237.3962097167969</v>
+        <v>286.6220397949219</v>
       </c>
       <c r="AL83" t="n">
-        <v>246.3939666748047</v>
+        <v>280.6015319824219</v>
       </c>
       <c r="AM83" t="n">
-        <v>212.5802001953125</v>
+        <v>162.2264404296875</v>
       </c>
       <c r="AN83" t="n">
-        <v>360.7640075683594</v>
+        <v>314.2355651855469</v>
       </c>
       <c r="AO83" t="n">
-        <v>340.3101501464844</v>
+        <v>332.3572998046875</v>
       </c>
       <c r="AP83" t="n">
-        <v>340.3101501464844</v>
+        <v>332.3572998046875</v>
       </c>
       <c r="AQ83" t="n">
-        <v>237.3962097167969</v>
+        <v>286.6220397949219</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>299.2045593261719</v>
       </c>
     </row>
-    <row r="84" spans="1:43">
+    <row r="84" spans="1:44">
       <c r="A84" s="2" t="n">
-        <v>43197</v>
+        <v>43285</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -11483,36 +11735,39 @@
         <v>0</v>
       </c>
       <c r="AI84" t="n">
-        <v>141.1436309814453</v>
+        <v>148.7757415771484</v>
       </c>
       <c r="AJ84" t="n">
-        <v>172.7355346679688</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK84" t="n">
-        <v>114.7158966064453</v>
+        <v>264.6315002441406</v>
       </c>
       <c r="AL84" t="n">
-        <v>106.173454284668</v>
+        <v>91.067626953125</v>
       </c>
       <c r="AM84" t="n">
-        <v>188.8061828613281</v>
+        <v>275.7850952148438</v>
       </c>
       <c r="AN84" t="n">
-        <v>285.8611145019531</v>
+        <v>270.3712463378906</v>
       </c>
       <c r="AO84" t="n">
-        <v>323.2398681640625</v>
+        <v>323.9177551269531</v>
       </c>
       <c r="AP84" t="n">
-        <v>323.2398681640625</v>
+        <v>323.9177551269531</v>
       </c>
       <c r="AQ84" t="n">
-        <v>114.7158966064453</v>
+        <v>264.6315002441406</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>338.3549499511719</v>
       </c>
     </row>
-    <row r="85" spans="1:43">
+    <row r="85" spans="1:44">
       <c r="A85" s="2" t="n">
-        <v>43227</v>
+        <v>43286</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -11614,36 +11869,39 @@
         <v>217</v>
       </c>
       <c r="AI85" t="n">
-        <v>265.7375183105469</v>
+        <v>263.3947448730469</v>
       </c>
       <c r="AJ85" t="n">
-        <v>221.9611053466797</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK85" t="n">
-        <v>235.9609222412109</v>
+        <v>287.5565795898438</v>
       </c>
       <c r="AL85" t="n">
-        <v>137.9867553710938</v>
+        <v>109.9441680908203</v>
       </c>
       <c r="AM85" t="n">
-        <v>139.6864471435547</v>
+        <v>188.9943542480469</v>
       </c>
       <c r="AN85" t="n">
-        <v>387.8320922851562</v>
+        <v>345.7711791992188</v>
       </c>
       <c r="AO85" t="n">
-        <v>376.9161071777344</v>
+        <v>335.8761291503906</v>
       </c>
       <c r="AP85" t="n">
-        <v>376.9161071777344</v>
+        <v>335.8761291503906</v>
       </c>
       <c r="AQ85" t="n">
-        <v>235.9609222412109</v>
+        <v>287.5565795898438</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>359.2114562988281</v>
       </c>
     </row>
-    <row r="86" spans="1:43">
+    <row r="86" spans="1:44">
       <c r="A86" s="2" t="n">
-        <v>43258</v>
+        <v>43287</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -11745,36 +12003,39 @@
         <v>82</v>
       </c>
       <c r="AI86" t="n">
-        <v>168.2599792480469</v>
+        <v>186.9590759277344</v>
       </c>
       <c r="AJ86" t="n">
-        <v>75.22582244873047</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK86" t="n">
-        <v>122.2249145507812</v>
+        <v>220.5964202880859</v>
       </c>
       <c r="AL86" t="n">
-        <v>81.9217529296875</v>
+        <v>46.81586837768555</v>
       </c>
       <c r="AM86" t="n">
-        <v>120.5547332763672</v>
+        <v>169.2030334472656</v>
       </c>
       <c r="AN86" t="n">
-        <v>229.3506622314453</v>
+        <v>196.2361907958984</v>
       </c>
       <c r="AO86" t="n">
-        <v>223.1914672851562</v>
+        <v>228.5778045654297</v>
       </c>
       <c r="AP86" t="n">
-        <v>223.1914672851562</v>
+        <v>228.5778045654297</v>
       </c>
       <c r="AQ86" t="n">
-        <v>122.2249145507812</v>
+        <v>220.5964202880859</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>245.0917358398438</v>
       </c>
     </row>
-    <row r="87" spans="1:43">
+    <row r="87" spans="1:44">
       <c r="A87" s="2" t="n">
-        <v>43380</v>
+        <v>43291</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -11876,36 +12137,39 @@
         <v>133</v>
       </c>
       <c r="AI87" t="n">
-        <v>132.0550384521484</v>
+        <v>115.5069046020508</v>
       </c>
       <c r="AJ87" t="n">
-        <v>90.58309936523438</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK87" t="n">
-        <v>164.2934875488281</v>
+        <v>133.6484527587891</v>
       </c>
       <c r="AL87" t="n">
-        <v>179.7347564697266</v>
+        <v>194.7424011230469</v>
       </c>
       <c r="AM87" t="n">
-        <v>93.96388244628906</v>
+        <v>145.9515075683594</v>
       </c>
       <c r="AN87" t="n">
-        <v>131.7804412841797</v>
+        <v>143.1073608398438</v>
       </c>
       <c r="AO87" t="n">
-        <v>213.2922973632812</v>
+        <v>167.2503356933594</v>
       </c>
       <c r="AP87" t="n">
-        <v>213.2922973632812</v>
+        <v>167.2503356933594</v>
       </c>
       <c r="AQ87" t="n">
-        <v>164.2934875488281</v>
+        <v>133.6484527587891</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>196.1793365478516</v>
       </c>
     </row>
-    <row r="88" spans="1:43">
+    <row r="88" spans="1:44">
       <c r="A88" s="2" t="n">
-        <v>43411</v>
+        <v>43292</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -12007,36 +12271,39 @@
         <v>155</v>
       </c>
       <c r="AI88" t="n">
-        <v>129.4102172851562</v>
+        <v>129.8419342041016</v>
       </c>
       <c r="AJ88" t="n">
-        <v>134.5050811767578</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK88" t="n">
-        <v>142.0942230224609</v>
+        <v>145.7319641113281</v>
       </c>
       <c r="AL88" t="n">
-        <v>167.1739044189453</v>
+        <v>164.6253662109375</v>
       </c>
       <c r="AM88" t="n">
-        <v>153.6393280029297</v>
+        <v>112.1425170898438</v>
       </c>
       <c r="AN88" t="n">
-        <v>120.7180099487305</v>
+        <v>112.6476287841797</v>
       </c>
       <c r="AO88" t="n">
-        <v>170.3963317871094</v>
+        <v>111.9580612182617</v>
       </c>
       <c r="AP88" t="n">
-        <v>170.3963317871094</v>
+        <v>111.9580612182617</v>
       </c>
       <c r="AQ88" t="n">
-        <v>142.0942230224609</v>
+        <v>145.7319641113281</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>98.84439086914062</v>
       </c>
     </row>
-    <row r="89" spans="1:43">
+    <row r="89" spans="1:44">
       <c r="A89" s="2" t="n">
-        <v>43441</v>
+        <v>43293</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -12138,34 +12405,37 @@
         <v>111</v>
       </c>
       <c r="AI89" t="n">
-        <v>116.0485000610352</v>
+        <v>121.1766204833984</v>
       </c>
       <c r="AJ89" t="n">
-        <v>117.6072998046875</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK89" t="n">
-        <v>83.09577178955078</v>
+        <v>111.9354248046875</v>
       </c>
       <c r="AL89" t="n">
-        <v>98.68901824951172</v>
+        <v>83.66494750976562</v>
       </c>
       <c r="AM89" t="n">
-        <v>59.97659683227539</v>
+        <v>71.49433898925781</v>
       </c>
       <c r="AN89" t="n">
-        <v>70.85596466064453</v>
+        <v>98.55650329589844</v>
       </c>
       <c r="AO89" t="n">
-        <v>139.5374298095703</v>
+        <v>98.2318115234375</v>
       </c>
       <c r="AP89" t="n">
-        <v>139.5374298095703</v>
+        <v>98.2318115234375</v>
       </c>
       <c r="AQ89" t="n">
-        <v>83.09577178955078</v>
+        <v>111.9354248046875</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>76.93337249755859</v>
       </c>
     </row>
-    <row r="90" spans="1:43">
+    <row r="90" spans="1:44">
       <c r="A90" s="2" t="n">
         <v>43294</v>
       </c>
@@ -12269,36 +12539,39 @@
         <v>65</v>
       </c>
       <c r="AI90" t="n">
-        <v>97.94727325439453</v>
+        <v>96.44594573974609</v>
       </c>
       <c r="AJ90" t="n">
-        <v>40.98503112792969</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK90" t="n">
-        <v>39.00734329223633</v>
+        <v>92.81121063232422</v>
       </c>
       <c r="AL90" t="n">
-        <v>71.57652282714844</v>
+        <v>46.81149291992188</v>
       </c>
       <c r="AM90" t="n">
-        <v>45.21909713745117</v>
+        <v>43.49534225463867</v>
       </c>
       <c r="AN90" t="n">
-        <v>54.43794250488281</v>
+        <v>9</v>
       </c>
       <c r="AO90" t="n">
-        <v>68.65849304199219</v>
+        <v>57.97763061523438</v>
       </c>
       <c r="AP90" t="n">
-        <v>68.65849304199219</v>
+        <v>57.97763061523438</v>
       </c>
       <c r="AQ90" t="n">
-        <v>39.00734329223633</v>
+        <v>92.81121063232422</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:43">
+    <row r="91" spans="1:44">
       <c r="A91" s="2" t="n">
-        <v>43259</v>
+        <v>43318</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -12400,36 +12673,39 @@
         <v>0</v>
       </c>
       <c r="AI91" t="n">
-        <v>53.11591339111328</v>
+        <v>48.90866088867188</v>
       </c>
       <c r="AJ91" t="n">
-        <v>62.70733642578125</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK91" t="n">
-        <v>85.28330993652344</v>
+        <v>73.15962982177734</v>
       </c>
       <c r="AL91" t="n">
-        <v>74.31326293945312</v>
+        <v>63.50865173339844</v>
       </c>
       <c r="AM91" t="n">
-        <v>82.60394287109375</v>
+        <v>64.59719085693359</v>
       </c>
       <c r="AN91" t="n">
-        <v>246.7710266113281</v>
+        <v>206.0732574462891</v>
       </c>
       <c r="AO91" t="n">
-        <v>291.224853515625</v>
+        <v>212.9249877929688</v>
       </c>
       <c r="AP91" t="n">
-        <v>291.224853515625</v>
+        <v>212.9249877929688</v>
       </c>
       <c r="AQ91" t="n">
-        <v>85.28330993652344</v>
+        <v>73.15962982177734</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>256.4842529296875</v>
       </c>
     </row>
-    <row r="92" spans="1:43">
+    <row r="92" spans="1:44">
       <c r="A92" s="2" t="n">
-        <v>43289</v>
+        <v>43319</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -12531,34 +12807,37 @@
         <v>35</v>
       </c>
       <c r="AI92" t="n">
-        <v>317.8666381835938</v>
+        <v>310.6678161621094</v>
       </c>
       <c r="AJ92" t="n">
-        <v>392.369873046875</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK92" t="n">
-        <v>554.1280517578125</v>
+        <v>287.5186157226562</v>
       </c>
       <c r="AL92" t="n">
-        <v>462.5595703125</v>
+        <v>466.8667602539062</v>
       </c>
       <c r="AM92" t="n">
-        <v>489.5003051757812</v>
+        <v>424.7640991210938</v>
       </c>
       <c r="AN92" t="n">
-        <v>322.6883544921875</v>
+        <v>411.41015625</v>
       </c>
       <c r="AO92" t="n">
-        <v>372.7256774902344</v>
+        <v>378.0314636230469</v>
       </c>
       <c r="AP92" t="n">
-        <v>372.7256774902344</v>
+        <v>378.0314636230469</v>
       </c>
       <c r="AQ92" t="n">
-        <v>554.1280517578125</v>
+        <v>287.5186157226562</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>342.3281555175781</v>
       </c>
     </row>
-    <row r="93" spans="1:43">
+    <row r="93" spans="1:44">
       <c r="A93" s="2" t="n">
         <v>43320</v>
       </c>
@@ -12662,36 +12941,39 @@
         <v>34</v>
       </c>
       <c r="AI93" t="n">
-        <v>364.3130187988281</v>
+        <v>371.4761962890625</v>
       </c>
       <c r="AJ93" t="n">
-        <v>372.4739685058594</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK93" t="n">
-        <v>402.0046997070312</v>
+        <v>382.6832580566406</v>
       </c>
       <c r="AL93" t="n">
-        <v>427.8617553710938</v>
+        <v>398.7598266601562</v>
       </c>
       <c r="AM93" t="n">
-        <v>351.4375305175781</v>
+        <v>340.7757263183594</v>
       </c>
       <c r="AN93" t="n">
-        <v>410.7341918945312</v>
+        <v>439.1778869628906</v>
       </c>
       <c r="AO93" t="n">
-        <v>413.1807556152344</v>
+        <v>433.3649291992188</v>
       </c>
       <c r="AP93" t="n">
-        <v>413.1807556152344</v>
+        <v>433.3649291992188</v>
       </c>
       <c r="AQ93" t="n">
-        <v>402.0046997070312</v>
+        <v>382.6832580566406</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>432.6226196289062</v>
       </c>
     </row>
-    <row r="94" spans="1:43">
+    <row r="94" spans="1:44">
       <c r="A94" s="2" t="n">
-        <v>43351</v>
+        <v>43321</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -12793,36 +13075,39 @@
         <v>19</v>
       </c>
       <c r="AI94" t="n">
-        <v>430.9161376953125</v>
+        <v>415.4359436035156</v>
       </c>
       <c r="AJ94" t="n">
-        <v>423.5053405761719</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK94" t="n">
-        <v>428.5587768554688</v>
+        <v>361.7980651855469</v>
       </c>
       <c r="AL94" t="n">
-        <v>422.099609375</v>
+        <v>393.1960754394531</v>
       </c>
       <c r="AM94" t="n">
-        <v>448.2991638183594</v>
+        <v>436.8805236816406</v>
       </c>
       <c r="AN94" t="n">
-        <v>362.3810119628906</v>
+        <v>400.1735534667969</v>
       </c>
       <c r="AO94" t="n">
-        <v>383.9412841796875</v>
+        <v>429.89306640625</v>
       </c>
       <c r="AP94" t="n">
-        <v>383.9412841796875</v>
+        <v>429.89306640625</v>
       </c>
       <c r="AQ94" t="n">
-        <v>428.5587768554688</v>
+        <v>361.7980651855469</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>451.188720703125</v>
       </c>
     </row>
-    <row r="95" spans="1:43">
+    <row r="95" spans="1:44">
       <c r="A95" s="2" t="n">
-        <v>43381</v>
+        <v>43322</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -12924,34 +13209,37 @@
         <v>0</v>
       </c>
       <c r="AI95" t="n">
-        <v>324.6878356933594</v>
+        <v>319.1853332519531</v>
       </c>
       <c r="AJ95" t="n">
-        <v>274.0240173339844</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK95" t="n">
-        <v>290.1634216308594</v>
+        <v>325.0088195800781</v>
       </c>
       <c r="AL95" t="n">
-        <v>295.0103149414062</v>
+        <v>300.8018798828125</v>
       </c>
       <c r="AM95" t="n">
-        <v>313.5951232910156</v>
+        <v>329.3766479492188</v>
       </c>
       <c r="AN95" t="n">
-        <v>311.6943054199219</v>
+        <v>329.5413208007812</v>
       </c>
       <c r="AO95" t="n">
-        <v>396.093017578125</v>
+        <v>398.5830383300781</v>
       </c>
       <c r="AP95" t="n">
-        <v>396.093017578125</v>
+        <v>398.5830383300781</v>
       </c>
       <c r="AQ95" t="n">
-        <v>290.1634216308594</v>
+        <v>325.0088195800781</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>407.622314453125</v>
       </c>
     </row>
-    <row r="96" spans="1:43">
+    <row r="96" spans="1:44">
       <c r="A96" s="2" t="n">
         <v>43325</v>
       </c>
@@ -13055,34 +13343,37 @@
         <v>221</v>
       </c>
       <c r="AI96" t="n">
-        <v>294.6372985839844</v>
+        <v>302.4573364257812</v>
       </c>
       <c r="AJ96" t="n">
-        <v>355.3334655761719</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK96" t="n">
-        <v>359.9574279785156</v>
+        <v>331.6557922363281</v>
       </c>
       <c r="AL96" t="n">
-        <v>380.3015441894531</v>
+        <v>369.0453491210938</v>
       </c>
       <c r="AM96" t="n">
-        <v>372.6528625488281</v>
+        <v>363.6688232421875</v>
       </c>
       <c r="AN96" t="n">
-        <v>334.279541015625</v>
+        <v>320.6833801269531</v>
       </c>
       <c r="AO96" t="n">
-        <v>364.2289428710938</v>
+        <v>351.4265747070312</v>
       </c>
       <c r="AP96" t="n">
-        <v>364.2289428710938</v>
+        <v>351.4265747070312</v>
       </c>
       <c r="AQ96" t="n">
-        <v>359.9574279785156</v>
+        <v>331.6557922363281</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>409.745849609375</v>
       </c>
     </row>
-    <row r="97" spans="1:43">
+    <row r="97" spans="1:44">
       <c r="A97" s="2" t="n">
         <v>43326</v>
       </c>
@@ -13186,34 +13477,37 @@
         <v>297</v>
       </c>
       <c r="AI97" t="n">
-        <v>493.0740356445312</v>
+        <v>477.8927001953125</v>
       </c>
       <c r="AJ97" t="n">
-        <v>491.1337280273438</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK97" t="n">
-        <v>473.3984375</v>
+        <v>430.6440124511719</v>
       </c>
       <c r="AL97" t="n">
-        <v>449.864013671875</v>
+        <v>446.283447265625</v>
       </c>
       <c r="AM97" t="n">
-        <v>506.0834350585938</v>
+        <v>448.2635803222656</v>
       </c>
       <c r="AN97" t="n">
-        <v>459.205078125</v>
+        <v>481.13720703125</v>
       </c>
       <c r="AO97" t="n">
-        <v>492.2121887207031</v>
+        <v>477.5414123535156</v>
       </c>
       <c r="AP97" t="n">
-        <v>492.2121887207031</v>
+        <v>477.5414123535156</v>
       </c>
       <c r="AQ97" t="n">
-        <v>473.3984375</v>
+        <v>430.6440124511719</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>436.6345520019531</v>
       </c>
     </row>
-    <row r="98" spans="1:43">
+    <row r="98" spans="1:44">
       <c r="A98" s="2" t="n">
         <v>43327</v>
       </c>
@@ -13317,34 +13611,37 @@
         <v>282</v>
       </c>
       <c r="AI98" t="n">
-        <v>413.4302673339844</v>
+        <v>424.2520446777344</v>
       </c>
       <c r="AJ98" t="n">
-        <v>356.0695190429688</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK98" t="n">
-        <v>395.9873962402344</v>
+        <v>439.1790466308594</v>
       </c>
       <c r="AL98" t="n">
-        <v>416.5105895996094</v>
+        <v>394.9759521484375</v>
       </c>
       <c r="AM98" t="n">
-        <v>415.9619445800781</v>
+        <v>437.8508911132812</v>
       </c>
       <c r="AN98" t="n">
-        <v>435.813720703125</v>
+        <v>465.1160278320312</v>
       </c>
       <c r="AO98" t="n">
-        <v>453.4522094726562</v>
+        <v>457.8749084472656</v>
       </c>
       <c r="AP98" t="n">
-        <v>453.4522094726562</v>
+        <v>457.8749084472656</v>
       </c>
       <c r="AQ98" t="n">
-        <v>395.9873962402344</v>
+        <v>439.1790466308594</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>465.584228515625</v>
       </c>
     </row>
-    <row r="99" spans="1:43">
+    <row r="99" spans="1:44">
       <c r="A99" s="2" t="n">
         <v>43328</v>
       </c>
@@ -13448,34 +13745,37 @@
         <v>230</v>
       </c>
       <c r="AI99" t="n">
-        <v>462.3712158203125</v>
+        <v>444.8756408691406</v>
       </c>
       <c r="AJ99" t="n">
-        <v>478.8880920410156</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK99" t="n">
-        <v>440.7571411132812</v>
+        <v>429.1679077148438</v>
       </c>
       <c r="AL99" t="n">
-        <v>399.7001342773438</v>
+        <v>387.1500244140625</v>
       </c>
       <c r="AM99" t="n">
-        <v>406.2877502441406</v>
+        <v>442.6827392578125</v>
       </c>
       <c r="AN99" t="n">
-        <v>442.4525756835938</v>
+        <v>416.0552978515625</v>
       </c>
       <c r="AO99" t="n">
-        <v>407.1111145019531</v>
+        <v>416.9867248535156</v>
       </c>
       <c r="AP99" t="n">
-        <v>407.1111145019531</v>
+        <v>416.9867248535156</v>
       </c>
       <c r="AQ99" t="n">
-        <v>440.7571411132812</v>
+        <v>429.1679077148438</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>406.9440612792969</v>
       </c>
     </row>
-    <row r="100" spans="1:43">
+    <row r="100" spans="1:44">
       <c r="A100" s="2" t="n">
         <v>43329</v>
       </c>
@@ -13579,34 +13879,37 @@
         <v>82</v>
       </c>
       <c r="AI100" t="n">
-        <v>366.7488098144531</v>
+        <v>374.9631652832031</v>
       </c>
       <c r="AJ100" t="n">
-        <v>370.8240356445312</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK100" t="n">
-        <v>335.2849731445312</v>
+        <v>369.7437133789062</v>
       </c>
       <c r="AL100" t="n">
-        <v>353.5160827636719</v>
+        <v>341.0527648925781</v>
       </c>
       <c r="AM100" t="n">
-        <v>329.4839172363281</v>
+        <v>335.6057434082031</v>
       </c>
       <c r="AN100" t="n">
-        <v>347.4147033691406</v>
+        <v>337.6573791503906</v>
       </c>
       <c r="AO100" t="n">
-        <v>350.0711975097656</v>
+        <v>389.1101989746094</v>
       </c>
       <c r="AP100" t="n">
-        <v>350.0711975097656</v>
+        <v>389.1101989746094</v>
       </c>
       <c r="AQ100" t="n">
-        <v>335.2849731445312</v>
+        <v>369.7437133789062</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>381.70654296875</v>
       </c>
     </row>
-    <row r="101" spans="1:43">
+    <row r="101" spans="1:44">
       <c r="A101" s="2" t="n">
         <v>43332</v>
       </c>
@@ -13710,34 +14013,37 @@
         <v>276</v>
       </c>
       <c r="AI101" t="n">
-        <v>281.3351135253906</v>
+        <v>289.5265197753906</v>
       </c>
       <c r="AJ101" t="n">
-        <v>324.3501892089844</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK101" t="n">
-        <v>353.9295043945312</v>
+        <v>334.02294921875</v>
       </c>
       <c r="AL101" t="n">
-        <v>378.9215698242188</v>
+        <v>374.2706298828125</v>
       </c>
       <c r="AM101" t="n">
-        <v>362.0323181152344</v>
+        <v>376.2776184082031</v>
       </c>
       <c r="AN101" t="n">
-        <v>366.2829284667969</v>
+        <v>362.8968200683594</v>
       </c>
       <c r="AO101" t="n">
-        <v>387.8028564453125</v>
+        <v>381.3187255859375</v>
       </c>
       <c r="AP101" t="n">
-        <v>387.8028564453125</v>
+        <v>381.3187255859375</v>
       </c>
       <c r="AQ101" t="n">
-        <v>353.9295043945312</v>
+        <v>334.02294921875</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>408.8760681152344</v>
       </c>
     </row>
-    <row r="102" spans="1:43">
+    <row r="102" spans="1:44">
       <c r="A102" s="2" t="n">
         <v>43333</v>
       </c>
@@ -13841,34 +14147,37 @@
         <v>292</v>
       </c>
       <c r="AI102" t="n">
-        <v>464.4045104980469</v>
+        <v>444.8802185058594</v>
       </c>
       <c r="AJ102" t="n">
-        <v>459.6087951660156</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK102" t="n">
-        <v>450.64990234375</v>
+        <v>414.0473022460938</v>
       </c>
       <c r="AL102" t="n">
-        <v>442.6642456054688</v>
+        <v>436.0716857910156</v>
       </c>
       <c r="AM102" t="n">
-        <v>484.9780883789062</v>
+        <v>433.3060913085938</v>
       </c>
       <c r="AN102" t="n">
-        <v>435.7666320800781</v>
+        <v>445.4727478027344</v>
       </c>
       <c r="AO102" t="n">
-        <v>455.6493530273438</v>
+        <v>435.8303527832031</v>
       </c>
       <c r="AP102" t="n">
-        <v>455.6493530273438</v>
+        <v>435.8303527832031</v>
       </c>
       <c r="AQ102" t="n">
-        <v>450.64990234375</v>
+        <v>414.0473022460938</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>400.9266357421875</v>
       </c>
     </row>
-    <row r="103" spans="1:43">
+    <row r="103" spans="1:44">
       <c r="A103" s="2" t="n">
         <v>43334</v>
       </c>
@@ -13972,34 +14281,37 @@
         <v>264</v>
       </c>
       <c r="AI103" t="n">
-        <v>412.7591857910156</v>
+        <v>432.7116088867188</v>
       </c>
       <c r="AJ103" t="n">
-        <v>378.8534545898438</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK103" t="n">
-        <v>397.4240417480469</v>
+        <v>441.1243286132812</v>
       </c>
       <c r="AL103" t="n">
-        <v>422.3864135742188</v>
+        <v>400.0810241699219</v>
       </c>
       <c r="AM103" t="n">
-        <v>424.9608764648438</v>
+        <v>441.54052734375</v>
       </c>
       <c r="AN103" t="n">
-        <v>431.3100891113281</v>
+        <v>447.7684326171875</v>
       </c>
       <c r="AO103" t="n">
-        <v>441.1328430175781</v>
+        <v>435.1332397460938</v>
       </c>
       <c r="AP103" t="n">
-        <v>441.1328430175781</v>
+        <v>435.1332397460938</v>
       </c>
       <c r="AQ103" t="n">
-        <v>397.4240417480469</v>
+        <v>441.1243286132812</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>407.8014831542969</v>
       </c>
     </row>
-    <row r="104" spans="1:43">
+    <row r="104" spans="1:44">
       <c r="A104" s="2" t="n">
         <v>43335</v>
       </c>
@@ -14103,34 +14415,37 @@
         <v>252</v>
       </c>
       <c r="AI104" t="n">
-        <v>473.5934448242188</v>
+        <v>455.5003967285156</v>
       </c>
       <c r="AJ104" t="n">
-        <v>457.8491821289062</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK104" t="n">
-        <v>449.9072875976562</v>
+        <v>431.8229064941406</v>
       </c>
       <c r="AL104" t="n">
-        <v>411.4474182128906</v>
+        <v>394.3204040527344</v>
       </c>
       <c r="AM104" t="n">
-        <v>416.5470886230469</v>
+        <v>446.7344055175781</v>
       </c>
       <c r="AN104" t="n">
-        <v>442.1200561523438</v>
+        <v>438.8498840332031</v>
       </c>
       <c r="AO104" t="n">
-        <v>432.6767578125</v>
+        <v>424.8792114257812</v>
       </c>
       <c r="AP104" t="n">
-        <v>432.6767578125</v>
+        <v>424.8792114257812</v>
       </c>
       <c r="AQ104" t="n">
-        <v>449.9072875976562</v>
+        <v>431.8229064941406</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>397.0675048828125</v>
       </c>
     </row>
-    <row r="105" spans="1:43">
+    <row r="105" spans="1:44">
       <c r="A105" s="2" t="n">
         <v>43336</v>
       </c>
@@ -14234,34 +14549,37 @@
         <v>74</v>
       </c>
       <c r="AI105" t="n">
-        <v>324.8826904296875</v>
+        <v>331.7288208007812</v>
       </c>
       <c r="AJ105" t="n">
-        <v>341.9295349121094</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK105" t="n">
-        <v>294.7250366210938</v>
+        <v>359.9833068847656</v>
       </c>
       <c r="AL105" t="n">
-        <v>264.1884765625</v>
+        <v>254.6923370361328</v>
       </c>
       <c r="AM105" t="n">
-        <v>305.0942993164062</v>
+        <v>317.7572631835938</v>
       </c>
       <c r="AN105" t="n">
-        <v>317.6297912597656</v>
+        <v>319.5323486328125</v>
       </c>
       <c r="AO105" t="n">
-        <v>328.2850036621094</v>
+        <v>357.4804077148438</v>
       </c>
       <c r="AP105" t="n">
-        <v>328.2850036621094</v>
+        <v>357.4804077148438</v>
       </c>
       <c r="AQ105" t="n">
-        <v>294.7250366210938</v>
+        <v>359.9833068847656</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>352.456298828125</v>
       </c>
     </row>
-    <row r="106" spans="1:43">
+    <row r="106" spans="1:44">
       <c r="A106" s="2" t="n">
         <v>43339</v>
       </c>
@@ -14365,34 +14683,37 @@
         <v>244</v>
       </c>
       <c r="AI106" t="n">
-        <v>295.8401184082031</v>
+        <v>305.2838745117188</v>
       </c>
       <c r="AJ106" t="n">
-        <v>347.8909301757812</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK106" t="n">
-        <v>353.9041748046875</v>
+        <v>334.0238342285156</v>
       </c>
       <c r="AL106" t="n">
-        <v>367.4920043945312</v>
+        <v>359.1965942382812</v>
       </c>
       <c r="AM106" t="n">
-        <v>375.64013671875</v>
+        <v>358.1478881835938</v>
       </c>
       <c r="AN106" t="n">
-        <v>316.5909423828125</v>
+        <v>309.8114929199219</v>
       </c>
       <c r="AO106" t="n">
-        <v>357.3224182128906</v>
+        <v>353.4849243164062</v>
       </c>
       <c r="AP106" t="n">
-        <v>357.3224182128906</v>
+        <v>353.4849243164062</v>
       </c>
       <c r="AQ106" t="n">
-        <v>353.9041748046875</v>
+        <v>334.0238342285156</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>367.1669921875</v>
       </c>
     </row>
-    <row r="107" spans="1:43">
+    <row r="107" spans="1:44">
       <c r="A107" s="2" t="n">
         <v>43340</v>
       </c>
@@ -14496,34 +14817,37 @@
         <v>291</v>
       </c>
       <c r="AI107" t="n">
-        <v>475.1145935058594</v>
+        <v>460.3116149902344</v>
       </c>
       <c r="AJ107" t="n">
-        <v>469.1975402832031</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK107" t="n">
-        <v>465.4126586914062</v>
+        <v>420.8988342285156</v>
       </c>
       <c r="AL107" t="n">
-        <v>449.0289611816406</v>
+        <v>443.3390197753906</v>
       </c>
       <c r="AM107" t="n">
-        <v>489.9654541015625</v>
+        <v>451.6910095214844</v>
       </c>
       <c r="AN107" t="n">
-        <v>439.9510498046875</v>
+        <v>462.7781066894531</v>
       </c>
       <c r="AO107" t="n">
-        <v>465.3039855957031</v>
+        <v>475.5723571777344</v>
       </c>
       <c r="AP107" t="n">
-        <v>465.3039855957031</v>
+        <v>475.5723571777344</v>
       </c>
       <c r="AQ107" t="n">
-        <v>465.4126586914062</v>
+        <v>420.8988342285156</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>417.8610534667969</v>
       </c>
     </row>
-    <row r="108" spans="1:43">
+    <row r="108" spans="1:44">
       <c r="A108" s="2" t="n">
         <v>43341</v>
       </c>
@@ -14627,34 +14951,37 @@
         <v>264</v>
       </c>
       <c r="AI108" t="n">
-        <v>358.8478698730469</v>
+        <v>376.6998901367188</v>
       </c>
       <c r="AJ108" t="n">
-        <v>357.3578796386719</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK108" t="n">
-        <v>377.2458801269531</v>
+        <v>420.365966796875</v>
       </c>
       <c r="AL108" t="n">
-        <v>386.3688354492188</v>
+        <v>383.0684814453125</v>
       </c>
       <c r="AM108" t="n">
-        <v>389.3913269042969</v>
+        <v>408.7167053222656</v>
       </c>
       <c r="AN108" t="n">
-        <v>413.5114440917969</v>
+        <v>435.8522338867188</v>
       </c>
       <c r="AO108" t="n">
-        <v>427.044921875</v>
+        <v>418.8344116210938</v>
       </c>
       <c r="AP108" t="n">
-        <v>427.044921875</v>
+        <v>418.8344116210938</v>
       </c>
       <c r="AQ108" t="n">
-        <v>377.2458801269531</v>
+        <v>420.365966796875</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>426.9503479003906</v>
       </c>
     </row>
-    <row r="109" spans="1:43">
+    <row r="109" spans="1:44">
       <c r="A109" s="2" t="n">
         <v>43342</v>
       </c>
@@ -14758,34 +15085,37 @@
         <v>207</v>
       </c>
       <c r="AI109" t="n">
-        <v>465.6305847167969</v>
+        <v>447.7860717773438</v>
       </c>
       <c r="AJ109" t="n">
-        <v>509.84130859375</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK109" t="n">
-        <v>457.9165649414062</v>
+        <v>416.6149597167969</v>
       </c>
       <c r="AL109" t="n">
-        <v>414.6910095214844</v>
+        <v>403.2996520996094</v>
       </c>
       <c r="AM109" t="n">
-        <v>433.6160888671875</v>
+        <v>423.0311889648438</v>
       </c>
       <c r="AN109" t="n">
-        <v>461.0725402832031</v>
+        <v>438.5510864257812</v>
       </c>
       <c r="AO109" t="n">
-        <v>426.1876220703125</v>
+        <v>455.6058959960938</v>
       </c>
       <c r="AP109" t="n">
-        <v>426.1876220703125</v>
+        <v>455.6058959960938</v>
       </c>
       <c r="AQ109" t="n">
-        <v>457.9165649414062</v>
+        <v>416.6149597167969</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>437.2614135742188</v>
       </c>
     </row>
-    <row r="110" spans="1:43">
+    <row r="110" spans="1:44">
       <c r="A110" s="2" t="n">
         <v>43343</v>
       </c>
@@ -14889,36 +15219,39 @@
         <v>81</v>
       </c>
       <c r="AI110" t="n">
-        <v>369.69140625</v>
+        <v>386.9813537597656</v>
       </c>
       <c r="AJ110" t="n">
-        <v>363.4863891601562</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK110" t="n">
-        <v>363.7194213867188</v>
+        <v>377.666259765625</v>
       </c>
       <c r="AL110" t="n">
-        <v>393.6622314453125</v>
+        <v>373.5316162109375</v>
       </c>
       <c r="AM110" t="n">
-        <v>340.9743041992188</v>
+        <v>353.6370849609375</v>
       </c>
       <c r="AN110" t="n">
-        <v>365.5928344726562</v>
+        <v>349.1507873535156</v>
       </c>
       <c r="AO110" t="n">
-        <v>385.5021667480469</v>
+        <v>435.1177978515625</v>
       </c>
       <c r="AP110" t="n">
-        <v>385.5021667480469</v>
+        <v>435.1177978515625</v>
       </c>
       <c r="AQ110" t="n">
-        <v>363.7194213867188</v>
+        <v>377.666259765625</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>391.6075744628906</v>
       </c>
     </row>
-    <row r="111" spans="1:43">
+    <row r="111" spans="1:44">
       <c r="A111" s="2" t="n">
-        <v>43168</v>
+        <v>43346</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -15020,36 +15353,39 @@
         <v>267</v>
       </c>
       <c r="AI111" t="n">
-        <v>268.9446716308594</v>
+        <v>261.2482604980469</v>
       </c>
       <c r="AJ111" t="n">
-        <v>321.5217895507812</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK111" t="n">
-        <v>366.3114624023438</v>
+        <v>335.7029418945312</v>
       </c>
       <c r="AL111" t="n">
-        <v>389.2485656738281</v>
+        <v>390.7047119140625</v>
       </c>
       <c r="AM111" t="n">
-        <v>373.5739440917969</v>
+        <v>348.8973388671875</v>
       </c>
       <c r="AN111" t="n">
-        <v>355.9012145996094</v>
+        <v>342.9785766601562</v>
       </c>
       <c r="AO111" t="n">
-        <v>385.61572265625</v>
+        <v>347.6290588378906</v>
       </c>
       <c r="AP111" t="n">
-        <v>385.61572265625</v>
+        <v>347.6290588378906</v>
       </c>
       <c r="AQ111" t="n">
-        <v>366.3114624023438</v>
+        <v>335.7029418945312</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>363.0491333007812</v>
       </c>
     </row>
-    <row r="112" spans="1:43">
+    <row r="112" spans="1:44">
       <c r="A112" s="2" t="n">
-        <v>43199</v>
+        <v>43347</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -15151,36 +15487,39 @@
         <v>225</v>
       </c>
       <c r="AI112" t="n">
-        <v>443.2752990722656</v>
+        <v>436.4704284667969</v>
       </c>
       <c r="AJ112" t="n">
-        <v>462.6043395996094</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK112" t="n">
-        <v>465.5867004394531</v>
+        <v>404.7688903808594</v>
       </c>
       <c r="AL112" t="n">
-        <v>445.3644104003906</v>
+        <v>442.635986328125</v>
       </c>
       <c r="AM112" t="n">
-        <v>469.6264343261719</v>
+        <v>405.7606811523438</v>
       </c>
       <c r="AN112" t="n">
-        <v>435.6253051757812</v>
+        <v>437.0448303222656</v>
       </c>
       <c r="AO112" t="n">
-        <v>463.6962280273438</v>
+        <v>454.1365966796875</v>
       </c>
       <c r="AP112" t="n">
-        <v>463.6962280273438</v>
+        <v>454.1365966796875</v>
       </c>
       <c r="AQ112" t="n">
-        <v>465.5867004394531</v>
+        <v>404.7688903808594</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>410.3291320800781</v>
       </c>
     </row>
-    <row r="113" spans="1:43">
+    <row r="113" spans="1:44">
       <c r="A113" s="2" t="n">
-        <v>43229</v>
+        <v>43348</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -15282,36 +15621,39 @@
         <v>245</v>
       </c>
       <c r="AI113" t="n">
-        <v>333.1379699707031</v>
+        <v>341.1962585449219</v>
       </c>
       <c r="AJ113" t="n">
-        <v>283.4653015136719</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK113" t="n">
-        <v>368.0873107910156</v>
+        <v>376.353759765625</v>
       </c>
       <c r="AL113" t="n">
-        <v>403.6292724609375</v>
+        <v>398.2005310058594</v>
       </c>
       <c r="AM113" t="n">
-        <v>339.4912109375</v>
+        <v>371.1896057128906</v>
       </c>
       <c r="AN113" t="n">
-        <v>393.5497436523438</v>
+        <v>403.3781127929688</v>
       </c>
       <c r="AO113" t="n">
-        <v>389.6800231933594</v>
+        <v>409.3882446289062</v>
       </c>
       <c r="AP113" t="n">
-        <v>389.6800231933594</v>
+        <v>409.3882446289062</v>
       </c>
       <c r="AQ113" t="n">
-        <v>368.0873107910156</v>
+        <v>376.353759765625</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>410.5553894042969</v>
       </c>
     </row>
-    <row r="114" spans="1:43">
+    <row r="114" spans="1:44">
       <c r="A114" s="2" t="n">
-        <v>43260</v>
+        <v>43349</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -15413,36 +15755,39 @@
         <v>246</v>
       </c>
       <c r="AI114" t="n">
-        <v>463.8193054199219</v>
+        <v>440.4211120605469</v>
       </c>
       <c r="AJ114" t="n">
-        <v>414.2935485839844</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK114" t="n">
-        <v>432.0932006835938</v>
+        <v>400.1800842285156</v>
       </c>
       <c r="AL114" t="n">
-        <v>365.6387023925781</v>
+        <v>389.5897216796875</v>
       </c>
       <c r="AM114" t="n">
-        <v>375.7297973632812</v>
+        <v>454.6585998535156</v>
       </c>
       <c r="AN114" t="n">
-        <v>424.68505859375</v>
+        <v>400.253173828125</v>
       </c>
       <c r="AO114" t="n">
-        <v>378.3156433105469</v>
+        <v>411.8333435058594</v>
       </c>
       <c r="AP114" t="n">
-        <v>378.3156433105469</v>
+        <v>411.8333435058594</v>
       </c>
       <c r="AQ114" t="n">
-        <v>432.0932006835938</v>
+        <v>400.1800842285156</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>373.6764831542969</v>
       </c>
     </row>
-    <row r="115" spans="1:43">
+    <row r="115" spans="1:44">
       <c r="A115" s="2" t="n">
-        <v>43382</v>
+        <v>43353</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -15544,36 +15889,39 @@
         <v>72</v>
       </c>
       <c r="AI115" t="n">
-        <v>235.0076599121094</v>
+        <v>239.7279663085938</v>
       </c>
       <c r="AJ115" t="n">
-        <v>305.8377075195312</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK115" t="n">
-        <v>206.1010131835938</v>
+        <v>325.1082153320312</v>
       </c>
       <c r="AL115" t="n">
-        <v>163.2899322509766</v>
+        <v>148.9997863769531</v>
       </c>
       <c r="AM115" t="n">
-        <v>222.7810211181641</v>
+        <v>274.6584777832031</v>
       </c>
       <c r="AN115" t="n">
-        <v>343.9929809570312</v>
+        <v>321.7527465820312</v>
       </c>
       <c r="AO115" t="n">
-        <v>341.6522827148438</v>
+        <v>346.6859436035156</v>
       </c>
       <c r="AP115" t="n">
-        <v>341.6522827148438</v>
+        <v>346.6859436035156</v>
       </c>
       <c r="AQ115" t="n">
-        <v>206.1010131835938</v>
+        <v>325.1082153320312</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>361.1310729980469</v>
       </c>
     </row>
-    <row r="116" spans="1:43">
+    <row r="116" spans="1:44">
       <c r="A116" s="2" t="n">
-        <v>43413</v>
+        <v>43354</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -15675,36 +16023,39 @@
         <v>239</v>
       </c>
       <c r="AI116" t="n">
-        <v>459.1628112792969</v>
+        <v>454.09130859375</v>
       </c>
       <c r="AJ116" t="n">
-        <v>435.4021911621094</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK116" t="n">
-        <v>401.3097534179688</v>
+        <v>382.1227722167969</v>
       </c>
       <c r="AL116" t="n">
-        <v>408.9845275878906</v>
+        <v>408.3345642089844</v>
       </c>
       <c r="AM116" t="n">
-        <v>414.0262145996094</v>
+        <v>407.5630493164062</v>
       </c>
       <c r="AN116" t="n">
-        <v>401.4785766601562</v>
+        <v>409.1647338867188</v>
       </c>
       <c r="AO116" t="n">
-        <v>425.4319763183594</v>
+        <v>431.8670959472656</v>
       </c>
       <c r="AP116" t="n">
-        <v>425.4319763183594</v>
+        <v>431.8670959472656</v>
       </c>
       <c r="AQ116" t="n">
-        <v>401.3097534179688</v>
+        <v>382.1227722167969</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>402.3718872070312</v>
       </c>
     </row>
-    <row r="117" spans="1:43">
+    <row r="117" spans="1:44">
       <c r="A117" s="2" t="n">
-        <v>43443</v>
+        <v>43355</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -15806,34 +16157,37 @@
         <v>263</v>
       </c>
       <c r="AI117" t="n">
-        <v>391.0706176757812</v>
+        <v>387.2171936035156</v>
       </c>
       <c r="AJ117" t="n">
-        <v>361.2070922851562</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK117" t="n">
-        <v>346.9386291503906</v>
+        <v>414.8755187988281</v>
       </c>
       <c r="AL117" t="n">
-        <v>409.102783203125</v>
+        <v>386.0412902832031</v>
       </c>
       <c r="AM117" t="n">
-        <v>354.2346801757812</v>
+        <v>396.4678039550781</v>
       </c>
       <c r="AN117" t="n">
-        <v>427.2496032714844</v>
+        <v>433.4828491210938</v>
       </c>
       <c r="AO117" t="n">
-        <v>447.7214660644531</v>
+        <v>456.0934753417969</v>
       </c>
       <c r="AP117" t="n">
-        <v>447.7214660644531</v>
+        <v>456.0934753417969</v>
       </c>
       <c r="AQ117" t="n">
-        <v>346.9386291503906</v>
+        <v>414.8755187988281</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>418.6591796875</v>
       </c>
     </row>
-    <row r="118" spans="1:43">
+    <row r="118" spans="1:44">
       <c r="A118" s="2" t="n">
         <v>43356</v>
       </c>
@@ -15937,34 +16291,37 @@
         <v>261</v>
       </c>
       <c r="AI118" t="n">
-        <v>414.584228515625</v>
+        <v>409.8667907714844</v>
       </c>
       <c r="AJ118" t="n">
-        <v>401.050048828125</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK118" t="n">
-        <v>381.1476440429688</v>
+        <v>411.2440185546875</v>
       </c>
       <c r="AL118" t="n">
-        <v>374.5787353515625</v>
+        <v>379.1197509765625</v>
       </c>
       <c r="AM118" t="n">
-        <v>380.0774536132812</v>
+        <v>397.1678771972656</v>
       </c>
       <c r="AN118" t="n">
-        <v>420.5830993652344</v>
+        <v>430.4649353027344</v>
       </c>
       <c r="AO118" t="n">
-        <v>432.1614074707031</v>
+        <v>440.3555603027344</v>
       </c>
       <c r="AP118" t="n">
-        <v>432.1614074707031</v>
+        <v>440.3555603027344</v>
       </c>
       <c r="AQ118" t="n">
-        <v>381.1476440429688</v>
+        <v>411.2440185546875</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>417.2052001953125</v>
       </c>
     </row>
-    <row r="119" spans="1:43">
+    <row r="119" spans="1:44">
       <c r="A119" s="2" t="n">
         <v>43357</v>
       </c>
@@ -16068,34 +16425,37 @@
         <v>172</v>
       </c>
       <c r="AI119" t="n">
-        <v>379.1137390136719</v>
+        <v>377.3604125976562</v>
       </c>
       <c r="AJ119" t="n">
-        <v>442.4617614746094</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK119" t="n">
-        <v>365.5917053222656</v>
+        <v>396.4022521972656</v>
       </c>
       <c r="AL119" t="n">
-        <v>375.100830078125</v>
+        <v>365.0437622070312</v>
       </c>
       <c r="AM119" t="n">
-        <v>344.63623046875</v>
+        <v>358.3215942382812</v>
       </c>
       <c r="AN119" t="n">
-        <v>378.8229370117188</v>
+        <v>393.72021484375</v>
       </c>
       <c r="AO119" t="n">
-        <v>379.1938171386719</v>
+        <v>401.5980529785156</v>
       </c>
       <c r="AP119" t="n">
-        <v>379.1938171386719</v>
+        <v>401.5980529785156</v>
       </c>
       <c r="AQ119" t="n">
-        <v>365.5917053222656</v>
+        <v>396.4022521972656</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>374.8132934570312</v>
       </c>
     </row>
-    <row r="120" spans="1:43">
+    <row r="120" spans="1:44">
       <c r="A120" s="2" t="n">
         <v>43360</v>
       </c>
@@ -16199,34 +16559,37 @@
         <v>233</v>
       </c>
       <c r="AI120" t="n">
-        <v>219.0831146240234</v>
+        <v>236.2361297607422</v>
       </c>
       <c r="AJ120" t="n">
-        <v>280.8447570800781</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK120" t="n">
-        <v>324.7601623535156</v>
+        <v>310.5942993164062</v>
       </c>
       <c r="AL120" t="n">
-        <v>373.8991088867188</v>
+        <v>374.5128784179688</v>
       </c>
       <c r="AM120" t="n">
-        <v>309.5995483398438</v>
+        <v>353.2493591308594</v>
       </c>
       <c r="AN120" t="n">
-        <v>294.6292114257812</v>
+        <v>311.9508056640625</v>
       </c>
       <c r="AO120" t="n">
-        <v>341.3504943847656</v>
+        <v>306.7807006835938</v>
       </c>
       <c r="AP120" t="n">
-        <v>341.3504943847656</v>
+        <v>306.7807006835938</v>
       </c>
       <c r="AQ120" t="n">
-        <v>324.7601623535156</v>
+        <v>310.5942993164062</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>356.4942321777344</v>
       </c>
     </row>
-    <row r="121" spans="1:43">
+    <row r="121" spans="1:44">
       <c r="A121" s="2" t="n">
         <v>43361</v>
       </c>
@@ -16330,34 +16693,37 @@
         <v>292</v>
       </c>
       <c r="AI121" t="n">
-        <v>470.4422607421875</v>
+        <v>443.1218566894531</v>
       </c>
       <c r="AJ121" t="n">
-        <v>464.3868103027344</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK121" t="n">
-        <v>455.0874633789062</v>
+        <v>399.1194763183594</v>
       </c>
       <c r="AL121" t="n">
-        <v>448.64501953125</v>
+        <v>448.9246215820312</v>
       </c>
       <c r="AM121" t="n">
-        <v>484.1159057617188</v>
+        <v>434.5806579589844</v>
       </c>
       <c r="AN121" t="n">
-        <v>393.1880798339844</v>
+        <v>444.1890869140625</v>
       </c>
       <c r="AO121" t="n">
-        <v>424.0868225097656</v>
+        <v>419.310546875</v>
       </c>
       <c r="AP121" t="n">
-        <v>424.0868225097656</v>
+        <v>419.310546875</v>
       </c>
       <c r="AQ121" t="n">
-        <v>455.0874633789062</v>
+        <v>399.1194763183594</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>369.1817016601562</v>
       </c>
     </row>
-    <row r="122" spans="1:43">
+    <row r="122" spans="1:44">
       <c r="A122" s="2" t="n">
         <v>43362</v>
       </c>
@@ -16461,34 +16827,37 @@
         <v>240</v>
       </c>
       <c r="AI122" t="n">
-        <v>331.4921264648438</v>
+        <v>355.2701416015625</v>
       </c>
       <c r="AJ122" t="n">
-        <v>294.423095703125</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK122" t="n">
-        <v>396.3681335449219</v>
+        <v>405.7337341308594</v>
       </c>
       <c r="AL122" t="n">
-        <v>421.5528564453125</v>
+        <v>407.7824401855469</v>
       </c>
       <c r="AM122" t="n">
-        <v>350.5283813476562</v>
+        <v>388.3869323730469</v>
       </c>
       <c r="AN122" t="n">
-        <v>375.0622253417969</v>
+        <v>414.2150573730469</v>
       </c>
       <c r="AO122" t="n">
-        <v>395.9721069335938</v>
+        <v>398.0583801269531</v>
       </c>
       <c r="AP122" t="n">
-        <v>395.9721069335938</v>
+        <v>398.0583801269531</v>
       </c>
       <c r="AQ122" t="n">
-        <v>396.3681335449219</v>
+        <v>405.7337341308594</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>351.6566772460938</v>
       </c>
     </row>
-    <row r="123" spans="1:43">
+    <row r="123" spans="1:44">
       <c r="A123" s="2" t="n">
         <v>43363</v>
       </c>
@@ -16592,34 +16961,37 @@
         <v>252</v>
       </c>
       <c r="AI123" t="n">
-        <v>400.9089660644531</v>
+        <v>380.9830322265625</v>
       </c>
       <c r="AJ123" t="n">
-        <v>346.2421264648438</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK123" t="n">
-        <v>408.4023742675781</v>
+        <v>389.3415832519531</v>
       </c>
       <c r="AL123" t="n">
-        <v>333.1547241210938</v>
+        <v>354.454833984375</v>
       </c>
       <c r="AM123" t="n">
-        <v>330.2154235839844</v>
+        <v>378.4132080078125</v>
       </c>
       <c r="AN123" t="n">
-        <v>390.5730285644531</v>
+        <v>411.3135375976562</v>
       </c>
       <c r="AO123" t="n">
-        <v>368.062255859375</v>
+        <v>374.670166015625</v>
       </c>
       <c r="AP123" t="n">
-        <v>368.062255859375</v>
+        <v>374.670166015625</v>
       </c>
       <c r="AQ123" t="n">
-        <v>408.4023742675781</v>
+        <v>389.3415832519531</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>370.2173767089844</v>
       </c>
     </row>
-    <row r="124" spans="1:43">
+    <row r="124" spans="1:44">
       <c r="A124" s="2" t="n">
         <v>43364</v>
       </c>
@@ -16723,34 +17095,37 @@
         <v>53</v>
       </c>
       <c r="AI124" t="n">
-        <v>316.1110534667969</v>
+        <v>320.0741577148438</v>
       </c>
       <c r="AJ124" t="n">
-        <v>331.7153930664062</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK124" t="n">
-        <v>302.2348327636719</v>
+        <v>344.68408203125</v>
       </c>
       <c r="AL124" t="n">
-        <v>336.5615539550781</v>
+        <v>312.7667541503906</v>
       </c>
       <c r="AM124" t="n">
-        <v>313.463623046875</v>
+        <v>282.8875732421875</v>
       </c>
       <c r="AN124" t="n">
-        <v>290.7350463867188</v>
+        <v>316.4812622070312</v>
       </c>
       <c r="AO124" t="n">
-        <v>305.2738037109375</v>
+        <v>350.20458984375</v>
       </c>
       <c r="AP124" t="n">
-        <v>305.2738037109375</v>
+        <v>350.20458984375</v>
       </c>
       <c r="AQ124" t="n">
-        <v>302.2348327636719</v>
+        <v>344.68408203125</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>324.5931701660156</v>
       </c>
     </row>
-    <row r="125" spans="1:43">
+    <row r="125" spans="1:44">
       <c r="A125" s="2" t="n">
         <v>43367</v>
       </c>
@@ -16854,34 +17229,37 @@
         <v>243</v>
       </c>
       <c r="AI125" t="n">
-        <v>258.1998901367188</v>
+        <v>277.3597412109375</v>
       </c>
       <c r="AJ125" t="n">
-        <v>272.9968566894531</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK125" t="n">
-        <v>324.8289489746094</v>
+        <v>311.489013671875</v>
       </c>
       <c r="AL125" t="n">
-        <v>339.6270141601562</v>
+        <v>356.4015502929688</v>
       </c>
       <c r="AM125" t="n">
-        <v>311.3149719238281</v>
+        <v>332.7257080078125</v>
       </c>
       <c r="AN125" t="n">
-        <v>287.1178283691406</v>
+        <v>310.0022583007812</v>
       </c>
       <c r="AO125" t="n">
-        <v>324.8328857421875</v>
+        <v>323.2128601074219</v>
       </c>
       <c r="AP125" t="n">
-        <v>324.8328857421875</v>
+        <v>323.2128601074219</v>
       </c>
       <c r="AQ125" t="n">
-        <v>324.8289489746094</v>
+        <v>311.489013671875</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>333.3809814453125</v>
       </c>
     </row>
-    <row r="126" spans="1:43">
+    <row r="126" spans="1:44">
       <c r="A126" s="2" t="n">
         <v>43368</v>
       </c>
@@ -16985,34 +17363,37 @@
         <v>248</v>
       </c>
       <c r="AI126" t="n">
-        <v>384.7742919921875</v>
+        <v>346.9756469726562</v>
       </c>
       <c r="AJ126" t="n">
-        <v>371.3412170410156</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK126" t="n">
-        <v>362.8166198730469</v>
+        <v>324.7306823730469</v>
       </c>
       <c r="AL126" t="n">
-        <v>375.8399963378906</v>
+        <v>396.7797546386719</v>
       </c>
       <c r="AM126" t="n">
-        <v>404.5780029296875</v>
+        <v>346.4733581542969</v>
       </c>
       <c r="AN126" t="n">
-        <v>361.4026489257812</v>
+        <v>370.5501098632812</v>
       </c>
       <c r="AO126" t="n">
-        <v>366.9259643554688</v>
+        <v>377.8301086425781</v>
       </c>
       <c r="AP126" t="n">
-        <v>366.9259643554688</v>
+        <v>377.8301086425781</v>
       </c>
       <c r="AQ126" t="n">
-        <v>362.8166198730469</v>
+        <v>324.7306823730469</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>379.7057189941406</v>
       </c>
     </row>
-    <row r="127" spans="1:43">
+    <row r="127" spans="1:44">
       <c r="A127" s="2" t="n">
         <v>43369</v>
       </c>
@@ -17116,34 +17497,37 @@
         <v>191</v>
       </c>
       <c r="AI127" t="n">
-        <v>395.7938842773438</v>
+        <v>424.6590270996094</v>
       </c>
       <c r="AJ127" t="n">
-        <v>383.2443542480469</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK127" t="n">
-        <v>393.09033203125</v>
+        <v>411.1184692382812</v>
       </c>
       <c r="AL127" t="n">
-        <v>424.193115234375</v>
+        <v>402.5362548828125</v>
       </c>
       <c r="AM127" t="n">
-        <v>386.4671020507812</v>
+        <v>412.5436096191406</v>
       </c>
       <c r="AN127" t="n">
-        <v>434.8927917480469</v>
+        <v>448.0000610351562</v>
       </c>
       <c r="AO127" t="n">
-        <v>429.95361328125</v>
+        <v>445.2070007324219</v>
       </c>
       <c r="AP127" t="n">
-        <v>429.95361328125</v>
+        <v>445.2070007324219</v>
       </c>
       <c r="AQ127" t="n">
-        <v>393.09033203125</v>
+        <v>411.1184692382812</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>427.7889099121094</v>
       </c>
     </row>
-    <row r="128" spans="1:43">
+    <row r="128" spans="1:44">
       <c r="A128" s="2" t="n">
         <v>43370</v>
       </c>
@@ -17247,34 +17631,37 @@
         <v>221</v>
       </c>
       <c r="AI128" t="n">
-        <v>424.5577697753906</v>
+        <v>395.4806823730469</v>
       </c>
       <c r="AJ128" t="n">
-        <v>421.2160034179688</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK128" t="n">
-        <v>415.2686157226562</v>
+        <v>418.1650695800781</v>
       </c>
       <c r="AL128" t="n">
-        <v>403.4859313964844</v>
+        <v>391.1114196777344</v>
       </c>
       <c r="AM128" t="n">
-        <v>386.0452880859375</v>
+        <v>374.9852905273438</v>
       </c>
       <c r="AN128" t="n">
-        <v>465.2745666503906</v>
+        <v>446.4336547851562</v>
       </c>
       <c r="AO128" t="n">
-        <v>426.5028076171875</v>
+        <v>454.0443725585938</v>
       </c>
       <c r="AP128" t="n">
-        <v>426.5028076171875</v>
+        <v>454.0443725585938</v>
       </c>
       <c r="AQ128" t="n">
-        <v>415.2686157226562</v>
+        <v>418.1650695800781</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>461.7997741699219</v>
       </c>
     </row>
-    <row r="129" spans="1:43">
+    <row r="129" spans="1:44">
       <c r="A129" s="2" t="n">
         <v>43371</v>
       </c>
@@ -17378,36 +17765,39 @@
         <v>66</v>
       </c>
       <c r="AI129" t="n">
-        <v>353.7877502441406</v>
+        <v>357.1224365234375</v>
       </c>
       <c r="AJ129" t="n">
-        <v>408.3822021484375</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK129" t="n">
-        <v>341.8935241699219</v>
+        <v>370.32568359375</v>
       </c>
       <c r="AL129" t="n">
-        <v>337.9906311035156</v>
+        <v>336.6507568359375</v>
       </c>
       <c r="AM129" t="n">
-        <v>347.8108825683594</v>
+        <v>325.1839904785156</v>
       </c>
       <c r="AN129" t="n">
-        <v>328.7552795410156</v>
+        <v>322.8576354980469</v>
       </c>
       <c r="AO129" t="n">
-        <v>329.3345947265625</v>
+        <v>369.0618591308594</v>
       </c>
       <c r="AP129" t="n">
-        <v>329.3345947265625</v>
+        <v>369.0618591308594</v>
       </c>
       <c r="AQ129" t="n">
-        <v>341.8935241699219</v>
+        <v>370.32568359375</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>343.6727905273438</v>
       </c>
     </row>
-    <row r="130" spans="1:43">
+    <row r="130" spans="1:44">
       <c r="A130" s="2" t="n">
-        <v>43110</v>
+        <v>43374</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -17509,36 +17899,39 @@
         <v>219</v>
       </c>
       <c r="AI130" t="n">
-        <v>213.8969421386719</v>
+        <v>230.2736053466797</v>
       </c>
       <c r="AJ130" t="n">
-        <v>275.5836181640625</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK130" t="n">
-        <v>291.7239685058594</v>
+        <v>320.794189453125</v>
       </c>
       <c r="AL130" t="n">
-        <v>355.4773254394531</v>
+        <v>344.1848449707031</v>
       </c>
       <c r="AM130" t="n">
-        <v>291.23974609375</v>
+        <v>338.4607238769531</v>
       </c>
       <c r="AN130" t="n">
-        <v>334.8734741210938</v>
+        <v>325.6423645019531</v>
       </c>
       <c r="AO130" t="n">
-        <v>377.5562438964844</v>
+        <v>343.3897399902344</v>
       </c>
       <c r="AP130" t="n">
-        <v>377.5562438964844</v>
+        <v>343.3897399902344</v>
       </c>
       <c r="AQ130" t="n">
-        <v>291.7239685058594</v>
+        <v>320.794189453125</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>373.01708984375</v>
       </c>
     </row>
-    <row r="131" spans="1:43">
+    <row r="131" spans="1:44">
       <c r="A131" s="2" t="n">
-        <v>43141</v>
+        <v>43375</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -17640,36 +18033,39 @@
         <v>278</v>
       </c>
       <c r="AI131" t="n">
-        <v>417.62646484375</v>
+        <v>394.6994934082031</v>
       </c>
       <c r="AJ131" t="n">
-        <v>402.8187866210938</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK131" t="n">
-        <v>440.6931457519531</v>
+        <v>375.0899353027344</v>
       </c>
       <c r="AL131" t="n">
-        <v>432.8371887207031</v>
+        <v>429.4383544921875</v>
       </c>
       <c r="AM131" t="n">
-        <v>431.1912231445312</v>
+        <v>379.7469482421875</v>
       </c>
       <c r="AN131" t="n">
-        <v>386.0139770507812</v>
+        <v>386.8472290039062</v>
       </c>
       <c r="AO131" t="n">
-        <v>411.3084716796875</v>
+        <v>411.1154174804688</v>
       </c>
       <c r="AP131" t="n">
-        <v>411.3084716796875</v>
+        <v>411.1154174804688</v>
       </c>
       <c r="AQ131" t="n">
-        <v>440.6931457519531</v>
+        <v>375.0899353027344</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>358.9806213378906</v>
       </c>
     </row>
-    <row r="132" spans="1:43">
+    <row r="132" spans="1:44">
       <c r="A132" s="2" t="n">
-        <v>43169</v>
+        <v>43376</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -17771,36 +18167,39 @@
         <v>252</v>
       </c>
       <c r="AI132" t="n">
-        <v>336.2800903320312</v>
+        <v>355.5796813964844</v>
       </c>
       <c r="AJ132" t="n">
-        <v>328.438232421875</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK132" t="n">
-        <v>373.5445251464844</v>
+        <v>382.3887023925781</v>
       </c>
       <c r="AL132" t="n">
-        <v>387.7776794433594</v>
+        <v>387.5039978027344</v>
       </c>
       <c r="AM132" t="n">
-        <v>361.481689453125</v>
+        <v>392.8210144042969</v>
       </c>
       <c r="AN132" t="n">
-        <v>374.3329772949219</v>
+        <v>377.4300842285156</v>
       </c>
       <c r="AO132" t="n">
-        <v>391.8739318847656</v>
+        <v>387.5954284667969</v>
       </c>
       <c r="AP132" t="n">
-        <v>391.8739318847656</v>
+        <v>387.5954284667969</v>
       </c>
       <c r="AQ132" t="n">
-        <v>373.5445251464844</v>
+        <v>382.3887023925781</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>347.2030334472656</v>
       </c>
     </row>
-    <row r="133" spans="1:43">
+    <row r="133" spans="1:44">
       <c r="A133" s="2" t="n">
-        <v>43200</v>
+        <v>43377</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -17902,36 +18301,39 @@
         <v>241</v>
       </c>
       <c r="AI133" t="n">
-        <v>430.6890563964844</v>
+        <v>415.6541442871094</v>
       </c>
       <c r="AJ133" t="n">
-        <v>358.1260375976562</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK133" t="n">
-        <v>401.3597106933594</v>
+        <v>386.8135986328125</v>
       </c>
       <c r="AL133" t="n">
-        <v>355.2379455566406</v>
+        <v>375.2006530761719</v>
       </c>
       <c r="AM133" t="n">
-        <v>345.4573669433594</v>
+        <v>393.6500854492188</v>
       </c>
       <c r="AN133" t="n">
-        <v>414.3886413574219</v>
+        <v>409.3232421875</v>
       </c>
       <c r="AO133" t="n">
-        <v>403.1839599609375</v>
+        <v>406.2919006347656</v>
       </c>
       <c r="AP133" t="n">
-        <v>403.1839599609375</v>
+        <v>406.2919006347656</v>
       </c>
       <c r="AQ133" t="n">
-        <v>401.3597106933594</v>
+        <v>386.8135986328125</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>379.1675109863281</v>
       </c>
     </row>
-    <row r="134" spans="1:43">
+    <row r="134" spans="1:44">
       <c r="A134" s="2" t="n">
-        <v>43230</v>
+        <v>43378</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -18033,36 +18435,39 @@
         <v>73</v>
       </c>
       <c r="AI134" t="n">
-        <v>334.8204345703125</v>
+        <v>341.0085144042969</v>
       </c>
       <c r="AJ134" t="n">
-        <v>331.895751953125</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK134" t="n">
-        <v>297.1688842773438</v>
+        <v>344.6275024414062</v>
       </c>
       <c r="AL134" t="n">
-        <v>269.7998046875</v>
+        <v>262.2392883300781</v>
       </c>
       <c r="AM134" t="n">
-        <v>311.8104248046875</v>
+        <v>318.8675842285156</v>
       </c>
       <c r="AN134" t="n">
-        <v>321.543212890625</v>
+        <v>317.0985717773438</v>
       </c>
       <c r="AO134" t="n">
-        <v>351.7099304199219</v>
+        <v>382.436767578125</v>
       </c>
       <c r="AP134" t="n">
-        <v>351.7099304199219</v>
+        <v>382.436767578125</v>
       </c>
       <c r="AQ134" t="n">
-        <v>297.1688842773438</v>
+        <v>344.6275024414062</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>345.7522277832031</v>
       </c>
     </row>
-    <row r="135" spans="1:43">
+    <row r="135" spans="1:44">
       <c r="A135" s="2" t="n">
-        <v>43322</v>
+        <v>43381</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -18164,36 +18569,39 @@
         <v>212</v>
       </c>
       <c r="AI135" t="n">
-        <v>261.6624755859375</v>
+        <v>260.0679016113281</v>
       </c>
       <c r="AJ135" t="n">
-        <v>302.9771728515625</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK135" t="n">
-        <v>306.8421936035156</v>
+        <v>305.1093139648438</v>
       </c>
       <c r="AL135" t="n">
-        <v>324.0018615722656</v>
+        <v>328.4046020507812</v>
       </c>
       <c r="AM135" t="n">
-        <v>331.369873046875</v>
+        <v>337.2793884277344</v>
       </c>
       <c r="AN135" t="n">
-        <v>324.7781372070312</v>
+        <v>320.1305847167969</v>
       </c>
       <c r="AO135" t="n">
-        <v>345.6394653320312</v>
+        <v>350.8575744628906</v>
       </c>
       <c r="AP135" t="n">
-        <v>345.6394653320312</v>
+        <v>350.8575744628906</v>
       </c>
       <c r="AQ135" t="n">
-        <v>306.8421936035156</v>
+        <v>305.1093139648438</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>360.04833984375</v>
       </c>
     </row>
-    <row r="136" spans="1:43">
+    <row r="136" spans="1:44">
       <c r="A136" s="2" t="n">
-        <v>43353</v>
+        <v>43382</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -18295,34 +18703,37 @@
         <v>230</v>
       </c>
       <c r="AI136" t="n">
-        <v>386.494873046875</v>
+        <v>371.7182922363281</v>
       </c>
       <c r="AJ136" t="n">
-        <v>398.8113098144531</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK136" t="n">
-        <v>430.9248046875</v>
+        <v>377.2274169921875</v>
       </c>
       <c r="AL136" t="n">
-        <v>441.2447814941406</v>
+        <v>435.5227966308594</v>
       </c>
       <c r="AM136" t="n">
-        <v>395.0455932617188</v>
+        <v>379.5484924316406</v>
       </c>
       <c r="AN136" t="n">
-        <v>385.0841979980469</v>
+        <v>409.9352416992188</v>
       </c>
       <c r="AO136" t="n">
-        <v>418.4081420898438</v>
+        <v>446.2328491210938</v>
       </c>
       <c r="AP136" t="n">
-        <v>418.4081420898438</v>
+        <v>446.2328491210938</v>
       </c>
       <c r="AQ136" t="n">
-        <v>430.9248046875</v>
+        <v>377.2274169921875</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>377.6955261230469</v>
       </c>
     </row>
-    <row r="137" spans="1:43">
+    <row r="137" spans="1:44">
       <c r="A137" s="2" t="n">
         <v>43383</v>
       </c>
@@ -18426,36 +18837,39 @@
         <v>232</v>
       </c>
       <c r="AI137" t="n">
-        <v>371.2467346191406</v>
+        <v>382.0856628417969</v>
       </c>
       <c r="AJ137" t="n">
-        <v>362.7632141113281</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK137" t="n">
-        <v>402.4243469238281</v>
+        <v>427.3691101074219</v>
       </c>
       <c r="AL137" t="n">
-        <v>428.4256591796875</v>
+        <v>407.1103210449219</v>
       </c>
       <c r="AM137" t="n">
-        <v>397.8734130859375</v>
+        <v>378.1091613769531</v>
       </c>
       <c r="AN137" t="n">
-        <v>409.4373779296875</v>
+        <v>436.7389526367188</v>
       </c>
       <c r="AO137" t="n">
-        <v>435.2479248046875</v>
+        <v>433.1033935546875</v>
       </c>
       <c r="AP137" t="n">
-        <v>435.2479248046875</v>
+        <v>433.1033935546875</v>
       </c>
       <c r="AQ137" t="n">
-        <v>402.4243469238281</v>
+        <v>427.3691101074219</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>363.5554504394531</v>
       </c>
     </row>
-    <row r="138" spans="1:43">
+    <row r="138" spans="1:44">
       <c r="A138" s="2" t="n">
-        <v>43414</v>
+        <v>43384</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -18557,34 +18971,37 @@
         <v>210</v>
       </c>
       <c r="AI138" t="n">
-        <v>360.0701904296875</v>
+        <v>353.6631774902344</v>
       </c>
       <c r="AJ138" t="n">
-        <v>352.4374694824219</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK138" t="n">
-        <v>409.0985412597656</v>
+        <v>392.9371948242188</v>
       </c>
       <c r="AL138" t="n">
-        <v>365.2703857421875</v>
+        <v>374.5866394042969</v>
       </c>
       <c r="AM138" t="n">
-        <v>316.2391357421875</v>
+        <v>370.2998352050781</v>
       </c>
       <c r="AN138" t="n">
-        <v>381.3475952148438</v>
+        <v>379.7431030273438</v>
       </c>
       <c r="AO138" t="n">
-        <v>364.0586853027344</v>
+        <v>381.1318969726562</v>
       </c>
       <c r="AP138" t="n">
-        <v>364.0586853027344</v>
+        <v>381.1318969726562</v>
       </c>
       <c r="AQ138" t="n">
-        <v>409.0985412597656</v>
+        <v>392.9371948242188</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>350.22412109375</v>
       </c>
     </row>
-    <row r="139" spans="1:43">
+    <row r="139" spans="1:44">
       <c r="A139" s="2" t="n">
         <v>43388</v>
       </c>
@@ -18688,34 +19105,37 @@
         <v>80</v>
       </c>
       <c r="AI139" t="n">
-        <v>278.4816284179688</v>
+        <v>283.6444702148438</v>
       </c>
       <c r="AJ139" t="n">
-        <v>282.0785827636719</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK139" t="n">
-        <v>269.7605590820312</v>
+        <v>314.3341369628906</v>
       </c>
       <c r="AL139" t="n">
-        <v>269.2226257324219</v>
+        <v>239.6252746582031</v>
       </c>
       <c r="AM139" t="n">
-        <v>255.0380859375</v>
+        <v>263.6465454101562</v>
       </c>
       <c r="AN139" t="n">
-        <v>308.4380798339844</v>
+        <v>332.3872985839844</v>
       </c>
       <c r="AO139" t="n">
-        <v>327.1694030761719</v>
+        <v>352.4289245605469</v>
       </c>
       <c r="AP139" t="n">
-        <v>327.1694030761719</v>
+        <v>352.4289245605469</v>
       </c>
       <c r="AQ139" t="n">
-        <v>269.7605590820312</v>
+        <v>314.3341369628906</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>364.2956848144531</v>
       </c>
     </row>
-    <row r="140" spans="1:43">
+    <row r="140" spans="1:44">
       <c r="A140" s="2" t="n">
         <v>43389</v>
       </c>
@@ -18819,34 +19239,37 @@
         <v>221</v>
       </c>
       <c r="AI140" t="n">
-        <v>209.4212951660156</v>
+        <v>219.5594329833984</v>
       </c>
       <c r="AJ140" t="n">
-        <v>250.4414520263672</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK140" t="n">
-        <v>320.4442443847656</v>
+        <v>269.5870666503906</v>
       </c>
       <c r="AL140" t="n">
-        <v>355.8374938964844</v>
+        <v>360.0370178222656</v>
       </c>
       <c r="AM140" t="n">
-        <v>275.3971557617188</v>
+        <v>277.546142578125</v>
       </c>
       <c r="AN140" t="n">
-        <v>235.74853515625</v>
+        <v>254.377197265625</v>
       </c>
       <c r="AO140" t="n">
-        <v>285.748779296875</v>
+        <v>275.4039611816406</v>
       </c>
       <c r="AP140" t="n">
-        <v>285.748779296875</v>
+        <v>275.4039611816406</v>
       </c>
       <c r="AQ140" t="n">
-        <v>320.4442443847656</v>
+        <v>269.5870666503906</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>297.1561279296875</v>
       </c>
     </row>
-    <row r="141" spans="1:43">
+    <row r="141" spans="1:44">
       <c r="A141" s="2" t="n">
         <v>43390</v>
       </c>
@@ -18950,34 +19373,37 @@
         <v>270</v>
       </c>
       <c r="AI141" t="n">
-        <v>222.2005462646484</v>
+        <v>210.2582244873047</v>
       </c>
       <c r="AJ141" t="n">
-        <v>242.1814270019531</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK141" t="n">
-        <v>312.3595581054688</v>
+        <v>248.0998687744141</v>
       </c>
       <c r="AL141" t="n">
-        <v>312.548583984375</v>
+        <v>329.6677551269531</v>
       </c>
       <c r="AM141" t="n">
-        <v>255.7753753662109</v>
+        <v>224.0658874511719</v>
       </c>
       <c r="AN141" t="n">
-        <v>233.5924224853516</v>
+        <v>233.7885284423828</v>
       </c>
       <c r="AO141" t="n">
-        <v>266.5641784667969</v>
+        <v>238.8945617675781</v>
       </c>
       <c r="AP141" t="n">
-        <v>266.5641784667969</v>
+        <v>238.8945617675781</v>
       </c>
       <c r="AQ141" t="n">
-        <v>312.3595581054688</v>
+        <v>248.0998687744141</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>245.3904876708984</v>
       </c>
     </row>
-    <row r="142" spans="1:43">
+    <row r="142" spans="1:44">
       <c r="A142" s="2" t="n">
         <v>43391</v>
       </c>
@@ -19081,34 +19507,37 @@
         <v>196</v>
       </c>
       <c r="AI142" t="n">
-        <v>193.7323608398438</v>
+        <v>209.1650390625</v>
       </c>
       <c r="AJ142" t="n">
-        <v>208.8223571777344</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK142" t="n">
-        <v>238.2951812744141</v>
+        <v>226.1211090087891</v>
       </c>
       <c r="AL142" t="n">
-        <v>246.7737884521484</v>
+        <v>239.1284332275391</v>
       </c>
       <c r="AM142" t="n">
-        <v>134.2745208740234</v>
+        <v>183.4086303710938</v>
       </c>
       <c r="AN142" t="n">
-        <v>235.7964324951172</v>
+        <v>238.0328674316406</v>
       </c>
       <c r="AO142" t="n">
-        <v>258.4400024414062</v>
+        <v>245.7500152587891</v>
       </c>
       <c r="AP142" t="n">
-        <v>258.4400024414062</v>
+        <v>245.7500152587891</v>
       </c>
       <c r="AQ142" t="n">
-        <v>238.2951812744141</v>
+        <v>226.1211090087891</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>222.7364196777344</v>
       </c>
     </row>
-    <row r="143" spans="1:43">
+    <row r="143" spans="1:44">
       <c r="A143" s="2" t="n">
         <v>43392</v>
       </c>
@@ -19212,34 +19641,37 @@
         <v>152</v>
       </c>
       <c r="AI143" t="n">
-        <v>175.3103790283203</v>
+        <v>179.6260070800781</v>
       </c>
       <c r="AJ143" t="n">
-        <v>60.75061416625977</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK143" t="n">
-        <v>155.2630004882812</v>
+        <v>185.3714599609375</v>
       </c>
       <c r="AL143" t="n">
-        <v>155.8014221191406</v>
+        <v>135.2537689208984</v>
       </c>
       <c r="AM143" t="n">
-        <v>63.64493179321289</v>
+        <v>129.8790893554688</v>
       </c>
       <c r="AN143" t="n">
-        <v>179.454833984375</v>
+        <v>193.5887603759766</v>
       </c>
       <c r="AO143" t="n">
-        <v>197.1561584472656</v>
+        <v>199.6272735595703</v>
       </c>
       <c r="AP143" t="n">
-        <v>197.1561584472656</v>
+        <v>199.6272735595703</v>
       </c>
       <c r="AQ143" t="n">
-        <v>155.2630004882812</v>
+        <v>185.3714599609375</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>172.1903533935547</v>
       </c>
     </row>
-    <row r="144" spans="1:43">
+    <row r="144" spans="1:44">
       <c r="A144" s="2" t="n">
         <v>43395</v>
       </c>
@@ -19343,34 +19775,37 @@
         <v>28</v>
       </c>
       <c r="AI144" t="n">
-        <v>100.6926422119141</v>
+        <v>95.36387634277344</v>
       </c>
       <c r="AJ144" t="n">
-        <v>117.2197875976562</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK144" t="n">
-        <v>162.5125274658203</v>
+        <v>121.3069229125977</v>
       </c>
       <c r="AL144" t="n">
-        <v>156.2041625976562</v>
+        <v>149.8778381347656</v>
       </c>
       <c r="AM144" t="n">
-        <v>119.1304550170898</v>
+        <v>118.0053176879883</v>
       </c>
       <c r="AN144" t="n">
-        <v>107.531120300293</v>
+        <v>121.3011627197266</v>
       </c>
       <c r="AO144" t="n">
-        <v>181.3230895996094</v>
+        <v>176.0052032470703</v>
       </c>
       <c r="AP144" t="n">
-        <v>181.3230895996094</v>
+        <v>176.0052032470703</v>
       </c>
       <c r="AQ144" t="n">
-        <v>162.5125274658203</v>
+        <v>121.3069229125977</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>147.3980255126953</v>
       </c>
     </row>
-    <row r="145" spans="1:43">
+    <row r="145" spans="1:44">
       <c r="A145" s="2" t="n">
         <v>43396</v>
       </c>
@@ -19474,34 +19909,37 @@
         <v>45</v>
       </c>
       <c r="AI145" t="n">
-        <v>300.1315307617188</v>
+        <v>288.6190490722656</v>
       </c>
       <c r="AJ145" t="n">
-        <v>400.3070678710938</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK145" t="n">
-        <v>483.4351806640625</v>
+        <v>278.1145935058594</v>
       </c>
       <c r="AL145" t="n">
-        <v>458.4307250976562</v>
+        <v>471.8197631835938</v>
       </c>
       <c r="AM145" t="n">
-        <v>445.3954162597656</v>
+        <v>416.4413452148438</v>
       </c>
       <c r="AN145" t="n">
-        <v>254.0961761474609</v>
+        <v>347.7838439941406</v>
       </c>
       <c r="AO145" t="n">
-        <v>326.3136596679688</v>
+        <v>333.2879638671875</v>
       </c>
       <c r="AP145" t="n">
-        <v>326.3136596679688</v>
+        <v>333.2879638671875</v>
       </c>
       <c r="AQ145" t="n">
-        <v>483.4351806640625</v>
+        <v>278.1145935058594</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>258.7516174316406</v>
       </c>
     </row>
-    <row r="146" spans="1:43">
+    <row r="146" spans="1:44">
       <c r="A146" s="2" t="n">
         <v>43397</v>
       </c>
@@ -19605,34 +20043,37 @@
         <v>72</v>
       </c>
       <c r="AI146" t="n">
-        <v>369.2626647949219</v>
+        <v>382.3941650390625</v>
       </c>
       <c r="AJ146" t="n">
-        <v>366.3932800292969</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK146" t="n">
-        <v>426.5272216796875</v>
+        <v>386.0930480957031</v>
       </c>
       <c r="AL146" t="n">
-        <v>438.3615112304688</v>
+        <v>415.5043029785156</v>
       </c>
       <c r="AM146" t="n">
-        <v>332.1765441894531</v>
+        <v>328.2693176269531</v>
       </c>
       <c r="AN146" t="n">
-        <v>356.5680236816406</v>
+        <v>417.6393432617188</v>
       </c>
       <c r="AO146" t="n">
-        <v>388.0755310058594</v>
+        <v>391.8484191894531</v>
       </c>
       <c r="AP146" t="n">
-        <v>388.0755310058594</v>
+        <v>391.8484191894531</v>
       </c>
       <c r="AQ146" t="n">
-        <v>426.5272216796875</v>
+        <v>386.0930480957031</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>342.285888671875</v>
       </c>
     </row>
-    <row r="147" spans="1:43">
+    <row r="147" spans="1:44">
       <c r="A147" s="2" t="n">
         <v>43398</v>
       </c>
@@ -19736,34 +20177,37 @@
         <v>48</v>
       </c>
       <c r="AI147" t="n">
-        <v>349.085205078125</v>
+        <v>331.1209411621094</v>
       </c>
       <c r="AJ147" t="n">
-        <v>367.1405944824219</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK147" t="n">
-        <v>394.4230651855469</v>
+        <v>346.8637390136719</v>
       </c>
       <c r="AL147" t="n">
-        <v>401.5684814453125</v>
+        <v>384.6182861328125</v>
       </c>
       <c r="AM147" t="n">
-        <v>376.8772888183594</v>
+        <v>378.6918029785156</v>
       </c>
       <c r="AN147" t="n">
-        <v>325.4388732910156</v>
+        <v>353.1894836425781</v>
       </c>
       <c r="AO147" t="n">
-        <v>333.5043640136719</v>
+        <v>364.1156616210938</v>
       </c>
       <c r="AP147" t="n">
-        <v>333.5043640136719</v>
+        <v>364.1156616210938</v>
       </c>
       <c r="AQ147" t="n">
-        <v>394.4230651855469</v>
+        <v>346.8637390136719</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>359.7107849121094</v>
       </c>
     </row>
-    <row r="148" spans="1:43">
+    <row r="148" spans="1:44">
       <c r="A148" s="2" t="n">
         <v>43399</v>
       </c>
@@ -19867,34 +20311,37 @@
         <v>1</v>
       </c>
       <c r="AI148" t="n">
-        <v>277.3517761230469</v>
+        <v>273.0011596679688</v>
       </c>
       <c r="AJ148" t="n">
-        <v>226.5750274658203</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK148" t="n">
-        <v>244.3355865478516</v>
+        <v>298.1384887695312</v>
       </c>
       <c r="AL148" t="n">
-        <v>233.5836181640625</v>
+        <v>211.1456909179688</v>
       </c>
       <c r="AM148" t="n">
-        <v>274.9936828613281</v>
+        <v>259.930419921875</v>
       </c>
       <c r="AN148" t="n">
-        <v>237.7823791503906</v>
+        <v>266.0668640136719</v>
       </c>
       <c r="AO148" t="n">
-        <v>282.4553527832031</v>
+        <v>319.0605773925781</v>
       </c>
       <c r="AP148" t="n">
-        <v>282.4553527832031</v>
+        <v>319.0605773925781</v>
       </c>
       <c r="AQ148" t="n">
-        <v>244.3355865478516</v>
+        <v>298.1384887695312</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>328.8363342285156</v>
       </c>
     </row>
-    <row r="149" spans="1:43">
+    <row r="149" spans="1:44">
       <c r="A149" s="2" t="n">
         <v>43402</v>
       </c>
@@ -19998,34 +20445,37 @@
         <v>201</v>
       </c>
       <c r="AI149" t="n">
-        <v>235.8389892578125</v>
+        <v>247.9145660400391</v>
       </c>
       <c r="AJ149" t="n">
-        <v>282.1708679199219</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK149" t="n">
-        <v>280.882568359375</v>
+        <v>288.5867309570312</v>
       </c>
       <c r="AL149" t="n">
-        <v>306.9487915039062</v>
+        <v>307.2920837402344</v>
       </c>
       <c r="AM149" t="n">
-        <v>285.4213256835938</v>
+        <v>293.1736145019531</v>
       </c>
       <c r="AN149" t="n">
-        <v>279.7371215820312</v>
+        <v>287.1798095703125</v>
       </c>
       <c r="AO149" t="n">
-        <v>342.3917541503906</v>
+        <v>338.4664001464844</v>
       </c>
       <c r="AP149" t="n">
-        <v>342.3917541503906</v>
+        <v>338.4664001464844</v>
       </c>
       <c r="AQ149" t="n">
-        <v>280.882568359375</v>
+        <v>288.5867309570312</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>347.1727600097656</v>
       </c>
     </row>
-    <row r="150" spans="1:43">
+    <row r="150" spans="1:44">
       <c r="A150" s="2" t="n">
         <v>43403</v>
       </c>
@@ -20129,34 +20579,37 @@
         <v>272</v>
       </c>
       <c r="AI150" t="n">
-        <v>405.2005615234375</v>
+        <v>391.9689025878906</v>
       </c>
       <c r="AJ150" t="n">
-        <v>377.0913391113281</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK150" t="n">
-        <v>432.2100219726562</v>
+        <v>346.1156921386719</v>
       </c>
       <c r="AL150" t="n">
-        <v>416.0811767578125</v>
+        <v>429.1318359375</v>
       </c>
       <c r="AM150" t="n">
-        <v>415.8545532226562</v>
+        <v>385.1324462890625</v>
       </c>
       <c r="AN150" t="n">
-        <v>353.2372131347656</v>
+        <v>376.6399230957031</v>
       </c>
       <c r="AO150" t="n">
-        <v>404.0383911132812</v>
+        <v>396.7760925292969</v>
       </c>
       <c r="AP150" t="n">
-        <v>404.0383911132812</v>
+        <v>396.7760925292969</v>
       </c>
       <c r="AQ150" t="n">
-        <v>432.2100219726562</v>
+        <v>346.1156921386719</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>361.5341186523438</v>
       </c>
     </row>
-    <row r="151" spans="1:43">
+    <row r="151" spans="1:44">
       <c r="A151" s="2" t="n">
         <v>43404</v>
       </c>
@@ -20260,36 +20713,39 @@
         <v>228</v>
       </c>
       <c r="AI151" t="n">
-        <v>380.6086120605469</v>
+        <v>388.52734375</v>
       </c>
       <c r="AJ151" t="n">
-        <v>400.1551513671875</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK151" t="n">
-        <v>381.5547485351562</v>
+        <v>398.5011291503906</v>
       </c>
       <c r="AL151" t="n">
-        <v>423.6557312011719</v>
+        <v>403.02490234375</v>
       </c>
       <c r="AM151" t="n">
-        <v>396.9484252929688</v>
+        <v>404.6842651367188</v>
       </c>
       <c r="AN151" t="n">
-        <v>420.4309997558594</v>
+        <v>430.8790588378906</v>
       </c>
       <c r="AO151" t="n">
-        <v>433.6142272949219</v>
+        <v>443.5621337890625</v>
       </c>
       <c r="AP151" t="n">
-        <v>433.6142272949219</v>
+        <v>443.5621337890625</v>
       </c>
       <c r="AQ151" t="n">
-        <v>381.5547485351562</v>
+        <v>398.5011291503906</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>433.2840576171875</v>
       </c>
     </row>
-    <row r="152" spans="1:43">
+    <row r="152" spans="1:44">
       <c r="A152" s="2" t="n">
-        <v>43111</v>
+        <v>43405</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
@@ -20391,36 +20847,39 @@
         <v>183</v>
       </c>
       <c r="AI152" t="n">
-        <v>376.1065979003906</v>
+        <v>368.9007568359375</v>
       </c>
       <c r="AJ152" t="n">
-        <v>389.5371398925781</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK152" t="n">
-        <v>409.8194885253906</v>
+        <v>390.1124877929688</v>
       </c>
       <c r="AL152" t="n">
-        <v>396.4536743164062</v>
+        <v>398.0095520019531</v>
       </c>
       <c r="AM152" t="n">
-        <v>373.4495544433594</v>
+        <v>371.7156677246094</v>
       </c>
       <c r="AN152" t="n">
-        <v>370.6700134277344</v>
+        <v>371.148681640625</v>
       </c>
       <c r="AO152" t="n">
-        <v>394.0906982421875</v>
+        <v>402.4715881347656</v>
       </c>
       <c r="AP152" t="n">
-        <v>394.0906982421875</v>
+        <v>402.4715881347656</v>
       </c>
       <c r="AQ152" t="n">
-        <v>409.8194885253906</v>
+        <v>390.1124877929688</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>340.5823364257812</v>
       </c>
     </row>
-    <row r="153" spans="1:43">
+    <row r="153" spans="1:44">
       <c r="A153" s="2" t="n">
-        <v>43231</v>
+        <v>43409</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -20522,36 +20981,39 @@
         <v>63</v>
       </c>
       <c r="AI153" t="n">
-        <v>242.9371643066406</v>
+        <v>245.3375549316406</v>
       </c>
       <c r="AJ153" t="n">
-        <v>284.4229736328125</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK153" t="n">
-        <v>269.2635498046875</v>
+        <v>318.9191589355469</v>
       </c>
       <c r="AL153" t="n">
-        <v>277.2528076171875</v>
+        <v>233.7732086181641</v>
       </c>
       <c r="AM153" t="n">
-        <v>249.0497589111328</v>
+        <v>259.5444641113281</v>
       </c>
       <c r="AN153" t="n">
-        <v>320.9441528320312</v>
+        <v>305.2888488769531</v>
       </c>
       <c r="AO153" t="n">
-        <v>330.046142578125</v>
+        <v>351.685546875</v>
       </c>
       <c r="AP153" t="n">
-        <v>330.046142578125</v>
+        <v>351.685546875</v>
       </c>
       <c r="AQ153" t="n">
-        <v>269.2635498046875</v>
+        <v>318.9191589355469</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>344.6412658691406</v>
       </c>
     </row>
-    <row r="154" spans="1:43">
+    <row r="154" spans="1:44">
       <c r="A154" s="2" t="n">
-        <v>43262</v>
+        <v>43410</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -20653,36 +21115,39 @@
         <v>185</v>
       </c>
       <c r="AI154" t="n">
-        <v>364.4088439941406</v>
+        <v>362.9654846191406</v>
       </c>
       <c r="AJ154" t="n">
-        <v>353.0114135742188</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK154" t="n">
-        <v>380.810791015625</v>
+        <v>347.8556213378906</v>
       </c>
       <c r="AL154" t="n">
-        <v>402.478271484375</v>
+        <v>402.321044921875</v>
       </c>
       <c r="AM154" t="n">
-        <v>375.5946350097656</v>
+        <v>324.6609497070312</v>
       </c>
       <c r="AN154" t="n">
-        <v>342.644287109375</v>
+        <v>340.6742858886719</v>
       </c>
       <c r="AO154" t="n">
-        <v>371.106689453125</v>
+        <v>390.5617065429688</v>
       </c>
       <c r="AP154" t="n">
-        <v>371.106689453125</v>
+        <v>390.5617065429688</v>
       </c>
       <c r="AQ154" t="n">
-        <v>380.810791015625</v>
+        <v>347.8556213378906</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>346.9063720703125</v>
       </c>
     </row>
-    <row r="155" spans="1:43">
+    <row r="155" spans="1:44">
       <c r="A155" s="2" t="n">
-        <v>43292</v>
+        <v>43411</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -20784,36 +21249,39 @@
         <v>256</v>
       </c>
       <c r="AI155" t="n">
-        <v>365.0981750488281</v>
+        <v>373.4390869140625</v>
       </c>
       <c r="AJ155" t="n">
-        <v>336.2826843261719</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK155" t="n">
-        <v>406.0465698242188</v>
+        <v>397.2799072265625</v>
       </c>
       <c r="AL155" t="n">
-        <v>398.7861022949219</v>
+        <v>400.0213928222656</v>
       </c>
       <c r="AM155" t="n">
-        <v>374.2422180175781</v>
+        <v>374.8097534179688</v>
       </c>
       <c r="AN155" t="n">
-        <v>390.8155517578125</v>
+        <v>407.8682861328125</v>
       </c>
       <c r="AO155" t="n">
-        <v>409.2010803222656</v>
+        <v>411.4204711914062</v>
       </c>
       <c r="AP155" t="n">
-        <v>409.2010803222656</v>
+        <v>411.4204711914062</v>
       </c>
       <c r="AQ155" t="n">
-        <v>406.0465698242188</v>
+        <v>397.2799072265625</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>383.8108215332031</v>
       </c>
     </row>
-    <row r="156" spans="1:43">
+    <row r="156" spans="1:44">
       <c r="A156" s="2" t="n">
-        <v>43323</v>
+        <v>43412</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -20915,36 +21383,39 @@
         <v>208</v>
       </c>
       <c r="AI156" t="n">
-        <v>398.4163818359375</v>
+        <v>388.8702392578125</v>
       </c>
       <c r="AJ156" t="n">
-        <v>391.1343078613281</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK156" t="n">
-        <v>405.7426452636719</v>
+        <v>380.7908935546875</v>
       </c>
       <c r="AL156" t="n">
-        <v>401.5257263183594</v>
+        <v>405.7229614257812</v>
       </c>
       <c r="AM156" t="n">
-        <v>382.41650390625</v>
+        <v>352.6367492675781</v>
       </c>
       <c r="AN156" t="n">
-        <v>382.4834899902344</v>
+        <v>399.3099060058594</v>
       </c>
       <c r="AO156" t="n">
-        <v>400.5692443847656</v>
+        <v>417.7947387695312</v>
       </c>
       <c r="AP156" t="n">
-        <v>400.5692443847656</v>
+        <v>417.7947387695312</v>
       </c>
       <c r="AQ156" t="n">
-        <v>405.7426452636719</v>
+        <v>380.7908935546875</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>375.5858154296875</v>
       </c>
     </row>
-    <row r="157" spans="1:43">
+    <row r="157" spans="1:44">
       <c r="A157" s="2" t="n">
-        <v>43354</v>
+        <v>43413</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
@@ -21046,36 +21517,39 @@
         <v>131</v>
       </c>
       <c r="AI157" t="n">
-        <v>321.786376953125</v>
+        <v>327.8007507324219</v>
       </c>
       <c r="AJ157" t="n">
-        <v>349.290771484375</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK157" t="n">
-        <v>353.4475402832031</v>
+        <v>359.7670288085938</v>
       </c>
       <c r="AL157" t="n">
-        <v>330.9057312011719</v>
+        <v>328.3500671386719</v>
       </c>
       <c r="AM157" t="n">
-        <v>299.5516052246094</v>
+        <v>318.9443969726562</v>
       </c>
       <c r="AN157" t="n">
-        <v>326.7929992675781</v>
+        <v>334.2212219238281</v>
       </c>
       <c r="AO157" t="n">
-        <v>340.5627746582031</v>
+        <v>373.4368591308594</v>
       </c>
       <c r="AP157" t="n">
-        <v>340.5627746582031</v>
+        <v>373.4368591308594</v>
       </c>
       <c r="AQ157" t="n">
-        <v>353.4475402832031</v>
+        <v>359.7670288085938</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>329.7947387695312</v>
       </c>
     </row>
-    <row r="158" spans="1:43">
+    <row r="158" spans="1:44">
       <c r="A158" s="2" t="n">
-        <v>43445</v>
+        <v>43416</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
@@ -21177,34 +21651,37 @@
         <v>181</v>
       </c>
       <c r="AI158" t="n">
-        <v>238.5542602539062</v>
+        <v>242.482177734375</v>
       </c>
       <c r="AJ158" t="n">
-        <v>296.60205078125</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK158" t="n">
-        <v>324.2825012207031</v>
+        <v>301.2132263183594</v>
       </c>
       <c r="AL158" t="n">
-        <v>343.2674255371094</v>
+        <v>352.3759460449219</v>
       </c>
       <c r="AM158" t="n">
-        <v>307.9567260742188</v>
+        <v>298.5002136230469</v>
       </c>
       <c r="AN158" t="n">
-        <v>273.4784851074219</v>
+        <v>287.0429382324219</v>
       </c>
       <c r="AO158" t="n">
-        <v>310.5498962402344</v>
+        <v>307.0011901855469</v>
       </c>
       <c r="AP158" t="n">
-        <v>310.5498962402344</v>
+        <v>307.0011901855469</v>
       </c>
       <c r="AQ158" t="n">
-        <v>324.2825012207031</v>
+        <v>301.2132263183594</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>317.2445678710938</v>
       </c>
     </row>
-    <row r="159" spans="1:43">
+    <row r="159" spans="1:44">
       <c r="A159" s="2" t="n">
         <v>43417</v>
       </c>
@@ -21308,34 +21785,37 @@
         <v>205</v>
       </c>
       <c r="AI159" t="n">
-        <v>388.6559143066406</v>
+        <v>374.832763671875</v>
       </c>
       <c r="AJ159" t="n">
-        <v>395.8561096191406</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK159" t="n">
-        <v>444.5179748535156</v>
+        <v>362.2483825683594</v>
       </c>
       <c r="AL159" t="n">
-        <v>443.97119140625</v>
+        <v>441.1268005371094</v>
       </c>
       <c r="AM159" t="n">
-        <v>416.9996337890625</v>
+        <v>371.829345703125</v>
       </c>
       <c r="AN159" t="n">
-        <v>343.1173400878906</v>
+        <v>373.6229248046875</v>
       </c>
       <c r="AO159" t="n">
-        <v>372.9948120117188</v>
+        <v>391.7204895019531</v>
       </c>
       <c r="AP159" t="n">
-        <v>372.9948120117188</v>
+        <v>391.7204895019531</v>
       </c>
       <c r="AQ159" t="n">
-        <v>444.5179748535156</v>
+        <v>362.2483825683594</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>346.1198120117188</v>
       </c>
     </row>
-    <row r="160" spans="1:43">
+    <row r="160" spans="1:44">
       <c r="A160" s="2" t="n">
         <v>43418</v>
       </c>
@@ -21439,34 +21919,37 @@
         <v>215</v>
       </c>
       <c r="AI160" t="n">
-        <v>361.2983093261719</v>
+        <v>376.0345153808594</v>
       </c>
       <c r="AJ160" t="n">
-        <v>313.0998840332031</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK160" t="n">
-        <v>412.7532043457031</v>
+        <v>398.8721008300781</v>
       </c>
       <c r="AL160" t="n">
-        <v>435.688720703125</v>
+        <v>418.3187866210938</v>
       </c>
       <c r="AM160" t="n">
-        <v>366.0199584960938</v>
+        <v>381.3461303710938</v>
       </c>
       <c r="AN160" t="n">
-        <v>364.0400695800781</v>
+        <v>396.3494262695312</v>
       </c>
       <c r="AO160" t="n">
-        <v>381.5357666015625</v>
+        <v>408.4722900390625</v>
       </c>
       <c r="AP160" t="n">
-        <v>381.5357666015625</v>
+        <v>408.4722900390625</v>
       </c>
       <c r="AQ160" t="n">
-        <v>412.7532043457031</v>
+        <v>398.8721008300781</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>344.5965270996094</v>
       </c>
     </row>
-    <row r="161" spans="1:43">
+    <row r="161" spans="1:44">
       <c r="A161" s="2" t="n">
         <v>43423</v>
       </c>
@@ -21570,34 +22053,37 @@
         <v>195</v>
       </c>
       <c r="AI161" t="n">
-        <v>267.6972045898438</v>
+        <v>256.7035827636719</v>
       </c>
       <c r="AJ161" t="n">
-        <v>285.8678894042969</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK161" t="n">
-        <v>373.0016479492188</v>
+        <v>340.159423828125</v>
       </c>
       <c r="AL161" t="n">
-        <v>360.3802490234375</v>
+        <v>373.1286926269531</v>
       </c>
       <c r="AM161" t="n">
-        <v>307.7676391601562</v>
+        <v>299.1945495605469</v>
       </c>
       <c r="AN161" t="n">
-        <v>350.1223754882812</v>
+        <v>374.7569580078125</v>
       </c>
       <c r="AO161" t="n">
-        <v>354.3433532714844</v>
+        <v>339.5325622558594</v>
       </c>
       <c r="AP161" t="n">
-        <v>354.3433532714844</v>
+        <v>339.5325622558594</v>
       </c>
       <c r="AQ161" t="n">
-        <v>373.0016479492188</v>
+        <v>340.159423828125</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>350.7837524414062</v>
       </c>
     </row>
-    <row r="162" spans="1:43">
+    <row r="162" spans="1:44">
       <c r="A162" s="2" t="n">
         <v>43424</v>
       </c>
@@ -21701,34 +22187,37 @@
         <v>62</v>
       </c>
       <c r="AI162" t="n">
-        <v>299.3563842773438</v>
+        <v>294.4760131835938</v>
       </c>
       <c r="AJ162" t="n">
-        <v>320.0412902832031</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK162" t="n">
-        <v>349.8328552246094</v>
+        <v>316.3923645019531</v>
       </c>
       <c r="AL162" t="n">
-        <v>388.1384887695312</v>
+        <v>394.8853149414062</v>
       </c>
       <c r="AM162" t="n">
-        <v>296.3233032226562</v>
+        <v>264.8068542480469</v>
       </c>
       <c r="AN162" t="n">
-        <v>250.4064331054688</v>
+        <v>296.2324523925781</v>
       </c>
       <c r="AO162" t="n">
-        <v>317.9723815917969</v>
+        <v>353.8330383300781</v>
       </c>
       <c r="AP162" t="n">
-        <v>317.9723815917969</v>
+        <v>353.8330383300781</v>
       </c>
       <c r="AQ162" t="n">
-        <v>349.8328552246094</v>
+        <v>316.3923645019531</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>337.39208984375</v>
       </c>
     </row>
-    <row r="163" spans="1:43">
+    <row r="163" spans="1:44">
       <c r="A163" s="2" t="n">
         <v>43425</v>
       </c>
@@ -21832,34 +22321,37 @@
         <v>208</v>
       </c>
       <c r="AI163" t="n">
-        <v>301.9675598144531</v>
+        <v>301.9385070800781</v>
       </c>
       <c r="AJ163" t="n">
-        <v>264.3316650390625</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK163" t="n">
-        <v>359.9607238769531</v>
+        <v>330.5230102539062</v>
       </c>
       <c r="AL163" t="n">
-        <v>361.2200012207031</v>
+        <v>378.3836669921875</v>
       </c>
       <c r="AM163" t="n">
-        <v>289.0915222167969</v>
+        <v>306.8207702636719</v>
       </c>
       <c r="AN163" t="n">
-        <v>305.7672729492188</v>
+        <v>351.2853088378906</v>
       </c>
       <c r="AO163" t="n">
-        <v>348.8595886230469</v>
+        <v>367.3515014648438</v>
       </c>
       <c r="AP163" t="n">
-        <v>348.8595886230469</v>
+        <v>367.3515014648438</v>
       </c>
       <c r="AQ163" t="n">
-        <v>359.9607238769531</v>
+        <v>330.5230102539062</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>357.9120178222656</v>
       </c>
     </row>
-    <row r="164" spans="1:43">
+    <row r="164" spans="1:44">
       <c r="A164" s="2" t="n">
         <v>43426</v>
       </c>
@@ -21963,34 +22455,37 @@
         <v>243</v>
       </c>
       <c r="AI164" t="n">
-        <v>356.7676696777344</v>
+        <v>352.603759765625</v>
       </c>
       <c r="AJ164" t="n">
-        <v>317.3412475585938</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK164" t="n">
-        <v>368.0864562988281</v>
+        <v>356.4718933105469</v>
       </c>
       <c r="AL164" t="n">
-        <v>230.1634674072266</v>
+        <v>255.1078491210938</v>
       </c>
       <c r="AM164" t="n">
-        <v>276.8721008300781</v>
+        <v>354.3472900390625</v>
       </c>
       <c r="AN164" t="n">
-        <v>327.2284545898438</v>
+        <v>366.7382507324219</v>
       </c>
       <c r="AO164" t="n">
-        <v>358.3921813964844</v>
+        <v>353.534423828125</v>
       </c>
       <c r="AP164" t="n">
-        <v>358.3921813964844</v>
+        <v>353.534423828125</v>
       </c>
       <c r="AQ164" t="n">
-        <v>368.0864562988281</v>
+        <v>356.4718933105469</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>355.6537170410156</v>
       </c>
     </row>
-    <row r="165" spans="1:43">
+    <row r="165" spans="1:44">
       <c r="A165" s="2" t="n">
         <v>43427</v>
       </c>
@@ -22094,34 +22589,37 @@
         <v>111</v>
       </c>
       <c r="AI165" t="n">
-        <v>322.3572387695312</v>
+        <v>317.2299499511719</v>
       </c>
       <c r="AJ165" t="n">
-        <v>351.1983032226562</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK165" t="n">
-        <v>308.2080383300781</v>
+        <v>338.8612976074219</v>
       </c>
       <c r="AL165" t="n">
-        <v>271.6614074707031</v>
+        <v>267.2816467285156</v>
       </c>
       <c r="AM165" t="n">
-        <v>312.0763244628906</v>
+        <v>279.7149047851562</v>
       </c>
       <c r="AN165" t="n">
-        <v>296.5775756835938</v>
+        <v>314.592529296875</v>
       </c>
       <c r="AO165" t="n">
-        <v>338.5305480957031</v>
+        <v>362.4544982910156</v>
       </c>
       <c r="AP165" t="n">
-        <v>338.5305480957031</v>
+        <v>362.4544982910156</v>
       </c>
       <c r="AQ165" t="n">
-        <v>308.2080383300781</v>
+        <v>338.8612976074219</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>348.4383239746094</v>
       </c>
     </row>
-    <row r="166" spans="1:43">
+    <row r="166" spans="1:44">
       <c r="A166" s="2" t="n">
         <v>43430</v>
       </c>
@@ -22225,34 +22723,37 @@
         <v>171</v>
       </c>
       <c r="AI166" t="n">
-        <v>210.4840698242188</v>
+        <v>229.4904327392578</v>
       </c>
       <c r="AJ166" t="n">
-        <v>241.0963897705078</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK166" t="n">
-        <v>284.2389831542969</v>
+        <v>273.4641418457031</v>
       </c>
       <c r="AL166" t="n">
-        <v>309.5579833984375</v>
+        <v>324.774169921875</v>
       </c>
       <c r="AM166" t="n">
-        <v>250.4527282714844</v>
+        <v>310.1894836425781</v>
       </c>
       <c r="AN166" t="n">
-        <v>227.7540893554688</v>
+        <v>260.6282958984375</v>
       </c>
       <c r="AO166" t="n">
-        <v>314.7815856933594</v>
+        <v>292.6982727050781</v>
       </c>
       <c r="AP166" t="n">
-        <v>314.7815856933594</v>
+        <v>292.6982727050781</v>
       </c>
       <c r="AQ166" t="n">
-        <v>284.2389831542969</v>
+        <v>273.4641418457031</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>315.5457763671875</v>
       </c>
     </row>
-    <row r="167" spans="1:43">
+    <row r="167" spans="1:44">
       <c r="A167" s="2" t="n">
         <v>43431</v>
       </c>
@@ -22356,34 +22857,37 @@
         <v>217</v>
       </c>
       <c r="AI167" t="n">
-        <v>385.0584716796875</v>
+        <v>356.2630004882812</v>
       </c>
       <c r="AJ167" t="n">
-        <v>393.0668334960938</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK167" t="n">
-        <v>427.7938842773438</v>
+        <v>347.2166442871094</v>
       </c>
       <c r="AL167" t="n">
-        <v>453.0501098632812</v>
+        <v>453.3480529785156</v>
       </c>
       <c r="AM167" t="n">
-        <v>392.8460388183594</v>
+        <v>385.8629760742188</v>
       </c>
       <c r="AN167" t="n">
-        <v>269.3685913085938</v>
+        <v>347.4609985351562</v>
       </c>
       <c r="AO167" t="n">
-        <v>414.9191589355469</v>
+        <v>404.2029418945312</v>
       </c>
       <c r="AP167" t="n">
-        <v>414.9191589355469</v>
+        <v>404.2029418945312</v>
       </c>
       <c r="AQ167" t="n">
-        <v>427.7938842773438</v>
+        <v>347.2166442871094</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>323.4462280273438</v>
       </c>
     </row>
-    <row r="168" spans="1:43">
+    <row r="168" spans="1:44">
       <c r="A168" s="2" t="n">
         <v>43432</v>
       </c>
@@ -22487,34 +22991,37 @@
         <v>184</v>
       </c>
       <c r="AI168" t="n">
-        <v>354.6109924316406</v>
+        <v>368.44580078125</v>
       </c>
       <c r="AJ168" t="n">
-        <v>392.4176635742188</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK168" t="n">
-        <v>385.8836975097656</v>
+        <v>410.9597473144531</v>
       </c>
       <c r="AL168" t="n">
-        <v>425.2737426757812</v>
+        <v>401.5748901367188</v>
       </c>
       <c r="AM168" t="n">
-        <v>379.991943359375</v>
+        <v>395.4876708984375</v>
       </c>
       <c r="AN168" t="n">
-        <v>404.2434387207031</v>
+        <v>423.1293029785156</v>
       </c>
       <c r="AO168" t="n">
-        <v>424.0253295898438</v>
+        <v>441.4118957519531</v>
       </c>
       <c r="AP168" t="n">
-        <v>424.0253295898438</v>
+        <v>441.4118957519531</v>
       </c>
       <c r="AQ168" t="n">
-        <v>385.8836975097656</v>
+        <v>410.9597473144531</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>408.4578247070312</v>
       </c>
     </row>
-    <row r="169" spans="1:43">
+    <row r="169" spans="1:44">
       <c r="A169" s="2" t="n">
         <v>43433</v>
       </c>
@@ -22618,34 +23125,37 @@
         <v>204</v>
       </c>
       <c r="AI169" t="n">
-        <v>377.8668212890625</v>
+        <v>377.3999328613281</v>
       </c>
       <c r="AJ169" t="n">
-        <v>331.4093322753906</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK169" t="n">
-        <v>412.2291870117188</v>
+        <v>385.478759765625</v>
       </c>
       <c r="AL169" t="n">
-        <v>386.4891967773438</v>
+        <v>388.7787780761719</v>
       </c>
       <c r="AM169" t="n">
-        <v>339.7049865722656</v>
+        <v>383.0231628417969</v>
       </c>
       <c r="AN169" t="n">
-        <v>399.668701171875</v>
+        <v>391.5433349609375</v>
       </c>
       <c r="AO169" t="n">
-        <v>383.3496398925781</v>
+        <v>414.3703308105469</v>
       </c>
       <c r="AP169" t="n">
-        <v>383.3496398925781</v>
+        <v>414.3703308105469</v>
       </c>
       <c r="AQ169" t="n">
-        <v>412.2291870117188</v>
+        <v>385.478759765625</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>414.0131225585938</v>
       </c>
     </row>
-    <row r="170" spans="1:43">
+    <row r="170" spans="1:44">
       <c r="A170" s="2" t="n">
         <v>43434</v>
       </c>
@@ -22749,36 +23259,39 @@
         <v>49</v>
       </c>
       <c r="AI170" t="n">
-        <v>317.4927062988281</v>
+        <v>305.8179931640625</v>
       </c>
       <c r="AJ170" t="n">
-        <v>322.92724609375</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK170" t="n">
-        <v>328.0296020507812</v>
+        <v>327.5257568359375</v>
       </c>
       <c r="AL170" t="n">
-        <v>346.1607360839844</v>
+        <v>331.3272705078125</v>
       </c>
       <c r="AM170" t="n">
-        <v>296.7075500488281</v>
+        <v>282.3484497070312</v>
       </c>
       <c r="AN170" t="n">
-        <v>248.6074066162109</v>
+        <v>278.6058349609375</v>
       </c>
       <c r="AO170" t="n">
-        <v>322.4893188476562</v>
+        <v>355.6219482421875</v>
       </c>
       <c r="AP170" t="n">
-        <v>322.4893188476562</v>
+        <v>355.6219482421875</v>
       </c>
       <c r="AQ170" t="n">
-        <v>328.0296020507812</v>
+        <v>327.5257568359375</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>317.7109985351562</v>
       </c>
     </row>
-    <row r="171" spans="1:43">
+    <row r="171" spans="1:44">
       <c r="A171" s="2" t="n">
-        <v>43171</v>
+        <v>43437</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
@@ -22880,36 +23393,39 @@
         <v>197</v>
       </c>
       <c r="AI171" t="n">
-        <v>227.0848083496094</v>
+        <v>241.1655578613281</v>
       </c>
       <c r="AJ171" t="n">
-        <v>259.7265319824219</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK171" t="n">
-        <v>296.495849609375</v>
+        <v>295.896728515625</v>
       </c>
       <c r="AL171" t="n">
-        <v>329.2820434570312</v>
+        <v>338.7781677246094</v>
       </c>
       <c r="AM171" t="n">
-        <v>290.798095703125</v>
+        <v>313.0406799316406</v>
       </c>
       <c r="AN171" t="n">
-        <v>264.1496276855469</v>
+        <v>250.8086547851562</v>
       </c>
       <c r="AO171" t="n">
-        <v>283.7633666992188</v>
+        <v>288.6773071289062</v>
       </c>
       <c r="AP171" t="n">
-        <v>283.7633666992188</v>
+        <v>288.6773071289062</v>
       </c>
       <c r="AQ171" t="n">
-        <v>296.495849609375</v>
+        <v>295.896728515625</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>311.8378601074219</v>
       </c>
     </row>
-    <row r="172" spans="1:43">
+    <row r="172" spans="1:44">
       <c r="A172" s="2" t="n">
-        <v>43202</v>
+        <v>43438</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -23011,36 +23527,39 @@
         <v>281</v>
       </c>
       <c r="AI172" t="n">
-        <v>370.8796081542969</v>
+        <v>359.7630615234375</v>
       </c>
       <c r="AJ172" t="n">
-        <v>367.3379211425781</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK172" t="n">
-        <v>418.5377502441406</v>
+        <v>358.4446411132812</v>
       </c>
       <c r="AL172" t="n">
-        <v>398.4862976074219</v>
+        <v>419.8987426757812</v>
       </c>
       <c r="AM172" t="n">
-        <v>389.2465209960938</v>
+        <v>338.1156005859375</v>
       </c>
       <c r="AN172" t="n">
-        <v>329.2462768554688</v>
+        <v>337.0950012207031</v>
       </c>
       <c r="AO172" t="n">
-        <v>341.7421875</v>
+        <v>329.94189453125</v>
       </c>
       <c r="AP172" t="n">
-        <v>341.7421875</v>
+        <v>329.94189453125</v>
       </c>
       <c r="AQ172" t="n">
-        <v>418.5377502441406</v>
+        <v>358.4446411132812</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>309.8924865722656</v>
       </c>
     </row>
-    <row r="173" spans="1:43">
+    <row r="173" spans="1:44">
       <c r="A173" s="2" t="n">
-        <v>43232</v>
+        <v>43439</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -23142,36 +23661,39 @@
         <v>196</v>
       </c>
       <c r="AI173" t="n">
-        <v>320.3431701660156</v>
+        <v>340.2360534667969</v>
       </c>
       <c r="AJ173" t="n">
-        <v>321.591552734375</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK173" t="n">
-        <v>394.7897033691406</v>
+        <v>361.2255859375</v>
       </c>
       <c r="AL173" t="n">
-        <v>406.1676025390625</v>
+        <v>411.1242370605469</v>
       </c>
       <c r="AM173" t="n">
-        <v>344.0850219726562</v>
+        <v>351.3654174804688</v>
       </c>
       <c r="AN173" t="n">
-        <v>316.9108276367188</v>
+        <v>344.6202697753906</v>
       </c>
       <c r="AO173" t="n">
-        <v>354.0732727050781</v>
+        <v>362.683349609375</v>
       </c>
       <c r="AP173" t="n">
-        <v>354.0732727050781</v>
+        <v>362.683349609375</v>
       </c>
       <c r="AQ173" t="n">
-        <v>394.7897033691406</v>
+        <v>361.2255859375</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>330.974853515625</v>
       </c>
     </row>
-    <row r="174" spans="1:43">
+    <row r="174" spans="1:44">
       <c r="A174" s="2" t="n">
-        <v>43263</v>
+        <v>43440</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
@@ -23273,36 +23795,39 @@
         <v>200</v>
       </c>
       <c r="AI174" t="n">
-        <v>328.0469360351562</v>
+        <v>320.4151611328125</v>
       </c>
       <c r="AJ174" t="n">
-        <v>314.4732055664062</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK174" t="n">
-        <v>392.7742614746094</v>
+        <v>336.3661499023438</v>
       </c>
       <c r="AL174" t="n">
-        <v>334.3651428222656</v>
+        <v>346.2164916992188</v>
       </c>
       <c r="AM174" t="n">
-        <v>330.9339904785156</v>
+        <v>322.5011291503906</v>
       </c>
       <c r="AN174" t="n">
-        <v>294.3779602050781</v>
+        <v>315.8460388183594</v>
       </c>
       <c r="AO174" t="n">
-        <v>305.5899658203125</v>
+        <v>338.6500244140625</v>
       </c>
       <c r="AP174" t="n">
-        <v>305.5899658203125</v>
+        <v>338.6500244140625</v>
       </c>
       <c r="AQ174" t="n">
-        <v>392.7742614746094</v>
+        <v>336.3661499023438</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>326.3972778320312</v>
       </c>
     </row>
-    <row r="175" spans="1:43">
+    <row r="175" spans="1:44">
       <c r="A175" s="2" t="n">
-        <v>43293</v>
+        <v>43441</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -23404,36 +23929,39 @@
         <v>68</v>
       </c>
       <c r="AI175" t="n">
-        <v>247.0230255126953</v>
+        <v>244.6837463378906</v>
       </c>
       <c r="AJ175" t="n">
-        <v>263.9578247070312</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK175" t="n">
-        <v>288.2039794921875</v>
+        <v>296.1930847167969</v>
       </c>
       <c r="AL175" t="n">
-        <v>272.0884399414062</v>
+        <v>239.8812561035156</v>
       </c>
       <c r="AM175" t="n">
-        <v>247.3953552246094</v>
+        <v>232.7475280761719</v>
       </c>
       <c r="AN175" t="n">
-        <v>244.7357025146484</v>
+        <v>263.641845703125</v>
       </c>
       <c r="AO175" t="n">
-        <v>314.1239929199219</v>
+        <v>305.0553283691406</v>
       </c>
       <c r="AP175" t="n">
-        <v>314.1239929199219</v>
+        <v>305.0553283691406</v>
       </c>
       <c r="AQ175" t="n">
-        <v>288.2039794921875</v>
+        <v>296.1930847167969</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>294.4822082519531</v>
       </c>
     </row>
-    <row r="176" spans="1:43">
+    <row r="176" spans="1:44">
       <c r="A176" s="2" t="n">
-        <v>43385</v>
+        <v>43444</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -23535,36 +24063,39 @@
         <v>155</v>
       </c>
       <c r="AI176" t="n">
-        <v>193.3407440185547</v>
+        <v>204.3766937255859</v>
       </c>
       <c r="AJ176" t="n">
-        <v>232.7214813232422</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK176" t="n">
-        <v>286.9565734863281</v>
+        <v>249.2380065917969</v>
       </c>
       <c r="AL176" t="n">
-        <v>291.6656799316406</v>
+        <v>302.2990112304688</v>
       </c>
       <c r="AM176" t="n">
-        <v>233.1261291503906</v>
+        <v>235.6583099365234</v>
       </c>
       <c r="AN176" t="n">
-        <v>209.3095703125</v>
+        <v>216.7033386230469</v>
       </c>
       <c r="AO176" t="n">
-        <v>229.0842742919922</v>
+        <v>250.4817810058594</v>
       </c>
       <c r="AP176" t="n">
-        <v>229.0842742919922</v>
+        <v>250.4817810058594</v>
       </c>
       <c r="AQ176" t="n">
-        <v>286.9565734863281</v>
+        <v>249.2380065917969</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>262.8286437988281</v>
       </c>
     </row>
-    <row r="177" spans="1:43">
+    <row r="177" spans="1:44">
       <c r="A177" s="2" t="n">
-        <v>43416</v>
+        <v>43445</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
@@ -23666,34 +24197,37 @@
         <v>189</v>
       </c>
       <c r="AI177" t="n">
-        <v>226.5529327392578</v>
+        <v>217.2872924804688</v>
       </c>
       <c r="AJ177" t="n">
-        <v>246.2642364501953</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK177" t="n">
-        <v>278.15380859375</v>
+        <v>231.1852264404297</v>
       </c>
       <c r="AL177" t="n">
-        <v>262.5616455078125</v>
+        <v>274.5401916503906</v>
       </c>
       <c r="AM177" t="n">
-        <v>261.146484375</v>
+        <v>210.7787322998047</v>
       </c>
       <c r="AN177" t="n">
-        <v>176.3370056152344</v>
+        <v>193.1510314941406</v>
       </c>
       <c r="AO177" t="n">
-        <v>209.7095794677734</v>
+        <v>244.3087615966797</v>
       </c>
       <c r="AP177" t="n">
-        <v>209.7095794677734</v>
+        <v>244.3087615966797</v>
       </c>
       <c r="AQ177" t="n">
-        <v>278.15380859375</v>
+        <v>231.1852264404297</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>226.6251525878906</v>
       </c>
     </row>
-    <row r="178" spans="1:43">
+    <row r="178" spans="1:44">
       <c r="A178" s="2" t="n">
         <v>43446</v>
       </c>
@@ -23797,34 +24331,37 @@
         <v>137</v>
       </c>
       <c r="AI178" t="n">
-        <v>215.3307647705078</v>
+        <v>217.1724395751953</v>
       </c>
       <c r="AJ178" t="n">
-        <v>239.8746795654297</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK178" t="n">
-        <v>268.1452941894531</v>
+        <v>237.0271759033203</v>
       </c>
       <c r="AL178" t="n">
-        <v>236.5695343017578</v>
+        <v>216.6488494873047</v>
       </c>
       <c r="AM178" t="n">
-        <v>218.2800598144531</v>
+        <v>244.8397674560547</v>
       </c>
       <c r="AN178" t="n">
-        <v>191.1105499267578</v>
+        <v>236.2139129638672</v>
       </c>
       <c r="AO178" t="n">
-        <v>228.2183380126953</v>
+        <v>273.0477294921875</v>
       </c>
       <c r="AP178" t="n">
-        <v>228.2183380126953</v>
+        <v>273.0477294921875</v>
       </c>
       <c r="AQ178" t="n">
-        <v>268.1452941894531</v>
+        <v>237.0271759033203</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>228.0660247802734</v>
       </c>
     </row>
-    <row r="179" spans="1:43">
+    <row r="179" spans="1:44">
       <c r="A179" s="2" t="n">
         <v>43447</v>
       </c>
@@ -23928,34 +24465,37 @@
         <v>128</v>
       </c>
       <c r="AI179" t="n">
-        <v>177.6236877441406</v>
+        <v>185.5454864501953</v>
       </c>
       <c r="AJ179" t="n">
-        <v>136.8124237060547</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK179" t="n">
-        <v>180.6045837402344</v>
+        <v>219.5940551757812</v>
       </c>
       <c r="AL179" t="n">
-        <v>152.2145690917969</v>
+        <v>118.8493957519531</v>
       </c>
       <c r="AM179" t="n">
-        <v>97.88272857666016</v>
+        <v>186.9739990234375</v>
       </c>
       <c r="AN179" t="n">
-        <v>167.9038848876953</v>
+        <v>198.4456481933594</v>
       </c>
       <c r="AO179" t="n">
-        <v>202.3472595214844</v>
+        <v>231.5494995117188</v>
       </c>
       <c r="AP179" t="n">
-        <v>202.3472595214844</v>
+        <v>231.5494995117188</v>
       </c>
       <c r="AQ179" t="n">
-        <v>180.6045837402344</v>
+        <v>219.5940551757812</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>212.6111755371094</v>
       </c>
     </row>
-    <row r="180" spans="1:43">
+    <row r="180" spans="1:44">
       <c r="A180" s="2" t="n">
         <v>43448</v>
       </c>
@@ -24059,34 +24599,37 @@
         <v>44</v>
       </c>
       <c r="AI180" t="n">
-        <v>169.5123291015625</v>
+        <v>160.8749237060547</v>
       </c>
       <c r="AJ180" t="n">
-        <v>190.7610778808594</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK180" t="n">
-        <v>173.9316253662109</v>
+        <v>187.5901947021484</v>
       </c>
       <c r="AL180" t="n">
-        <v>128.7292633056641</v>
+        <v>101.9695205688477</v>
       </c>
       <c r="AM180" t="n">
-        <v>157.1872863769531</v>
+        <v>164.368896484375</v>
       </c>
       <c r="AN180" t="n">
-        <v>96.34786224365234</v>
+        <v>131.5104675292969</v>
       </c>
       <c r="AO180" t="n">
-        <v>165.9711151123047</v>
+        <v>202.7189025878906</v>
       </c>
       <c r="AP180" t="n">
-        <v>165.9711151123047</v>
+        <v>202.7189025878906</v>
       </c>
       <c r="AQ180" t="n">
-        <v>173.9316253662109</v>
+        <v>187.5901947021484</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>164.1812133789062</v>
       </c>
     </row>
-    <row r="181" spans="1:43">
+    <row r="181" spans="1:44">
       <c r="A181" s="2" t="n">
         <v>43451</v>
       </c>
@@ -24190,34 +24733,37 @@
         <v>70</v>
       </c>
       <c r="AI181" t="n">
-        <v>102.5035629272461</v>
+        <v>108.8505935668945</v>
       </c>
       <c r="AJ181" t="n">
-        <v>118.2749938964844</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK181" t="n">
-        <v>158.1320343017578</v>
+        <v>141.0518341064453</v>
       </c>
       <c r="AL181" t="n">
-        <v>148.3412933349609</v>
+        <v>148.5314331054688</v>
       </c>
       <c r="AM181" t="n">
-        <v>76.31599426269531</v>
+        <v>140.8455352783203</v>
       </c>
       <c r="AN181" t="n">
-        <v>101.1702041625977</v>
+        <v>119.8411483764648</v>
       </c>
       <c r="AO181" t="n">
-        <v>173.7035369873047</v>
+        <v>165.3616485595703</v>
       </c>
       <c r="AP181" t="n">
-        <v>173.7035369873047</v>
+        <v>165.3616485595703</v>
       </c>
       <c r="AQ181" t="n">
-        <v>158.1320343017578</v>
+        <v>141.0518341064453</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>170.4196624755859</v>
       </c>
     </row>
-    <row r="182" spans="1:43">
+    <row r="182" spans="1:44">
       <c r="A182" s="2" t="n">
         <v>43452</v>
       </c>
@@ -24321,34 +24867,37 @@
         <v>122</v>
       </c>
       <c r="AI182" t="n">
-        <v>146.3947296142578</v>
+        <v>132.3514556884766</v>
       </c>
       <c r="AJ182" t="n">
-        <v>156.8757476806641</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK182" t="n">
-        <v>130.2302856445312</v>
+        <v>132.0604858398438</v>
       </c>
       <c r="AL182" t="n">
-        <v>117.6008758544922</v>
+        <v>117.5990295410156</v>
       </c>
       <c r="AM182" t="n">
-        <v>168.2526397705078</v>
+        <v>144.9758911132812</v>
       </c>
       <c r="AN182" t="n">
-        <v>95.06966400146484</v>
+        <v>111.8928070068359</v>
       </c>
       <c r="AO182" t="n">
-        <v>171.5561370849609</v>
+        <v>163.4319610595703</v>
       </c>
       <c r="AP182" t="n">
-        <v>171.5561370849609</v>
+        <v>163.4319610595703</v>
       </c>
       <c r="AQ182" t="n">
-        <v>130.2302856445312</v>
+        <v>132.0604858398438</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>150.1120300292969</v>
       </c>
     </row>
-    <row r="183" spans="1:43">
+    <row r="183" spans="1:44">
       <c r="A183" s="2" t="n">
         <v>43453</v>
       </c>
@@ -24452,34 +25001,37 @@
         <v>60</v>
       </c>
       <c r="AI183" t="n">
-        <v>85.05527496337891</v>
+        <v>94.14753723144531</v>
       </c>
       <c r="AJ183" t="n">
-        <v>110.6218872070312</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK183" t="n">
-        <v>76.970947265625</v>
+        <v>113.1338729858398</v>
       </c>
       <c r="AL183" t="n">
-        <v>82.80548095703125</v>
+        <v>68.20976257324219</v>
       </c>
       <c r="AM183" t="n">
-        <v>80.39682006835938</v>
+        <v>94.80155181884766</v>
       </c>
       <c r="AN183" t="n">
-        <v>59.21231460571289</v>
+        <v>80.092041015625</v>
       </c>
       <c r="AO183" t="n">
-        <v>136.9078369140625</v>
+        <v>133.1473999023438</v>
       </c>
       <c r="AP183" t="n">
-        <v>136.9078369140625</v>
+        <v>133.1473999023438</v>
       </c>
       <c r="AQ183" t="n">
-        <v>76.970947265625</v>
+        <v>113.1338729858398</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>125.5626602172852</v>
       </c>
     </row>
-    <row r="184" spans="1:43">
+    <row r="184" spans="1:44">
       <c r="A184" s="2" t="n">
         <v>43454</v>
       </c>
@@ -24583,34 +25135,37 @@
         <v>66</v>
       </c>
       <c r="AI184" t="n">
-        <v>102.9999771118164</v>
+        <v>98.96352386474609</v>
       </c>
       <c r="AJ184" t="n">
-        <v>69.48094940185547</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK184" t="n">
-        <v>73.10262298583984</v>
+        <v>93.49518585205078</v>
       </c>
       <c r="AL184" t="n">
-        <v>69.95442962646484</v>
+        <v>62.38994216918945</v>
       </c>
       <c r="AM184" t="n">
-        <v>90.94412231445312</v>
+        <v>60.03420257568359</v>
       </c>
       <c r="AN184" t="n">
-        <v>27.92500305175781</v>
+        <v>62.54165267944336</v>
       </c>
       <c r="AO184" t="n">
-        <v>128.6986083984375</v>
+        <v>103.0353393554688</v>
       </c>
       <c r="AP184" t="n">
-        <v>128.6986083984375</v>
+        <v>103.0353393554688</v>
       </c>
       <c r="AQ184" t="n">
-        <v>73.10262298583984</v>
+        <v>93.49518585205078</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>105.3018417358398</v>
       </c>
     </row>
-    <row r="185" spans="1:43">
+    <row r="185" spans="1:44">
       <c r="A185" s="2" t="n">
         <v>43455</v>
       </c>
@@ -24714,19 +25269,19 @@
         <v>21</v>
       </c>
       <c r="AI185" t="n">
-        <v>72.34516143798828</v>
+        <v>71.20804595947266</v>
       </c>
       <c r="AJ185" t="n">
-        <v>71.34840393066406</v>
+        <v>267.7140197753906</v>
       </c>
       <c r="AK185" t="n">
-        <v>80.31315612792969</v>
+        <v>81.09770202636719</v>
       </c>
       <c r="AL185" t="n">
-        <v>60.69009017944336</v>
+        <v>54.68354034423828</v>
       </c>
       <c r="AM185" t="n">
-        <v>93.75678253173828</v>
+        <v>78.54512023925781</v>
       </c>
       <c r="AN185" t="n">
         <v>9</v>
@@ -24738,7 +25293,10 @@
         <v>9</v>
       </c>
       <c r="AQ185" t="n">
-        <v>80.31315612792969</v>
+        <v>81.09770202636719</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
